--- a/VersiónFinal-MESIAPS-19Sep2017.xlsx
+++ b/VersiónFinal-MESIAPS-19Sep2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsNode\SIAPS-HerramientaEvaluacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicsDesarrollos\SIAPS-HerramientaEvaluacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensiones" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,21 @@
     <sheet name="version3" sheetId="4" r:id="rId5"/>
     <sheet name="Hoja3" sheetId="7" r:id="rId6"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId7"/>
+    <sheet name="Hoja4" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Caracteristicas-atributos-metri'!$A$1:$AL$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dimensiones!$A$1:$B$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Hoja1!$J$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Hoja1!$K$1:$K$876</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Version 3 Depuración'!$A$1:$AM$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">version3!$A$1:$AL$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">version3!$A$1:$P$71</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="549">
   <si>
     <t>Subdimensión</t>
   </si>
@@ -1662,6 +1663,24 @@
   <si>
     <t>Estandarización de información</t>
   </si>
+  <si>
+    <t>Tipo de sistema de información(Adicionar el campo tsysoid) en la tabla Question</t>
+  </si>
+  <si>
+    <t>graficas</t>
+  </si>
+  <si>
+    <t>dejar la dimensiones, y poner las subdimensiones de las tres seguidas</t>
+  </si>
+  <si>
+    <t>lo mimosen caracteristicas(4 caracteristicas)</t>
+  </si>
+  <si>
+    <t>grafica, respuestas por tipo de sistema</t>
+  </si>
+  <si>
+    <t>lista de sistemas: poner los tipos de sistemas asociados</t>
+  </si>
 </sst>
 </file>
 
@@ -19551,7 +19570,7 @@
   </sheetPr>
   <dimension ref="A1:Q891"/>
   <sheetViews>
-    <sheetView topLeftCell="H73" workbookViewId="0">
+    <sheetView topLeftCell="H37" workbookViewId="0">
       <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
@@ -38312,11 +38331,11 @@
   </sheetPr>
   <dimension ref="A1:P876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P1048576"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="33.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="47.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
@@ -38332,7 +38351,7 @@
     <col min="13" max="16" width="40.85546875" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
+    <row r="1" spans="1:16" ht="33.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -38343,7 +38362,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>5</v>
+        <v>543</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -39977,7 +39996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="173.25">
+    <row r="35" spans="1:16" ht="33.75" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>35</v>
       </c>
@@ -40025,7 +40044,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="173.25">
+    <row r="36" spans="1:16" ht="33.75" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
@@ -40073,7 +40092,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="173.25">
+    <row r="37" spans="1:16" ht="33.75" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
@@ -40121,7 +40140,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="173.25">
+    <row r="38" spans="1:16" ht="33.75" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
@@ -40169,7 +40188,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="173.25">
+    <row r="39" spans="1:16" ht="33.75" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -40217,7 +40236,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="173.25">
+    <row r="40" spans="1:16" ht="33.75" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>35</v>
       </c>
@@ -41764,7 +41783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75">
+    <row r="72" spans="1:16" ht="33.75" customHeight="1">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="36"/>
@@ -41775,7 +41794,7 @@
       <c r="H72" s="40"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75">
+    <row r="73" spans="1:16" ht="33.75" customHeight="1">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="36"/>
@@ -41786,7 +41805,7 @@
       <c r="H73" s="40"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75">
+    <row r="74" spans="1:16" ht="33.75" customHeight="1">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="36"/>
@@ -41797,7 +41816,7 @@
       <c r="H74" s="40"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75">
+    <row r="75" spans="1:16" ht="33.75" customHeight="1">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="36"/>
@@ -41808,7 +41827,7 @@
       <c r="H75" s="40"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75">
+    <row r="76" spans="1:16" ht="33.75" customHeight="1">
       <c r="A76" s="35"/>
       <c r="B76" s="35"/>
       <c r="C76" s="36"/>
@@ -41819,7 +41838,7 @@
       <c r="H76" s="40"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75">
+    <row r="77" spans="1:16" ht="33.75" customHeight="1">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="36"/>
@@ -41830,7 +41849,7 @@
       <c r="H77" s="40"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75">
+    <row r="78" spans="1:16" ht="33.75" customHeight="1">
       <c r="A78" s="35"/>
       <c r="B78" s="35"/>
       <c r="C78" s="36"/>
@@ -41841,7 +41860,7 @@
       <c r="H78" s="40"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75">
+    <row r="79" spans="1:16" ht="33.75" customHeight="1">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="36"/>
@@ -41852,7 +41871,7 @@
       <c r="H79" s="40"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75">
+    <row r="80" spans="1:16" ht="33.75" customHeight="1">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="36"/>
@@ -41863,7 +41882,7 @@
       <c r="H80" s="40"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="33.75" customHeight="1">
       <c r="A81" s="35"/>
       <c r="B81" s="35"/>
       <c r="C81" s="36"/>
@@ -41874,7 +41893,7 @@
       <c r="H81" s="40"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="33.75" customHeight="1">
       <c r="A82" s="35"/>
       <c r="B82" s="35"/>
       <c r="C82" s="36"/>
@@ -41885,7 +41904,7 @@
       <c r="H82" s="40"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="33.75" customHeight="1">
       <c r="A83" s="35"/>
       <c r="B83" s="35"/>
       <c r="C83" s="36"/>
@@ -41896,7 +41915,7 @@
       <c r="H83" s="40"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="33.75" customHeight="1">
       <c r="A84" s="35"/>
       <c r="B84" s="35"/>
       <c r="C84" s="36"/>
@@ -41907,7 +41926,7 @@
       <c r="H84" s="40"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="33.75" customHeight="1">
       <c r="A85" s="35"/>
       <c r="B85" s="35"/>
       <c r="C85" s="36"/>
@@ -41918,7 +41937,7 @@
       <c r="H85" s="40"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="33.75" customHeight="1">
       <c r="A86" s="35"/>
       <c r="B86" s="35"/>
       <c r="C86" s="36"/>
@@ -41929,7 +41948,7 @@
       <c r="H86" s="40"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="33.75" customHeight="1">
       <c r="A87" s="35"/>
       <c r="B87" s="35"/>
       <c r="C87" s="36"/>
@@ -41940,7 +41959,7 @@
       <c r="H87" s="40"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="33.75" customHeight="1">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="36"/>
@@ -41951,7 +41970,7 @@
       <c r="H88" s="40"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="33.75" customHeight="1">
       <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="36"/>
@@ -41962,7 +41981,7 @@
       <c r="H89" s="40"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="33.75" customHeight="1">
       <c r="A90" s="35"/>
       <c r="B90" s="35"/>
       <c r="C90" s="36"/>
@@ -41973,7 +41992,7 @@
       <c r="H90" s="40"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="33.75" customHeight="1">
       <c r="A91" s="35"/>
       <c r="B91" s="35"/>
       <c r="C91" s="36"/>
@@ -41984,7 +42003,7 @@
       <c r="H91" s="40"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="33.75" customHeight="1">
       <c r="A92" s="35"/>
       <c r="B92" s="35"/>
       <c r="C92" s="36"/>
@@ -41995,7 +42014,7 @@
       <c r="H92" s="40"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="33.75" customHeight="1">
       <c r="A93" s="35"/>
       <c r="B93" s="35"/>
       <c r="C93" s="36"/>
@@ -42006,7 +42025,7 @@
       <c r="H93" s="40"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="33.75" customHeight="1">
       <c r="A94" s="35"/>
       <c r="B94" s="35"/>
       <c r="C94" s="36"/>
@@ -42017,7 +42036,7 @@
       <c r="H94" s="40"/>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="33.75" customHeight="1">
       <c r="A95" s="35"/>
       <c r="B95" s="35"/>
       <c r="C95" s="36"/>
@@ -42028,7 +42047,7 @@
       <c r="H95" s="40"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="33.75" customHeight="1">
       <c r="A96" s="35"/>
       <c r="B96" s="35"/>
       <c r="C96" s="36"/>
@@ -42039,7 +42058,7 @@
       <c r="H96" s="40"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="33.75" customHeight="1">
       <c r="A97" s="35"/>
       <c r="B97" s="35"/>
       <c r="C97" s="36"/>
@@ -42050,7 +42069,7 @@
       <c r="H97" s="40"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="33.75" customHeight="1">
       <c r="A98" s="35"/>
       <c r="B98" s="35"/>
       <c r="C98" s="36"/>
@@ -42061,7 +42080,7 @@
       <c r="H98" s="40"/>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="33.75" customHeight="1">
       <c r="A99" s="35"/>
       <c r="B99" s="35"/>
       <c r="C99" s="36"/>
@@ -42072,7 +42091,7 @@
       <c r="H99" s="40"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="33.75" customHeight="1">
       <c r="A100" s="35"/>
       <c r="B100" s="35"/>
       <c r="C100" s="36"/>
@@ -42083,7 +42102,7 @@
       <c r="H100" s="40"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="33.75" customHeight="1">
       <c r="A101" s="35"/>
       <c r="B101" s="35"/>
       <c r="C101" s="36"/>
@@ -42094,7 +42113,7 @@
       <c r="H101" s="40"/>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="33.75" customHeight="1">
       <c r="A102" s="35"/>
       <c r="B102" s="35"/>
       <c r="C102" s="36"/>
@@ -42105,7 +42124,7 @@
       <c r="H102" s="40"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="33.75" customHeight="1">
       <c r="A103" s="35"/>
       <c r="B103" s="35"/>
       <c r="C103" s="36"/>
@@ -42116,7 +42135,7 @@
       <c r="H103" s="40"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="33.75" customHeight="1">
       <c r="A104" s="35"/>
       <c r="B104" s="35"/>
       <c r="C104" s="36"/>
@@ -42127,7 +42146,7 @@
       <c r="H104" s="40"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="33.75" customHeight="1">
       <c r="A105" s="35"/>
       <c r="B105" s="35"/>
       <c r="C105" s="36"/>
@@ -42138,7 +42157,7 @@
       <c r="H105" s="40"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="33.75" customHeight="1">
       <c r="A106" s="35"/>
       <c r="B106" s="35"/>
       <c r="C106" s="36"/>
@@ -42149,7 +42168,7 @@
       <c r="H106" s="40"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="33.75" customHeight="1">
       <c r="A107" s="35"/>
       <c r="B107" s="35"/>
       <c r="C107" s="36"/>
@@ -42160,7 +42179,7 @@
       <c r="H107" s="40"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="33.75" customHeight="1">
       <c r="A108" s="35"/>
       <c r="B108" s="35"/>
       <c r="C108" s="36"/>
@@ -42171,7 +42190,7 @@
       <c r="H108" s="40"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="33.75" customHeight="1">
       <c r="A109" s="35"/>
       <c r="B109" s="35"/>
       <c r="C109" s="36"/>
@@ -42182,7 +42201,7 @@
       <c r="H109" s="40"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="33.75" customHeight="1">
       <c r="A110" s="35"/>
       <c r="B110" s="35"/>
       <c r="C110" s="36"/>
@@ -42193,7 +42212,7 @@
       <c r="H110" s="40"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="33.75" customHeight="1">
       <c r="A111" s="35"/>
       <c r="B111" s="35"/>
       <c r="C111" s="36"/>
@@ -42204,7 +42223,7 @@
       <c r="H111" s="40"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="33.75" customHeight="1">
       <c r="A112" s="35"/>
       <c r="B112" s="35"/>
       <c r="C112" s="36"/>
@@ -42215,7 +42234,7 @@
       <c r="H112" s="40"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="33.75" customHeight="1">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="36"/>
@@ -42226,7 +42245,7 @@
       <c r="H113" s="40"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="33.75" customHeight="1">
       <c r="A114" s="35"/>
       <c r="B114" s="35"/>
       <c r="C114" s="36"/>
@@ -42237,7 +42256,7 @@
       <c r="H114" s="40"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="33.75" customHeight="1">
       <c r="A115" s="35"/>
       <c r="B115" s="35"/>
       <c r="C115" s="36"/>
@@ -42248,7 +42267,7 @@
       <c r="H115" s="40"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="33.75" customHeight="1">
       <c r="A116" s="35"/>
       <c r="B116" s="35"/>
       <c r="C116" s="36"/>
@@ -42259,7 +42278,7 @@
       <c r="H116" s="40"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="33.75" customHeight="1">
       <c r="A117" s="35"/>
       <c r="B117" s="35"/>
       <c r="C117" s="36"/>
@@ -42270,7 +42289,7 @@
       <c r="H117" s="40"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="33.75" customHeight="1">
       <c r="A118" s="35"/>
       <c r="B118" s="35"/>
       <c r="C118" s="36"/>
@@ -42281,7 +42300,7 @@
       <c r="H118" s="40"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="33.75" customHeight="1">
       <c r="A119" s="35"/>
       <c r="B119" s="35"/>
       <c r="C119" s="36"/>
@@ -42292,7 +42311,7 @@
       <c r="H119" s="40"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="33.75" customHeight="1">
       <c r="A120" s="35"/>
       <c r="B120" s="35"/>
       <c r="C120" s="36"/>
@@ -42303,7 +42322,7 @@
       <c r="H120" s="40"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="33.75" customHeight="1">
       <c r="A121" s="35"/>
       <c r="B121" s="35"/>
       <c r="C121" s="36"/>
@@ -42314,7 +42333,7 @@
       <c r="H121" s="40"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="33.75" customHeight="1">
       <c r="A122" s="35"/>
       <c r="B122" s="35"/>
       <c r="C122" s="36"/>
@@ -42325,7 +42344,7 @@
       <c r="H122" s="40"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="33.75" customHeight="1">
       <c r="A123" s="35"/>
       <c r="B123" s="35"/>
       <c r="C123" s="36"/>
@@ -42336,7 +42355,7 @@
       <c r="H123" s="40"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="33.75" customHeight="1">
       <c r="A124" s="35"/>
       <c r="B124" s="35"/>
       <c r="C124" s="36"/>
@@ -42347,7 +42366,7 @@
       <c r="H124" s="40"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="33.75" customHeight="1">
       <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="36"/>
@@ -42358,7 +42377,7 @@
       <c r="H125" s="40"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="33.75" customHeight="1">
       <c r="A126" s="35"/>
       <c r="B126" s="35"/>
       <c r="C126" s="36"/>
@@ -42369,7 +42388,7 @@
       <c r="H126" s="40"/>
       <c r="I126" s="12"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="33.75" customHeight="1">
       <c r="A127" s="35"/>
       <c r="B127" s="35"/>
       <c r="C127" s="36"/>
@@ -42380,7 +42399,7 @@
       <c r="H127" s="40"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="33.75" customHeight="1">
       <c r="A128" s="35"/>
       <c r="B128" s="35"/>
       <c r="C128" s="36"/>
@@ -42391,7 +42410,7 @@
       <c r="H128" s="40"/>
       <c r="I128" s="12"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="33.75" customHeight="1">
       <c r="A129" s="35"/>
       <c r="B129" s="35"/>
       <c r="C129" s="36"/>
@@ -42402,7 +42421,7 @@
       <c r="H129" s="40"/>
       <c r="I129" s="12"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="33.75" customHeight="1">
       <c r="A130" s="35"/>
       <c r="B130" s="35"/>
       <c r="C130" s="36"/>
@@ -42413,7 +42432,7 @@
       <c r="H130" s="40"/>
       <c r="I130" s="12"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="33.75" customHeight="1">
       <c r="A131" s="35"/>
       <c r="B131" s="35"/>
       <c r="C131" s="36"/>
@@ -42424,7 +42443,7 @@
       <c r="H131" s="40"/>
       <c r="I131" s="12"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="33.75" customHeight="1">
       <c r="A132" s="35"/>
       <c r="B132" s="35"/>
       <c r="C132" s="36"/>
@@ -42435,7 +42454,7 @@
       <c r="H132" s="40"/>
       <c r="I132" s="12"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="33.75" customHeight="1">
       <c r="A133" s="35"/>
       <c r="B133" s="35"/>
       <c r="C133" s="36"/>
@@ -42446,7 +42465,7 @@
       <c r="H133" s="40"/>
       <c r="I133" s="12"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="33.75" customHeight="1">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="36"/>
@@ -42457,7 +42476,7 @@
       <c r="H134" s="40"/>
       <c r="I134" s="12"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="33.75" customHeight="1">
       <c r="A135" s="35"/>
       <c r="B135" s="35"/>
       <c r="C135" s="36"/>
@@ -42468,7 +42487,7 @@
       <c r="H135" s="40"/>
       <c r="I135" s="12"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="33.75" customHeight="1">
       <c r="A136" s="35"/>
       <c r="B136" s="35"/>
       <c r="C136" s="36"/>
@@ -42479,7 +42498,7 @@
       <c r="H136" s="40"/>
       <c r="I136" s="12"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="33.75" customHeight="1">
       <c r="A137" s="35"/>
       <c r="B137" s="35"/>
       <c r="C137" s="36"/>
@@ -42490,7 +42509,7 @@
       <c r="H137" s="40"/>
       <c r="I137" s="12"/>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="33.75" customHeight="1">
       <c r="A138" s="35"/>
       <c r="B138" s="35"/>
       <c r="C138" s="36"/>
@@ -42501,7 +42520,7 @@
       <c r="H138" s="40"/>
       <c r="I138" s="12"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="33.75" customHeight="1">
       <c r="A139" s="35"/>
       <c r="B139" s="35"/>
       <c r="C139" s="36"/>
@@ -42512,7 +42531,7 @@
       <c r="H139" s="40"/>
       <c r="I139" s="12"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="33.75" customHeight="1">
       <c r="A140" s="35"/>
       <c r="B140" s="35"/>
       <c r="C140" s="36"/>
@@ -42523,7 +42542,7 @@
       <c r="H140" s="40"/>
       <c r="I140" s="12"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="33.75" customHeight="1">
       <c r="A141" s="35"/>
       <c r="B141" s="35"/>
       <c r="C141" s="36"/>
@@ -42534,7 +42553,7 @@
       <c r="H141" s="40"/>
       <c r="I141" s="12"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="33.75" customHeight="1">
       <c r="A142" s="35"/>
       <c r="B142" s="35"/>
       <c r="C142" s="36"/>
@@ -42545,7 +42564,7 @@
       <c r="H142" s="40"/>
       <c r="I142" s="12"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="33.75" customHeight="1">
       <c r="A143" s="35"/>
       <c r="B143" s="35"/>
       <c r="C143" s="36"/>
@@ -42556,7 +42575,7 @@
       <c r="H143" s="40"/>
       <c r="I143" s="12"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="33.75" customHeight="1">
       <c r="A144" s="35"/>
       <c r="B144" s="35"/>
       <c r="C144" s="36"/>
@@ -42567,7 +42586,7 @@
       <c r="H144" s="40"/>
       <c r="I144" s="12"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="33.75" customHeight="1">
       <c r="A145" s="35"/>
       <c r="B145" s="35"/>
       <c r="C145" s="36"/>
@@ -42578,7 +42597,7 @@
       <c r="H145" s="40"/>
       <c r="I145" s="12"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="33.75" customHeight="1">
       <c r="A146" s="35"/>
       <c r="B146" s="35"/>
       <c r="C146" s="36"/>
@@ -42589,7 +42608,7 @@
       <c r="H146" s="40"/>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="33.75" customHeight="1">
       <c r="A147" s="35"/>
       <c r="B147" s="35"/>
       <c r="C147" s="36"/>
@@ -42600,7 +42619,7 @@
       <c r="H147" s="40"/>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="33.75" customHeight="1">
       <c r="A148" s="35"/>
       <c r="B148" s="35"/>
       <c r="C148" s="36"/>
@@ -42611,7 +42630,7 @@
       <c r="H148" s="40"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="33.75" customHeight="1">
       <c r="A149" s="35"/>
       <c r="B149" s="35"/>
       <c r="C149" s="36"/>
@@ -42622,7 +42641,7 @@
       <c r="H149" s="40"/>
       <c r="I149" s="12"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="33.75" customHeight="1">
       <c r="A150" s="35"/>
       <c r="B150" s="35"/>
       <c r="C150" s="36"/>
@@ -42633,7 +42652,7 @@
       <c r="H150" s="40"/>
       <c r="I150" s="12"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="33.75" customHeight="1">
       <c r="A151" s="35"/>
       <c r="B151" s="35"/>
       <c r="C151" s="36"/>
@@ -42644,7 +42663,7 @@
       <c r="H151" s="40"/>
       <c r="I151" s="12"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="33.75" customHeight="1">
       <c r="A152" s="35"/>
       <c r="B152" s="35"/>
       <c r="C152" s="36"/>
@@ -42655,7 +42674,7 @@
       <c r="H152" s="40"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="33.75" customHeight="1">
       <c r="A153" s="35"/>
       <c r="B153" s="35"/>
       <c r="C153" s="36"/>
@@ -42666,7 +42685,7 @@
       <c r="H153" s="40"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="33.75" customHeight="1">
       <c r="A154" s="35"/>
       <c r="B154" s="35"/>
       <c r="C154" s="36"/>
@@ -42677,7 +42696,7 @@
       <c r="H154" s="40"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="33.75" customHeight="1">
       <c r="A155" s="35"/>
       <c r="B155" s="35"/>
       <c r="C155" s="36"/>
@@ -42688,7 +42707,7 @@
       <c r="H155" s="40"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="33.75" customHeight="1">
       <c r="A156" s="35"/>
       <c r="B156" s="35"/>
       <c r="C156" s="36"/>
@@ -42699,7 +42718,7 @@
       <c r="H156" s="40"/>
       <c r="I156" s="12"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="33.75" customHeight="1">
       <c r="A157" s="35"/>
       <c r="B157" s="35"/>
       <c r="C157" s="36"/>
@@ -42710,7 +42729,7 @@
       <c r="H157" s="40"/>
       <c r="I157" s="12"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="33.75" customHeight="1">
       <c r="A158" s="35"/>
       <c r="B158" s="35"/>
       <c r="C158" s="36"/>
@@ -42721,7 +42740,7 @@
       <c r="H158" s="40"/>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="33.75" customHeight="1">
       <c r="A159" s="35"/>
       <c r="B159" s="35"/>
       <c r="C159" s="36"/>
@@ -42732,7 +42751,7 @@
       <c r="H159" s="40"/>
       <c r="I159" s="12"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="33.75" customHeight="1">
       <c r="A160" s="35"/>
       <c r="B160" s="35"/>
       <c r="C160" s="36"/>
@@ -42743,7 +42762,7 @@
       <c r="H160" s="40"/>
       <c r="I160" s="12"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="33.75" customHeight="1">
       <c r="A161" s="35"/>
       <c r="B161" s="35"/>
       <c r="C161" s="36"/>
@@ -42754,7 +42773,7 @@
       <c r="H161" s="40"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="33.75" customHeight="1">
       <c r="A162" s="35"/>
       <c r="B162" s="35"/>
       <c r="C162" s="36"/>
@@ -42765,7 +42784,7 @@
       <c r="H162" s="40"/>
       <c r="I162" s="12"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="33.75" customHeight="1">
       <c r="A163" s="35"/>
       <c r="B163" s="35"/>
       <c r="C163" s="36"/>
@@ -42776,7 +42795,7 @@
       <c r="H163" s="40"/>
       <c r="I163" s="12"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="33.75" customHeight="1">
       <c r="A164" s="35"/>
       <c r="B164" s="35"/>
       <c r="C164" s="36"/>
@@ -42787,7 +42806,7 @@
       <c r="H164" s="40"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="33.75" customHeight="1">
       <c r="A165" s="35"/>
       <c r="B165" s="35"/>
       <c r="C165" s="36"/>
@@ -42798,7 +42817,7 @@
       <c r="H165" s="40"/>
       <c r="I165" s="12"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="33.75" customHeight="1">
       <c r="A166" s="35"/>
       <c r="B166" s="35"/>
       <c r="C166" s="36"/>
@@ -42809,7 +42828,7 @@
       <c r="H166" s="40"/>
       <c r="I166" s="12"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="33.75" customHeight="1">
       <c r="A167" s="35"/>
       <c r="B167" s="35"/>
       <c r="C167" s="36"/>
@@ -42820,7 +42839,7 @@
       <c r="H167" s="40"/>
       <c r="I167" s="12"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="33.75" customHeight="1">
       <c r="A168" s="35"/>
       <c r="B168" s="35"/>
       <c r="C168" s="36"/>
@@ -42831,7 +42850,7 @@
       <c r="H168" s="40"/>
       <c r="I168" s="12"/>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="33.75" customHeight="1">
       <c r="A169" s="35"/>
       <c r="B169" s="35"/>
       <c r="C169" s="36"/>
@@ -42842,7 +42861,7 @@
       <c r="H169" s="40"/>
       <c r="I169" s="12"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="33.75" customHeight="1">
       <c r="A170" s="35"/>
       <c r="B170" s="35"/>
       <c r="C170" s="36"/>
@@ -42853,7 +42872,7 @@
       <c r="H170" s="40"/>
       <c r="I170" s="12"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="33.75" customHeight="1">
       <c r="A171" s="35"/>
       <c r="B171" s="35"/>
       <c r="C171" s="36"/>
@@ -42864,7 +42883,7 @@
       <c r="H171" s="40"/>
       <c r="I171" s="12"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="33.75" customHeight="1">
       <c r="A172" s="35"/>
       <c r="B172" s="35"/>
       <c r="C172" s="36"/>
@@ -42875,7 +42894,7 @@
       <c r="H172" s="40"/>
       <c r="I172" s="12"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="33.75" customHeight="1">
       <c r="A173" s="35"/>
       <c r="B173" s="35"/>
       <c r="C173" s="36"/>
@@ -42886,7 +42905,7 @@
       <c r="H173" s="40"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="33.75" customHeight="1">
       <c r="A174" s="35"/>
       <c r="B174" s="35"/>
       <c r="C174" s="36"/>
@@ -42897,7 +42916,7 @@
       <c r="H174" s="40"/>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="33.75" customHeight="1">
       <c r="A175" s="35"/>
       <c r="B175" s="35"/>
       <c r="C175" s="36"/>
@@ -42908,7 +42927,7 @@
       <c r="H175" s="40"/>
       <c r="I175" s="12"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="33.75" customHeight="1">
       <c r="A176" s="35"/>
       <c r="B176" s="35"/>
       <c r="C176" s="36"/>
@@ -42919,7 +42938,7 @@
       <c r="H176" s="40"/>
       <c r="I176" s="12"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="33.75" customHeight="1">
       <c r="A177" s="35"/>
       <c r="B177" s="35"/>
       <c r="C177" s="36"/>
@@ -42930,7 +42949,7 @@
       <c r="H177" s="40"/>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="33.75" customHeight="1">
       <c r="A178" s="35"/>
       <c r="B178" s="35"/>
       <c r="C178" s="36"/>
@@ -42941,7 +42960,7 @@
       <c r="H178" s="40"/>
       <c r="I178" s="12"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="33.75" customHeight="1">
       <c r="A179" s="35"/>
       <c r="B179" s="35"/>
       <c r="C179" s="36"/>
@@ -42952,7 +42971,7 @@
       <c r="H179" s="40"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="33.75" customHeight="1">
       <c r="A180" s="35"/>
       <c r="B180" s="35"/>
       <c r="C180" s="36"/>
@@ -42963,7 +42982,7 @@
       <c r="H180" s="40"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="33.75" customHeight="1">
       <c r="A181" s="35"/>
       <c r="B181" s="35"/>
       <c r="C181" s="36"/>
@@ -42974,7 +42993,7 @@
       <c r="H181" s="40"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="33.75" customHeight="1">
       <c r="A182" s="35"/>
       <c r="B182" s="35"/>
       <c r="C182" s="36"/>
@@ -42985,7 +43004,7 @@
       <c r="H182" s="40"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="33.75" customHeight="1">
       <c r="A183" s="35"/>
       <c r="B183" s="35"/>
       <c r="C183" s="36"/>
@@ -42996,7 +43015,7 @@
       <c r="H183" s="40"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="33.75" customHeight="1">
       <c r="A184" s="35"/>
       <c r="B184" s="35"/>
       <c r="C184" s="36"/>
@@ -43007,7 +43026,7 @@
       <c r="H184" s="40"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="33.75" customHeight="1">
       <c r="A185" s="35"/>
       <c r="B185" s="35"/>
       <c r="C185" s="36"/>
@@ -43018,7 +43037,7 @@
       <c r="H185" s="40"/>
       <c r="I185" s="12"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="33.75" customHeight="1">
       <c r="A186" s="35"/>
       <c r="B186" s="35"/>
       <c r="C186" s="36"/>
@@ -43029,7 +43048,7 @@
       <c r="H186" s="40"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="33.75" customHeight="1">
       <c r="A187" s="35"/>
       <c r="B187" s="35"/>
       <c r="C187" s="36"/>
@@ -43040,7 +43059,7 @@
       <c r="H187" s="40"/>
       <c r="I187" s="12"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="33.75" customHeight="1">
       <c r="A188" s="35"/>
       <c r="B188" s="35"/>
       <c r="C188" s="36"/>
@@ -43051,7 +43070,7 @@
       <c r="H188" s="40"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="33.75" customHeight="1">
       <c r="A189" s="35"/>
       <c r="B189" s="35"/>
       <c r="C189" s="36"/>
@@ -43062,7 +43081,7 @@
       <c r="H189" s="40"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="33.75" customHeight="1">
       <c r="A190" s="35"/>
       <c r="B190" s="35"/>
       <c r="C190" s="36"/>
@@ -43073,7 +43092,7 @@
       <c r="H190" s="40"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="33.75" customHeight="1">
       <c r="A191" s="35"/>
       <c r="B191" s="35"/>
       <c r="C191" s="36"/>
@@ -43084,7 +43103,7 @@
       <c r="H191" s="40"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="33.75" customHeight="1">
       <c r="A192" s="35"/>
       <c r="B192" s="35"/>
       <c r="C192" s="36"/>
@@ -43095,7 +43114,7 @@
       <c r="H192" s="40"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="33.75" customHeight="1">
       <c r="A193" s="35"/>
       <c r="B193" s="35"/>
       <c r="C193" s="36"/>
@@ -43106,7 +43125,7 @@
       <c r="H193" s="40"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="33.75" customHeight="1">
       <c r="A194" s="35"/>
       <c r="B194" s="35"/>
       <c r="C194" s="36"/>
@@ -43117,7 +43136,7 @@
       <c r="H194" s="40"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="33.75" customHeight="1">
       <c r="A195" s="35"/>
       <c r="B195" s="35"/>
       <c r="C195" s="36"/>
@@ -43128,7 +43147,7 @@
       <c r="H195" s="40"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="33.75" customHeight="1">
       <c r="A196" s="35"/>
       <c r="B196" s="35"/>
       <c r="C196" s="36"/>
@@ -43139,7 +43158,7 @@
       <c r="H196" s="40"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="33.75" customHeight="1">
       <c r="A197" s="35"/>
       <c r="B197" s="35"/>
       <c r="C197" s="36"/>
@@ -43150,7 +43169,7 @@
       <c r="H197" s="40"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="33.75" customHeight="1">
       <c r="A198" s="35"/>
       <c r="B198" s="35"/>
       <c r="C198" s="36"/>
@@ -43161,7 +43180,7 @@
       <c r="H198" s="40"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="33.75" customHeight="1">
       <c r="A199" s="35"/>
       <c r="B199" s="35"/>
       <c r="C199" s="36"/>
@@ -43172,7 +43191,7 @@
       <c r="H199" s="40"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="33.75" customHeight="1">
       <c r="A200" s="35"/>
       <c r="B200" s="35"/>
       <c r="C200" s="36"/>
@@ -43183,7 +43202,7 @@
       <c r="H200" s="40"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="33.75" customHeight="1">
       <c r="A201" s="35"/>
       <c r="B201" s="35"/>
       <c r="C201" s="36"/>
@@ -43194,7 +43213,7 @@
       <c r="H201" s="40"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="33.75" customHeight="1">
       <c r="A202" s="35"/>
       <c r="B202" s="35"/>
       <c r="C202" s="36"/>
@@ -43205,7 +43224,7 @@
       <c r="H202" s="40"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="33.75" customHeight="1">
       <c r="A203" s="35"/>
       <c r="B203" s="35"/>
       <c r="C203" s="36"/>
@@ -43216,7 +43235,7 @@
       <c r="H203" s="40"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="33.75" customHeight="1">
       <c r="A204" s="35"/>
       <c r="B204" s="35"/>
       <c r="C204" s="36"/>
@@ -43227,7 +43246,7 @@
       <c r="H204" s="40"/>
       <c r="I204" s="12"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="33.75" customHeight="1">
       <c r="A205" s="35"/>
       <c r="B205" s="35"/>
       <c r="C205" s="36"/>
@@ -43238,7 +43257,7 @@
       <c r="H205" s="40"/>
       <c r="I205" s="12"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="33.75" customHeight="1">
       <c r="A206" s="35"/>
       <c r="B206" s="35"/>
       <c r="C206" s="36"/>
@@ -43249,7 +43268,7 @@
       <c r="H206" s="40"/>
       <c r="I206" s="12"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="33.75" customHeight="1">
       <c r="A207" s="35"/>
       <c r="B207" s="35"/>
       <c r="C207" s="36"/>
@@ -43260,7 +43279,7 @@
       <c r="H207" s="40"/>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="33.75" customHeight="1">
       <c r="A208" s="35"/>
       <c r="B208" s="35"/>
       <c r="C208" s="36"/>
@@ -43271,7 +43290,7 @@
       <c r="H208" s="40"/>
       <c r="I208" s="12"/>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="33.75" customHeight="1">
       <c r="A209" s="35"/>
       <c r="B209" s="35"/>
       <c r="C209" s="36"/>
@@ -43282,7 +43301,7 @@
       <c r="H209" s="40"/>
       <c r="I209" s="12"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="33.75" customHeight="1">
       <c r="A210" s="35"/>
       <c r="B210" s="35"/>
       <c r="C210" s="36"/>
@@ -43293,7 +43312,7 @@
       <c r="H210" s="40"/>
       <c r="I210" s="12"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="33.75" customHeight="1">
       <c r="A211" s="35"/>
       <c r="B211" s="35"/>
       <c r="C211" s="36"/>
@@ -43304,7 +43323,7 @@
       <c r="H211" s="40"/>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="33.75" customHeight="1">
       <c r="A212" s="35"/>
       <c r="B212" s="35"/>
       <c r="C212" s="36"/>
@@ -43315,7 +43334,7 @@
       <c r="H212" s="40"/>
       <c r="I212" s="12"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="33.75" customHeight="1">
       <c r="A213" s="35"/>
       <c r="B213" s="35"/>
       <c r="C213" s="36"/>
@@ -43326,7 +43345,7 @@
       <c r="H213" s="40"/>
       <c r="I213" s="12"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="33.75" customHeight="1">
       <c r="A214" s="35"/>
       <c r="B214" s="35"/>
       <c r="C214" s="36"/>
@@ -43337,7 +43356,7 @@
       <c r="H214" s="40"/>
       <c r="I214" s="12"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="33.75" customHeight="1">
       <c r="A215" s="35"/>
       <c r="B215" s="35"/>
       <c r="C215" s="36"/>
@@ -43348,7 +43367,7 @@
       <c r="H215" s="40"/>
       <c r="I215" s="12"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="33.75" customHeight="1">
       <c r="A216" s="35"/>
       <c r="B216" s="35"/>
       <c r="C216" s="36"/>
@@ -43359,7 +43378,7 @@
       <c r="H216" s="40"/>
       <c r="I216" s="12"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="33.75" customHeight="1">
       <c r="A217" s="35"/>
       <c r="B217" s="35"/>
       <c r="C217" s="36"/>
@@ -43370,7 +43389,7 @@
       <c r="H217" s="40"/>
       <c r="I217" s="12"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="33.75" customHeight="1">
       <c r="A218" s="35"/>
       <c r="B218" s="35"/>
       <c r="C218" s="36"/>
@@ -43381,7 +43400,7 @@
       <c r="H218" s="40"/>
       <c r="I218" s="12"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="33.75" customHeight="1">
       <c r="A219" s="35"/>
       <c r="B219" s="35"/>
       <c r="C219" s="36"/>
@@ -43392,7 +43411,7 @@
       <c r="H219" s="40"/>
       <c r="I219" s="12"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="33.75" customHeight="1">
       <c r="A220" s="35"/>
       <c r="B220" s="35"/>
       <c r="C220" s="36"/>
@@ -43403,7 +43422,7 @@
       <c r="H220" s="40"/>
       <c r="I220" s="12"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="33.75" customHeight="1">
       <c r="A221" s="35"/>
       <c r="B221" s="35"/>
       <c r="C221" s="36"/>
@@ -43414,7 +43433,7 @@
       <c r="H221" s="40"/>
       <c r="I221" s="12"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="33.75" customHeight="1">
       <c r="A222" s="35"/>
       <c r="B222" s="35"/>
       <c r="C222" s="36"/>
@@ -43425,7 +43444,7 @@
       <c r="H222" s="40"/>
       <c r="I222" s="12"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="33.75" customHeight="1">
       <c r="A223" s="35"/>
       <c r="B223" s="35"/>
       <c r="C223" s="36"/>
@@ -43436,7 +43455,7 @@
       <c r="H223" s="40"/>
       <c r="I223" s="12"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="33.75" customHeight="1">
       <c r="A224" s="35"/>
       <c r="B224" s="35"/>
       <c r="C224" s="36"/>
@@ -43447,7 +43466,7 @@
       <c r="H224" s="40"/>
       <c r="I224" s="12"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="33.75" customHeight="1">
       <c r="A225" s="35"/>
       <c r="B225" s="35"/>
       <c r="C225" s="36"/>
@@ -43458,7 +43477,7 @@
       <c r="H225" s="40"/>
       <c r="I225" s="12"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="33.75" customHeight="1">
       <c r="A226" s="35"/>
       <c r="B226" s="35"/>
       <c r="C226" s="36"/>
@@ -43469,7 +43488,7 @@
       <c r="H226" s="40"/>
       <c r="I226" s="12"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="33.75" customHeight="1">
       <c r="A227" s="35"/>
       <c r="B227" s="35"/>
       <c r="C227" s="36"/>
@@ -43480,7 +43499,7 @@
       <c r="H227" s="40"/>
       <c r="I227" s="12"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="33.75" customHeight="1">
       <c r="A228" s="35"/>
       <c r="B228" s="35"/>
       <c r="C228" s="36"/>
@@ -43491,7 +43510,7 @@
       <c r="H228" s="40"/>
       <c r="I228" s="12"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="33.75" customHeight="1">
       <c r="A229" s="35"/>
       <c r="B229" s="35"/>
       <c r="C229" s="36"/>
@@ -43502,7 +43521,7 @@
       <c r="H229" s="40"/>
       <c r="I229" s="12"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="33.75" customHeight="1">
       <c r="A230" s="35"/>
       <c r="B230" s="35"/>
       <c r="C230" s="36"/>
@@ -43513,7 +43532,7 @@
       <c r="H230" s="40"/>
       <c r="I230" s="12"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="33.75" customHeight="1">
       <c r="A231" s="35"/>
       <c r="B231" s="35"/>
       <c r="C231" s="36"/>
@@ -43524,7 +43543,7 @@
       <c r="H231" s="40"/>
       <c r="I231" s="12"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="33.75" customHeight="1">
       <c r="A232" s="35"/>
       <c r="B232" s="35"/>
       <c r="C232" s="36"/>
@@ -43535,7 +43554,7 @@
       <c r="H232" s="40"/>
       <c r="I232" s="12"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="33.75" customHeight="1">
       <c r="A233" s="35"/>
       <c r="B233" s="35"/>
       <c r="C233" s="36"/>
@@ -43546,7 +43565,7 @@
       <c r="H233" s="40"/>
       <c r="I233" s="12"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="33.75" customHeight="1">
       <c r="A234" s="35"/>
       <c r="B234" s="35"/>
       <c r="C234" s="36"/>
@@ -43557,7 +43576,7 @@
       <c r="H234" s="40"/>
       <c r="I234" s="12"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="33.75" customHeight="1">
       <c r="A235" s="35"/>
       <c r="B235" s="35"/>
       <c r="C235" s="36"/>
@@ -43568,7 +43587,7 @@
       <c r="H235" s="40"/>
       <c r="I235" s="12"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="33.75" customHeight="1">
       <c r="A236" s="35"/>
       <c r="B236" s="35"/>
       <c r="C236" s="36"/>
@@ -43579,7 +43598,7 @@
       <c r="H236" s="40"/>
       <c r="I236" s="12"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="33.75" customHeight="1">
       <c r="A237" s="35"/>
       <c r="B237" s="35"/>
       <c r="C237" s="36"/>
@@ -43590,7 +43609,7 @@
       <c r="H237" s="40"/>
       <c r="I237" s="12"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="33.75" customHeight="1">
       <c r="A238" s="35"/>
       <c r="B238" s="35"/>
       <c r="C238" s="36"/>
@@ -43601,7 +43620,7 @@
       <c r="H238" s="40"/>
       <c r="I238" s="12"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="33.75" customHeight="1">
       <c r="A239" s="35"/>
       <c r="B239" s="35"/>
       <c r="C239" s="36"/>
@@ -43612,7 +43631,7 @@
       <c r="H239" s="40"/>
       <c r="I239" s="12"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="33.75" customHeight="1">
       <c r="A240" s="35"/>
       <c r="B240" s="35"/>
       <c r="C240" s="36"/>
@@ -43623,7 +43642,7 @@
       <c r="H240" s="40"/>
       <c r="I240" s="12"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="33.75" customHeight="1">
       <c r="A241" s="35"/>
       <c r="B241" s="35"/>
       <c r="C241" s="36"/>
@@ -43634,7 +43653,7 @@
       <c r="H241" s="40"/>
       <c r="I241" s="12"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="33.75" customHeight="1">
       <c r="A242" s="35"/>
       <c r="B242" s="35"/>
       <c r="C242" s="36"/>
@@ -43645,7 +43664,7 @@
       <c r="H242" s="40"/>
       <c r="I242" s="12"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="33.75" customHeight="1">
       <c r="A243" s="35"/>
       <c r="B243" s="35"/>
       <c r="C243" s="36"/>
@@ -43656,7 +43675,7 @@
       <c r="H243" s="40"/>
       <c r="I243" s="12"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="33.75" customHeight="1">
       <c r="A244" s="35"/>
       <c r="B244" s="35"/>
       <c r="C244" s="36"/>
@@ -43667,7 +43686,7 @@
       <c r="H244" s="40"/>
       <c r="I244" s="12"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="33.75" customHeight="1">
       <c r="A245" s="35"/>
       <c r="B245" s="35"/>
       <c r="C245" s="36"/>
@@ -43678,7 +43697,7 @@
       <c r="H245" s="40"/>
       <c r="I245" s="12"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="33.75" customHeight="1">
       <c r="A246" s="35"/>
       <c r="B246" s="35"/>
       <c r="C246" s="36"/>
@@ -43689,7 +43708,7 @@
       <c r="H246" s="40"/>
       <c r="I246" s="12"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="33.75" customHeight="1">
       <c r="A247" s="35"/>
       <c r="B247" s="35"/>
       <c r="C247" s="36"/>
@@ -43700,7 +43719,7 @@
       <c r="H247" s="40"/>
       <c r="I247" s="12"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="33.75" customHeight="1">
       <c r="A248" s="35"/>
       <c r="B248" s="35"/>
       <c r="C248" s="36"/>
@@ -43711,7 +43730,7 @@
       <c r="H248" s="40"/>
       <c r="I248" s="12"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="33.75" customHeight="1">
       <c r="A249" s="35"/>
       <c r="B249" s="35"/>
       <c r="C249" s="36"/>
@@ -43722,7 +43741,7 @@
       <c r="H249" s="40"/>
       <c r="I249" s="12"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="33.75" customHeight="1">
       <c r="A250" s="35"/>
       <c r="B250" s="35"/>
       <c r="C250" s="36"/>
@@ -43733,7 +43752,7 @@
       <c r="H250" s="40"/>
       <c r="I250" s="12"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="33.75" customHeight="1">
       <c r="A251" s="35"/>
       <c r="B251" s="35"/>
       <c r="C251" s="36"/>
@@ -43744,7 +43763,7 @@
       <c r="H251" s="40"/>
       <c r="I251" s="12"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="33.75" customHeight="1">
       <c r="A252" s="35"/>
       <c r="B252" s="35"/>
       <c r="C252" s="36"/>
@@ -43755,7 +43774,7 @@
       <c r="H252" s="40"/>
       <c r="I252" s="12"/>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="33.75" customHeight="1">
       <c r="A253" s="35"/>
       <c r="B253" s="35"/>
       <c r="C253" s="36"/>
@@ -43766,7 +43785,7 @@
       <c r="H253" s="40"/>
       <c r="I253" s="12"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="33.75" customHeight="1">
       <c r="A254" s="35"/>
       <c r="B254" s="35"/>
       <c r="C254" s="36"/>
@@ -43777,7 +43796,7 @@
       <c r="H254" s="40"/>
       <c r="I254" s="12"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="33.75" customHeight="1">
       <c r="A255" s="35"/>
       <c r="B255" s="35"/>
       <c r="C255" s="36"/>
@@ -43788,7 +43807,7 @@
       <c r="H255" s="40"/>
       <c r="I255" s="12"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="33.75" customHeight="1">
       <c r="A256" s="35"/>
       <c r="B256" s="35"/>
       <c r="C256" s="36"/>
@@ -43799,7 +43818,7 @@
       <c r="H256" s="40"/>
       <c r="I256" s="12"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="33.75" customHeight="1">
       <c r="A257" s="35"/>
       <c r="B257" s="35"/>
       <c r="C257" s="36"/>
@@ -43810,7 +43829,7 @@
       <c r="H257" s="40"/>
       <c r="I257" s="12"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="33.75" customHeight="1">
       <c r="A258" s="35"/>
       <c r="B258" s="35"/>
       <c r="C258" s="36"/>
@@ -43821,7 +43840,7 @@
       <c r="H258" s="40"/>
       <c r="I258" s="12"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="33.75" customHeight="1">
       <c r="A259" s="35"/>
       <c r="B259" s="35"/>
       <c r="C259" s="36"/>
@@ -43832,7 +43851,7 @@
       <c r="H259" s="40"/>
       <c r="I259" s="12"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="33.75" customHeight="1">
       <c r="A260" s="35"/>
       <c r="B260" s="35"/>
       <c r="C260" s="36"/>
@@ -43843,7 +43862,7 @@
       <c r="H260" s="40"/>
       <c r="I260" s="12"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="33.75" customHeight="1">
       <c r="A261" s="35"/>
       <c r="B261" s="35"/>
       <c r="C261" s="36"/>
@@ -43854,7 +43873,7 @@
       <c r="H261" s="40"/>
       <c r="I261" s="12"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="33.75" customHeight="1">
       <c r="A262" s="35"/>
       <c r="B262" s="35"/>
       <c r="C262" s="36"/>
@@ -43865,7 +43884,7 @@
       <c r="H262" s="40"/>
       <c r="I262" s="12"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="33.75" customHeight="1">
       <c r="A263" s="35"/>
       <c r="B263" s="35"/>
       <c r="C263" s="36"/>
@@ -43876,7 +43895,7 @@
       <c r="H263" s="40"/>
       <c r="I263" s="12"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="33.75" customHeight="1">
       <c r="A264" s="35"/>
       <c r="B264" s="35"/>
       <c r="C264" s="36"/>
@@ -43887,7 +43906,7 @@
       <c r="H264" s="40"/>
       <c r="I264" s="12"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="33.75" customHeight="1">
       <c r="A265" s="35"/>
       <c r="B265" s="35"/>
       <c r="C265" s="36"/>
@@ -43898,7 +43917,7 @@
       <c r="H265" s="40"/>
       <c r="I265" s="12"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="33.75" customHeight="1">
       <c r="A266" s="35"/>
       <c r="B266" s="35"/>
       <c r="C266" s="36"/>
@@ -43909,7 +43928,7 @@
       <c r="H266" s="40"/>
       <c r="I266" s="12"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="33.75" customHeight="1">
       <c r="A267" s="35"/>
       <c r="B267" s="35"/>
       <c r="C267" s="36"/>
@@ -43920,7 +43939,7 @@
       <c r="H267" s="40"/>
       <c r="I267" s="12"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="33.75" customHeight="1">
       <c r="A268" s="35"/>
       <c r="B268" s="35"/>
       <c r="C268" s="36"/>
@@ -43931,7 +43950,7 @@
       <c r="H268" s="40"/>
       <c r="I268" s="12"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="33.75" customHeight="1">
       <c r="A269" s="35"/>
       <c r="B269" s="35"/>
       <c r="C269" s="36"/>
@@ -43942,7 +43961,7 @@
       <c r="H269" s="40"/>
       <c r="I269" s="12"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="33.75" customHeight="1">
       <c r="A270" s="35"/>
       <c r="B270" s="35"/>
       <c r="C270" s="36"/>
@@ -43953,7 +43972,7 @@
       <c r="H270" s="40"/>
       <c r="I270" s="12"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="33.75" customHeight="1">
       <c r="A271" s="35"/>
       <c r="B271" s="35"/>
       <c r="C271" s="36"/>
@@ -43964,7 +43983,7 @@
       <c r="H271" s="40"/>
       <c r="I271" s="12"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="33.75" customHeight="1">
       <c r="A272" s="35"/>
       <c r="B272" s="35"/>
       <c r="C272" s="36"/>
@@ -43975,7 +43994,7 @@
       <c r="H272" s="40"/>
       <c r="I272" s="12"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="33.75" customHeight="1">
       <c r="A273" s="35"/>
       <c r="B273" s="35"/>
       <c r="C273" s="36"/>
@@ -43986,7 +44005,7 @@
       <c r="H273" s="40"/>
       <c r="I273" s="12"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="33.75" customHeight="1">
       <c r="A274" s="35"/>
       <c r="B274" s="35"/>
       <c r="C274" s="36"/>
@@ -43997,7 +44016,7 @@
       <c r="H274" s="40"/>
       <c r="I274" s="12"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="33.75" customHeight="1">
       <c r="A275" s="35"/>
       <c r="B275" s="35"/>
       <c r="C275" s="36"/>
@@ -44008,7 +44027,7 @@
       <c r="H275" s="40"/>
       <c r="I275" s="12"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="33.75" customHeight="1">
       <c r="A276" s="35"/>
       <c r="B276" s="35"/>
       <c r="C276" s="36"/>
@@ -44019,7 +44038,7 @@
       <c r="H276" s="40"/>
       <c r="I276" s="12"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="33.75" customHeight="1">
       <c r="A277" s="35"/>
       <c r="B277" s="35"/>
       <c r="C277" s="36"/>
@@ -44030,7 +44049,7 @@
       <c r="H277" s="40"/>
       <c r="I277" s="12"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="33.75" customHeight="1">
       <c r="A278" s="35"/>
       <c r="B278" s="35"/>
       <c r="C278" s="36"/>
@@ -44041,7 +44060,7 @@
       <c r="H278" s="40"/>
       <c r="I278" s="12"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="33.75" customHeight="1">
       <c r="A279" s="35"/>
       <c r="B279" s="35"/>
       <c r="C279" s="36"/>
@@ -44052,7 +44071,7 @@
       <c r="H279" s="40"/>
       <c r="I279" s="12"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="33.75" customHeight="1">
       <c r="A280" s="35"/>
       <c r="B280" s="35"/>
       <c r="C280" s="36"/>
@@ -44063,7 +44082,7 @@
       <c r="H280" s="40"/>
       <c r="I280" s="12"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="33.75" customHeight="1">
       <c r="A281" s="35"/>
       <c r="B281" s="35"/>
       <c r="C281" s="36"/>
@@ -44074,7 +44093,7 @@
       <c r="H281" s="40"/>
       <c r="I281" s="12"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="33.75" customHeight="1">
       <c r="A282" s="35"/>
       <c r="B282" s="35"/>
       <c r="C282" s="36"/>
@@ -44085,7 +44104,7 @@
       <c r="H282" s="40"/>
       <c r="I282" s="12"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="33.75" customHeight="1">
       <c r="A283" s="35"/>
       <c r="B283" s="35"/>
       <c r="C283" s="36"/>
@@ -44096,7 +44115,7 @@
       <c r="H283" s="40"/>
       <c r="I283" s="12"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="33.75" customHeight="1">
       <c r="A284" s="35"/>
       <c r="B284" s="35"/>
       <c r="C284" s="36"/>
@@ -44107,7 +44126,7 @@
       <c r="H284" s="40"/>
       <c r="I284" s="12"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="33.75" customHeight="1">
       <c r="A285" s="35"/>
       <c r="B285" s="35"/>
       <c r="C285" s="36"/>
@@ -44118,7 +44137,7 @@
       <c r="H285" s="40"/>
       <c r="I285" s="12"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="33.75" customHeight="1">
       <c r="A286" s="35"/>
       <c r="B286" s="35"/>
       <c r="C286" s="36"/>
@@ -44129,7 +44148,7 @@
       <c r="H286" s="40"/>
       <c r="I286" s="12"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="33.75" customHeight="1">
       <c r="A287" s="35"/>
       <c r="B287" s="35"/>
       <c r="C287" s="36"/>
@@ -44140,7 +44159,7 @@
       <c r="H287" s="40"/>
       <c r="I287" s="12"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="33.75" customHeight="1">
       <c r="A288" s="35"/>
       <c r="B288" s="35"/>
       <c r="C288" s="36"/>
@@ -44151,7 +44170,7 @@
       <c r="H288" s="40"/>
       <c r="I288" s="12"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="33.75" customHeight="1">
       <c r="A289" s="35"/>
       <c r="B289" s="35"/>
       <c r="C289" s="36"/>
@@ -44162,7 +44181,7 @@
       <c r="H289" s="40"/>
       <c r="I289" s="12"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="33.75" customHeight="1">
       <c r="A290" s="35"/>
       <c r="B290" s="35"/>
       <c r="C290" s="36"/>
@@ -44173,7 +44192,7 @@
       <c r="H290" s="40"/>
       <c r="I290" s="12"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="33.75" customHeight="1">
       <c r="A291" s="35"/>
       <c r="B291" s="35"/>
       <c r="C291" s="36"/>
@@ -44184,7 +44203,7 @@
       <c r="H291" s="40"/>
       <c r="I291" s="12"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="33.75" customHeight="1">
       <c r="A292" s="35"/>
       <c r="B292" s="35"/>
       <c r="C292" s="36"/>
@@ -44195,7 +44214,7 @@
       <c r="H292" s="40"/>
       <c r="I292" s="12"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="33.75" customHeight="1">
       <c r="A293" s="35"/>
       <c r="B293" s="35"/>
       <c r="C293" s="36"/>
@@ -44206,7 +44225,7 @@
       <c r="H293" s="40"/>
       <c r="I293" s="12"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="33.75" customHeight="1">
       <c r="A294" s="35"/>
       <c r="B294" s="35"/>
       <c r="C294" s="36"/>
@@ -44217,7 +44236,7 @@
       <c r="H294" s="40"/>
       <c r="I294" s="12"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="33.75" customHeight="1">
       <c r="A295" s="35"/>
       <c r="B295" s="35"/>
       <c r="C295" s="36"/>
@@ -44228,7 +44247,7 @@
       <c r="H295" s="40"/>
       <c r="I295" s="12"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="33.75" customHeight="1">
       <c r="A296" s="35"/>
       <c r="B296" s="35"/>
       <c r="C296" s="36"/>
@@ -44239,7 +44258,7 @@
       <c r="H296" s="40"/>
       <c r="I296" s="12"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="33.75" customHeight="1">
       <c r="A297" s="35"/>
       <c r="B297" s="35"/>
       <c r="C297" s="36"/>
@@ -44250,7 +44269,7 @@
       <c r="H297" s="40"/>
       <c r="I297" s="12"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="33.75" customHeight="1">
       <c r="A298" s="35"/>
       <c r="B298" s="35"/>
       <c r="C298" s="36"/>
@@ -44261,7 +44280,7 @@
       <c r="H298" s="40"/>
       <c r="I298" s="12"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="33.75" customHeight="1">
       <c r="A299" s="35"/>
       <c r="B299" s="35"/>
       <c r="C299" s="36"/>
@@ -44272,7 +44291,7 @@
       <c r="H299" s="40"/>
       <c r="I299" s="12"/>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="33.75" customHeight="1">
       <c r="A300" s="35"/>
       <c r="B300" s="35"/>
       <c r="C300" s="36"/>
@@ -44283,7 +44302,7 @@
       <c r="H300" s="40"/>
       <c r="I300" s="12"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="33.75" customHeight="1">
       <c r="A301" s="35"/>
       <c r="B301" s="35"/>
       <c r="C301" s="36"/>
@@ -44294,7 +44313,7 @@
       <c r="H301" s="40"/>
       <c r="I301" s="12"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="33.75" customHeight="1">
       <c r="A302" s="35"/>
       <c r="B302" s="35"/>
       <c r="C302" s="36"/>
@@ -44305,7 +44324,7 @@
       <c r="H302" s="40"/>
       <c r="I302" s="12"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="33.75" customHeight="1">
       <c r="A303" s="35"/>
       <c r="B303" s="35"/>
       <c r="C303" s="36"/>
@@ -44316,7 +44335,7 @@
       <c r="H303" s="40"/>
       <c r="I303" s="12"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="33.75" customHeight="1">
       <c r="A304" s="35"/>
       <c r="B304" s="35"/>
       <c r="C304" s="36"/>
@@ -44327,7 +44346,7 @@
       <c r="H304" s="40"/>
       <c r="I304" s="12"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="33.75" customHeight="1">
       <c r="A305" s="35"/>
       <c r="B305" s="35"/>
       <c r="C305" s="36"/>
@@ -44338,7 +44357,7 @@
       <c r="H305" s="40"/>
       <c r="I305" s="12"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="33.75" customHeight="1">
       <c r="A306" s="35"/>
       <c r="B306" s="35"/>
       <c r="C306" s="36"/>
@@ -44349,7 +44368,7 @@
       <c r="H306" s="40"/>
       <c r="I306" s="12"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="33.75" customHeight="1">
       <c r="A307" s="35"/>
       <c r="B307" s="35"/>
       <c r="C307" s="36"/>
@@ -44360,7 +44379,7 @@
       <c r="H307" s="40"/>
       <c r="I307" s="12"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="33.75" customHeight="1">
       <c r="A308" s="35"/>
       <c r="B308" s="35"/>
       <c r="C308" s="36"/>
@@ -44371,7 +44390,7 @@
       <c r="H308" s="40"/>
       <c r="I308" s="12"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="33.75" customHeight="1">
       <c r="A309" s="35"/>
       <c r="B309" s="35"/>
       <c r="C309" s="36"/>
@@ -44382,7 +44401,7 @@
       <c r="H309" s="40"/>
       <c r="I309" s="12"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="33.75" customHeight="1">
       <c r="A310" s="35"/>
       <c r="B310" s="35"/>
       <c r="C310" s="36"/>
@@ -44393,7 +44412,7 @@
       <c r="H310" s="40"/>
       <c r="I310" s="12"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="33.75" customHeight="1">
       <c r="A311" s="35"/>
       <c r="B311" s="35"/>
       <c r="C311" s="36"/>
@@ -44404,7 +44423,7 @@
       <c r="H311" s="40"/>
       <c r="I311" s="12"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="33.75" customHeight="1">
       <c r="A312" s="35"/>
       <c r="B312" s="35"/>
       <c r="C312" s="36"/>
@@ -44415,7 +44434,7 @@
       <c r="H312" s="40"/>
       <c r="I312" s="12"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="33.75" customHeight="1">
       <c r="A313" s="35"/>
       <c r="B313" s="35"/>
       <c r="C313" s="36"/>
@@ -44426,7 +44445,7 @@
       <c r="H313" s="40"/>
       <c r="I313" s="12"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="33.75" customHeight="1">
       <c r="A314" s="35"/>
       <c r="B314" s="35"/>
       <c r="C314" s="36"/>
@@ -44437,7 +44456,7 @@
       <c r="H314" s="40"/>
       <c r="I314" s="12"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="33.75" customHeight="1">
       <c r="A315" s="35"/>
       <c r="B315" s="35"/>
       <c r="C315" s="36"/>
@@ -44448,7 +44467,7 @@
       <c r="H315" s="40"/>
       <c r="I315" s="12"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="33.75" customHeight="1">
       <c r="A316" s="35"/>
       <c r="B316" s="35"/>
       <c r="C316" s="36"/>
@@ -44459,7 +44478,7 @@
       <c r="H316" s="40"/>
       <c r="I316" s="12"/>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="33.75" customHeight="1">
       <c r="A317" s="35"/>
       <c r="B317" s="35"/>
       <c r="C317" s="36"/>
@@ -44470,7 +44489,7 @@
       <c r="H317" s="40"/>
       <c r="I317" s="12"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="33.75" customHeight="1">
       <c r="A318" s="35"/>
       <c r="B318" s="35"/>
       <c r="C318" s="36"/>
@@ -44481,7 +44500,7 @@
       <c r="H318" s="40"/>
       <c r="I318" s="12"/>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="33.75" customHeight="1">
       <c r="A319" s="35"/>
       <c r="B319" s="35"/>
       <c r="C319" s="36"/>
@@ -44492,7 +44511,7 @@
       <c r="H319" s="40"/>
       <c r="I319" s="12"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="33.75" customHeight="1">
       <c r="A320" s="35"/>
       <c r="B320" s="35"/>
       <c r="C320" s="36"/>
@@ -44503,7 +44522,7 @@
       <c r="H320" s="40"/>
       <c r="I320" s="12"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="33.75" customHeight="1">
       <c r="A321" s="35"/>
       <c r="B321" s="35"/>
       <c r="C321" s="36"/>
@@ -44514,7 +44533,7 @@
       <c r="H321" s="40"/>
       <c r="I321" s="12"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="33.75" customHeight="1">
       <c r="A322" s="35"/>
       <c r="B322" s="35"/>
       <c r="C322" s="36"/>
@@ -44525,7 +44544,7 @@
       <c r="H322" s="40"/>
       <c r="I322" s="12"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="33.75" customHeight="1">
       <c r="A323" s="35"/>
       <c r="B323" s="35"/>
       <c r="C323" s="36"/>
@@ -44536,7 +44555,7 @@
       <c r="H323" s="40"/>
       <c r="I323" s="12"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="33.75" customHeight="1">
       <c r="A324" s="35"/>
       <c r="B324" s="35"/>
       <c r="C324" s="36"/>
@@ -44547,7 +44566,7 @@
       <c r="H324" s="40"/>
       <c r="I324" s="12"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="33.75" customHeight="1">
       <c r="A325" s="35"/>
       <c r="B325" s="35"/>
       <c r="C325" s="36"/>
@@ -44558,7 +44577,7 @@
       <c r="H325" s="40"/>
       <c r="I325" s="12"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="33.75" customHeight="1">
       <c r="A326" s="35"/>
       <c r="B326" s="35"/>
       <c r="C326" s="36"/>
@@ -44569,7 +44588,7 @@
       <c r="H326" s="40"/>
       <c r="I326" s="12"/>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="33.75" customHeight="1">
       <c r="A327" s="35"/>
       <c r="B327" s="35"/>
       <c r="C327" s="36"/>
@@ -44580,7 +44599,7 @@
       <c r="H327" s="40"/>
       <c r="I327" s="12"/>
     </row>
-    <row r="328" spans="1:9" ht="15.75">
+    <row r="328" spans="1:9" ht="33.75" customHeight="1">
       <c r="A328" s="35"/>
       <c r="B328" s="35"/>
       <c r="C328" s="36"/>
@@ -44591,7 +44610,7 @@
       <c r="H328" s="40"/>
       <c r="I328" s="12"/>
     </row>
-    <row r="329" spans="1:9" ht="15.75">
+    <row r="329" spans="1:9" ht="33.75" customHeight="1">
       <c r="A329" s="35"/>
       <c r="B329" s="35"/>
       <c r="C329" s="36"/>
@@ -44602,7 +44621,7 @@
       <c r="H329" s="40"/>
       <c r="I329" s="12"/>
     </row>
-    <row r="330" spans="1:9" ht="15.75">
+    <row r="330" spans="1:9" ht="33.75" customHeight="1">
       <c r="A330" s="35"/>
       <c r="B330" s="35"/>
       <c r="C330" s="36"/>
@@ -44613,7 +44632,7 @@
       <c r="H330" s="40"/>
       <c r="I330" s="12"/>
     </row>
-    <row r="331" spans="1:9" ht="15.75">
+    <row r="331" spans="1:9" ht="33.75" customHeight="1">
       <c r="A331" s="35"/>
       <c r="B331" s="35"/>
       <c r="C331" s="36"/>
@@ -44624,7 +44643,7 @@
       <c r="H331" s="40"/>
       <c r="I331" s="12"/>
     </row>
-    <row r="332" spans="1:9" ht="15.75">
+    <row r="332" spans="1:9" ht="33.75" customHeight="1">
       <c r="A332" s="35"/>
       <c r="B332" s="35"/>
       <c r="C332" s="36"/>
@@ -44635,7 +44654,7 @@
       <c r="H332" s="40"/>
       <c r="I332" s="12"/>
     </row>
-    <row r="333" spans="1:9" ht="15.75">
+    <row r="333" spans="1:9" ht="33.75" customHeight="1">
       <c r="A333" s="35"/>
       <c r="B333" s="35"/>
       <c r="C333" s="36"/>
@@ -44646,7 +44665,7 @@
       <c r="H333" s="40"/>
       <c r="I333" s="12"/>
     </row>
-    <row r="334" spans="1:9" ht="15.75">
+    <row r="334" spans="1:9" ht="33.75" customHeight="1">
       <c r="A334" s="35"/>
       <c r="B334" s="35"/>
       <c r="C334" s="36"/>
@@ -44657,7 +44676,7 @@
       <c r="H334" s="40"/>
       <c r="I334" s="12"/>
     </row>
-    <row r="335" spans="1:9" ht="15.75">
+    <row r="335" spans="1:9" ht="33.75" customHeight="1">
       <c r="A335" s="35"/>
       <c r="B335" s="35"/>
       <c r="C335" s="36"/>
@@ -44668,7 +44687,7 @@
       <c r="H335" s="40"/>
       <c r="I335" s="12"/>
     </row>
-    <row r="336" spans="1:9" ht="15.75">
+    <row r="336" spans="1:9" ht="33.75" customHeight="1">
       <c r="A336" s="35"/>
       <c r="B336" s="35"/>
       <c r="C336" s="36"/>
@@ -44679,7 +44698,7 @@
       <c r="H336" s="40"/>
       <c r="I336" s="12"/>
     </row>
-    <row r="337" spans="1:9" ht="15.75">
+    <row r="337" spans="1:9" ht="33.75" customHeight="1">
       <c r="A337" s="35"/>
       <c r="B337" s="35"/>
       <c r="C337" s="36"/>
@@ -44690,7 +44709,7 @@
       <c r="H337" s="40"/>
       <c r="I337" s="12"/>
     </row>
-    <row r="338" spans="1:9" ht="15.75">
+    <row r="338" spans="1:9" ht="33.75" customHeight="1">
       <c r="A338" s="35"/>
       <c r="B338" s="35"/>
       <c r="C338" s="36"/>
@@ -44701,7 +44720,7 @@
       <c r="H338" s="40"/>
       <c r="I338" s="12"/>
     </row>
-    <row r="339" spans="1:9" ht="15.75">
+    <row r="339" spans="1:9" ht="33.75" customHeight="1">
       <c r="A339" s="35"/>
       <c r="B339" s="35"/>
       <c r="C339" s="36"/>
@@ -44712,7 +44731,7 @@
       <c r="H339" s="40"/>
       <c r="I339" s="12"/>
     </row>
-    <row r="340" spans="1:9" ht="15.75">
+    <row r="340" spans="1:9" ht="33.75" customHeight="1">
       <c r="A340" s="35"/>
       <c r="B340" s="35"/>
       <c r="C340" s="36"/>
@@ -44723,7 +44742,7 @@
       <c r="H340" s="40"/>
       <c r="I340" s="12"/>
     </row>
-    <row r="341" spans="1:9" ht="15.75">
+    <row r="341" spans="1:9" ht="33.75" customHeight="1">
       <c r="A341" s="35"/>
       <c r="B341" s="35"/>
       <c r="C341" s="36"/>
@@ -44734,7 +44753,7 @@
       <c r="H341" s="40"/>
       <c r="I341" s="12"/>
     </row>
-    <row r="342" spans="1:9" ht="15.75">
+    <row r="342" spans="1:9" ht="33.75" customHeight="1">
       <c r="A342" s="35"/>
       <c r="B342" s="35"/>
       <c r="C342" s="36"/>
@@ -44745,7 +44764,7 @@
       <c r="H342" s="40"/>
       <c r="I342" s="12"/>
     </row>
-    <row r="343" spans="1:9" ht="15.75">
+    <row r="343" spans="1:9" ht="33.75" customHeight="1">
       <c r="A343" s="35"/>
       <c r="B343" s="35"/>
       <c r="C343" s="36"/>
@@ -44756,7 +44775,7 @@
       <c r="H343" s="40"/>
       <c r="I343" s="12"/>
     </row>
-    <row r="344" spans="1:9" ht="15.75">
+    <row r="344" spans="1:9" ht="33.75" customHeight="1">
       <c r="A344" s="35"/>
       <c r="B344" s="35"/>
       <c r="C344" s="36"/>
@@ -44767,7 +44786,7 @@
       <c r="H344" s="40"/>
       <c r="I344" s="12"/>
     </row>
-    <row r="345" spans="1:9" ht="15.75">
+    <row r="345" spans="1:9" ht="33.75" customHeight="1">
       <c r="A345" s="35"/>
       <c r="B345" s="35"/>
       <c r="C345" s="36"/>
@@ -44778,7 +44797,7 @@
       <c r="H345" s="40"/>
       <c r="I345" s="12"/>
     </row>
-    <row r="346" spans="1:9" ht="15.75">
+    <row r="346" spans="1:9" ht="33.75" customHeight="1">
       <c r="A346" s="35"/>
       <c r="B346" s="35"/>
       <c r="C346" s="36"/>
@@ -44789,7 +44808,7 @@
       <c r="H346" s="40"/>
       <c r="I346" s="12"/>
     </row>
-    <row r="347" spans="1:9" ht="15.75">
+    <row r="347" spans="1:9" ht="33.75" customHeight="1">
       <c r="A347" s="35"/>
       <c r="B347" s="35"/>
       <c r="C347" s="36"/>
@@ -44800,7 +44819,7 @@
       <c r="H347" s="40"/>
       <c r="I347" s="12"/>
     </row>
-    <row r="348" spans="1:9" ht="15.75">
+    <row r="348" spans="1:9" ht="33.75" customHeight="1">
       <c r="A348" s="35"/>
       <c r="B348" s="35"/>
       <c r="C348" s="36"/>
@@ -44811,7 +44830,7 @@
       <c r="H348" s="40"/>
       <c r="I348" s="12"/>
     </row>
-    <row r="349" spans="1:9" ht="15.75">
+    <row r="349" spans="1:9" ht="33.75" customHeight="1">
       <c r="A349" s="35"/>
       <c r="B349" s="35"/>
       <c r="C349" s="36"/>
@@ -44822,7 +44841,7 @@
       <c r="H349" s="40"/>
       <c r="I349" s="12"/>
     </row>
-    <row r="350" spans="1:9" ht="15.75">
+    <row r="350" spans="1:9" ht="33.75" customHeight="1">
       <c r="A350" s="35"/>
       <c r="B350" s="35"/>
       <c r="C350" s="36"/>
@@ -44833,7 +44852,7 @@
       <c r="H350" s="40"/>
       <c r="I350" s="12"/>
     </row>
-    <row r="351" spans="1:9" ht="15.75">
+    <row r="351" spans="1:9" ht="33.75" customHeight="1">
       <c r="A351" s="35"/>
       <c r="B351" s="35"/>
       <c r="C351" s="36"/>
@@ -44844,7 +44863,7 @@
       <c r="H351" s="40"/>
       <c r="I351" s="12"/>
     </row>
-    <row r="352" spans="1:9" ht="15.75">
+    <row r="352" spans="1:9" ht="33.75" customHeight="1">
       <c r="A352" s="35"/>
       <c r="B352" s="35"/>
       <c r="C352" s="36"/>
@@ -44855,7 +44874,7 @@
       <c r="H352" s="40"/>
       <c r="I352" s="12"/>
     </row>
-    <row r="353" spans="1:9" ht="15.75">
+    <row r="353" spans="1:9" ht="33.75" customHeight="1">
       <c r="A353" s="35"/>
       <c r="B353" s="35"/>
       <c r="C353" s="36"/>
@@ -44866,7 +44885,7 @@
       <c r="H353" s="40"/>
       <c r="I353" s="12"/>
     </row>
-    <row r="354" spans="1:9" ht="15.75">
+    <row r="354" spans="1:9" ht="33.75" customHeight="1">
       <c r="A354" s="35"/>
       <c r="B354" s="35"/>
       <c r="C354" s="36"/>
@@ -44877,7 +44896,7 @@
       <c r="H354" s="40"/>
       <c r="I354" s="12"/>
     </row>
-    <row r="355" spans="1:9" ht="15.75">
+    <row r="355" spans="1:9" ht="33.75" customHeight="1">
       <c r="A355" s="35"/>
       <c r="B355" s="35"/>
       <c r="C355" s="36"/>
@@ -44888,7 +44907,7 @@
       <c r="H355" s="40"/>
       <c r="I355" s="12"/>
     </row>
-    <row r="356" spans="1:9" ht="15.75">
+    <row r="356" spans="1:9" ht="33.75" customHeight="1">
       <c r="A356" s="35"/>
       <c r="B356" s="35"/>
       <c r="C356" s="36"/>
@@ -44899,7 +44918,7 @@
       <c r="H356" s="40"/>
       <c r="I356" s="12"/>
     </row>
-    <row r="357" spans="1:9" ht="15.75">
+    <row r="357" spans="1:9" ht="33.75" customHeight="1">
       <c r="A357" s="35"/>
       <c r="B357" s="35"/>
       <c r="C357" s="36"/>
@@ -44910,7 +44929,7 @@
       <c r="H357" s="40"/>
       <c r="I357" s="12"/>
     </row>
-    <row r="358" spans="1:9" ht="15.75">
+    <row r="358" spans="1:9" ht="33.75" customHeight="1">
       <c r="A358" s="35"/>
       <c r="B358" s="35"/>
       <c r="C358" s="36"/>
@@ -44921,7 +44940,7 @@
       <c r="H358" s="40"/>
       <c r="I358" s="12"/>
     </row>
-    <row r="359" spans="1:9" ht="15.75">
+    <row r="359" spans="1:9" ht="33.75" customHeight="1">
       <c r="A359" s="35"/>
       <c r="B359" s="35"/>
       <c r="C359" s="36"/>
@@ -44932,7 +44951,7 @@
       <c r="H359" s="40"/>
       <c r="I359" s="12"/>
     </row>
-    <row r="360" spans="1:9" ht="15.75">
+    <row r="360" spans="1:9" ht="33.75" customHeight="1">
       <c r="A360" s="35"/>
       <c r="B360" s="35"/>
       <c r="C360" s="36"/>
@@ -44943,7 +44962,7 @@
       <c r="H360" s="40"/>
       <c r="I360" s="12"/>
     </row>
-    <row r="361" spans="1:9" ht="15.75">
+    <row r="361" spans="1:9" ht="33.75" customHeight="1">
       <c r="A361" s="35"/>
       <c r="B361" s="35"/>
       <c r="C361" s="36"/>
@@ -44954,7 +44973,7 @@
       <c r="H361" s="40"/>
       <c r="I361" s="12"/>
     </row>
-    <row r="362" spans="1:9" ht="15.75">
+    <row r="362" spans="1:9" ht="33.75" customHeight="1">
       <c r="A362" s="35"/>
       <c r="B362" s="35"/>
       <c r="C362" s="36"/>
@@ -44965,7 +44984,7 @@
       <c r="H362" s="40"/>
       <c r="I362" s="12"/>
     </row>
-    <row r="363" spans="1:9" ht="15.75">
+    <row r="363" spans="1:9" ht="33.75" customHeight="1">
       <c r="A363" s="35"/>
       <c r="B363" s="35"/>
       <c r="C363" s="36"/>
@@ -44976,7 +44995,7 @@
       <c r="H363" s="40"/>
       <c r="I363" s="12"/>
     </row>
-    <row r="364" spans="1:9" ht="15.75">
+    <row r="364" spans="1:9" ht="33.75" customHeight="1">
       <c r="A364" s="35"/>
       <c r="B364" s="35"/>
       <c r="C364" s="36"/>
@@ -44987,7 +45006,7 @@
       <c r="H364" s="40"/>
       <c r="I364" s="12"/>
     </row>
-    <row r="365" spans="1:9" ht="15.75">
+    <row r="365" spans="1:9" ht="33.75" customHeight="1">
       <c r="A365" s="35"/>
       <c r="B365" s="35"/>
       <c r="C365" s="36"/>
@@ -44998,7 +45017,7 @@
       <c r="H365" s="40"/>
       <c r="I365" s="12"/>
     </row>
-    <row r="366" spans="1:9" ht="15.75">
+    <row r="366" spans="1:9" ht="33.75" customHeight="1">
       <c r="A366" s="35"/>
       <c r="B366" s="35"/>
       <c r="C366" s="36"/>
@@ -45009,7 +45028,7 @@
       <c r="H366" s="40"/>
       <c r="I366" s="12"/>
     </row>
-    <row r="367" spans="1:9" ht="15.75">
+    <row r="367" spans="1:9" ht="33.75" customHeight="1">
       <c r="A367" s="35"/>
       <c r="B367" s="35"/>
       <c r="C367" s="36"/>
@@ -45020,7 +45039,7 @@
       <c r="H367" s="40"/>
       <c r="I367" s="12"/>
     </row>
-    <row r="368" spans="1:9" ht="15.75">
+    <row r="368" spans="1:9" ht="33.75" customHeight="1">
       <c r="A368" s="35"/>
       <c r="B368" s="35"/>
       <c r="C368" s="36"/>
@@ -45031,7 +45050,7 @@
       <c r="H368" s="40"/>
       <c r="I368" s="12"/>
     </row>
-    <row r="369" spans="1:9" ht="15.75">
+    <row r="369" spans="1:9" ht="33.75" customHeight="1">
       <c r="A369" s="35"/>
       <c r="B369" s="35"/>
       <c r="C369" s="36"/>
@@ -45042,7 +45061,7 @@
       <c r="H369" s="40"/>
       <c r="I369" s="12"/>
     </row>
-    <row r="370" spans="1:9" ht="15.75">
+    <row r="370" spans="1:9" ht="33.75" customHeight="1">
       <c r="A370" s="35"/>
       <c r="B370" s="35"/>
       <c r="C370" s="36"/>
@@ -45053,7 +45072,7 @@
       <c r="H370" s="40"/>
       <c r="I370" s="12"/>
     </row>
-    <row r="371" spans="1:9" ht="15.75">
+    <row r="371" spans="1:9" ht="33.75" customHeight="1">
       <c r="A371" s="35"/>
       <c r="B371" s="35"/>
       <c r="C371" s="36"/>
@@ -45064,7 +45083,7 @@
       <c r="H371" s="40"/>
       <c r="I371" s="12"/>
     </row>
-    <row r="372" spans="1:9" ht="15.75">
+    <row r="372" spans="1:9" ht="33.75" customHeight="1">
       <c r="A372" s="35"/>
       <c r="B372" s="35"/>
       <c r="C372" s="36"/>
@@ -45075,7 +45094,7 @@
       <c r="H372" s="40"/>
       <c r="I372" s="12"/>
     </row>
-    <row r="373" spans="1:9" ht="15.75">
+    <row r="373" spans="1:9" ht="33.75" customHeight="1">
       <c r="A373" s="35"/>
       <c r="B373" s="35"/>
       <c r="C373" s="36"/>
@@ -45086,7 +45105,7 @@
       <c r="H373" s="40"/>
       <c r="I373" s="12"/>
     </row>
-    <row r="374" spans="1:9" ht="15.75">
+    <row r="374" spans="1:9" ht="33.75" customHeight="1">
       <c r="A374" s="35"/>
       <c r="B374" s="35"/>
       <c r="C374" s="36"/>
@@ -45097,7 +45116,7 @@
       <c r="H374" s="40"/>
       <c r="I374" s="12"/>
     </row>
-    <row r="375" spans="1:9" ht="15.75">
+    <row r="375" spans="1:9" ht="33.75" customHeight="1">
       <c r="A375" s="35"/>
       <c r="B375" s="35"/>
       <c r="C375" s="36"/>
@@ -45108,7 +45127,7 @@
       <c r="H375" s="40"/>
       <c r="I375" s="12"/>
     </row>
-    <row r="376" spans="1:9" ht="15.75">
+    <row r="376" spans="1:9" ht="33.75" customHeight="1">
       <c r="A376" s="35"/>
       <c r="B376" s="35"/>
       <c r="C376" s="36"/>
@@ -45119,7 +45138,7 @@
       <c r="H376" s="40"/>
       <c r="I376" s="12"/>
     </row>
-    <row r="377" spans="1:9" ht="15.75">
+    <row r="377" spans="1:9" ht="33.75" customHeight="1">
       <c r="A377" s="35"/>
       <c r="B377" s="35"/>
       <c r="C377" s="36"/>
@@ -45130,7 +45149,7 @@
       <c r="H377" s="40"/>
       <c r="I377" s="12"/>
     </row>
-    <row r="378" spans="1:9" ht="15.75">
+    <row r="378" spans="1:9" ht="33.75" customHeight="1">
       <c r="A378" s="35"/>
       <c r="B378" s="35"/>
       <c r="C378" s="36"/>
@@ -45141,7 +45160,7 @@
       <c r="H378" s="40"/>
       <c r="I378" s="12"/>
     </row>
-    <row r="379" spans="1:9" ht="15.75">
+    <row r="379" spans="1:9" ht="33.75" customHeight="1">
       <c r="A379" s="35"/>
       <c r="B379" s="35"/>
       <c r="C379" s="36"/>
@@ -45152,7 +45171,7 @@
       <c r="H379" s="40"/>
       <c r="I379" s="12"/>
     </row>
-    <row r="380" spans="1:9" ht="15.75">
+    <row r="380" spans="1:9" ht="33.75" customHeight="1">
       <c r="A380" s="35"/>
       <c r="B380" s="35"/>
       <c r="C380" s="36"/>
@@ -45163,7 +45182,7 @@
       <c r="H380" s="40"/>
       <c r="I380" s="12"/>
     </row>
-    <row r="381" spans="1:9" ht="15.75">
+    <row r="381" spans="1:9" ht="33.75" customHeight="1">
       <c r="A381" s="35"/>
       <c r="B381" s="35"/>
       <c r="C381" s="36"/>
@@ -45174,7 +45193,7 @@
       <c r="H381" s="40"/>
       <c r="I381" s="12"/>
     </row>
-    <row r="382" spans="1:9" ht="15.75">
+    <row r="382" spans="1:9" ht="33.75" customHeight="1">
       <c r="A382" s="35"/>
       <c r="B382" s="35"/>
       <c r="C382" s="36"/>
@@ -45185,7 +45204,7 @@
       <c r="H382" s="40"/>
       <c r="I382" s="12"/>
     </row>
-    <row r="383" spans="1:9" ht="15.75">
+    <row r="383" spans="1:9" ht="33.75" customHeight="1">
       <c r="A383" s="35"/>
       <c r="B383" s="35"/>
       <c r="C383" s="36"/>
@@ -45196,7 +45215,7 @@
       <c r="H383" s="40"/>
       <c r="I383" s="12"/>
     </row>
-    <row r="384" spans="1:9" ht="15.75">
+    <row r="384" spans="1:9" ht="33.75" customHeight="1">
       <c r="A384" s="35"/>
       <c r="B384" s="35"/>
       <c r="C384" s="36"/>
@@ -45207,7 +45226,7 @@
       <c r="H384" s="40"/>
       <c r="I384" s="12"/>
     </row>
-    <row r="385" spans="1:9" ht="15.75">
+    <row r="385" spans="1:9" ht="33.75" customHeight="1">
       <c r="A385" s="35"/>
       <c r="B385" s="35"/>
       <c r="C385" s="36"/>
@@ -45218,7 +45237,7 @@
       <c r="H385" s="40"/>
       <c r="I385" s="12"/>
     </row>
-    <row r="386" spans="1:9" ht="15.75">
+    <row r="386" spans="1:9" ht="33.75" customHeight="1">
       <c r="A386" s="35"/>
       <c r="B386" s="35"/>
       <c r="C386" s="36"/>
@@ -45229,7 +45248,7 @@
       <c r="H386" s="40"/>
       <c r="I386" s="12"/>
     </row>
-    <row r="387" spans="1:9" ht="15.75">
+    <row r="387" spans="1:9" ht="33.75" customHeight="1">
       <c r="A387" s="35"/>
       <c r="B387" s="35"/>
       <c r="C387" s="36"/>
@@ -45240,7 +45259,7 @@
       <c r="H387" s="40"/>
       <c r="I387" s="12"/>
     </row>
-    <row r="388" spans="1:9" ht="15.75">
+    <row r="388" spans="1:9" ht="33.75" customHeight="1">
       <c r="A388" s="35"/>
       <c r="B388" s="35"/>
       <c r="C388" s="36"/>
@@ -45251,7 +45270,7 @@
       <c r="H388" s="40"/>
       <c r="I388" s="12"/>
     </row>
-    <row r="389" spans="1:9" ht="15.75">
+    <row r="389" spans="1:9" ht="33.75" customHeight="1">
       <c r="A389" s="35"/>
       <c r="B389" s="35"/>
       <c r="C389" s="36"/>
@@ -45262,7 +45281,7 @@
       <c r="H389" s="40"/>
       <c r="I389" s="12"/>
     </row>
-    <row r="390" spans="1:9" ht="15.75">
+    <row r="390" spans="1:9" ht="33.75" customHeight="1">
       <c r="A390" s="35"/>
       <c r="B390" s="35"/>
       <c r="C390" s="36"/>
@@ -45273,7 +45292,7 @@
       <c r="H390" s="40"/>
       <c r="I390" s="12"/>
     </row>
-    <row r="391" spans="1:9" ht="15.75">
+    <row r="391" spans="1:9" ht="33.75" customHeight="1">
       <c r="A391" s="35"/>
       <c r="B391" s="35"/>
       <c r="C391" s="36"/>
@@ -45284,7 +45303,7 @@
       <c r="H391" s="40"/>
       <c r="I391" s="12"/>
     </row>
-    <row r="392" spans="1:9" ht="15.75">
+    <row r="392" spans="1:9" ht="33.75" customHeight="1">
       <c r="A392" s="35"/>
       <c r="B392" s="35"/>
       <c r="C392" s="36"/>
@@ -45295,7 +45314,7 @@
       <c r="H392" s="40"/>
       <c r="I392" s="12"/>
     </row>
-    <row r="393" spans="1:9" ht="15.75">
+    <row r="393" spans="1:9" ht="33.75" customHeight="1">
       <c r="A393" s="35"/>
       <c r="B393" s="35"/>
       <c r="C393" s="36"/>
@@ -45306,7 +45325,7 @@
       <c r="H393" s="40"/>
       <c r="I393" s="12"/>
     </row>
-    <row r="394" spans="1:9" ht="15.75">
+    <row r="394" spans="1:9" ht="33.75" customHeight="1">
       <c r="A394" s="35"/>
       <c r="B394" s="35"/>
       <c r="C394" s="36"/>
@@ -45317,7 +45336,7 @@
       <c r="H394" s="40"/>
       <c r="I394" s="12"/>
     </row>
-    <row r="395" spans="1:9" ht="15.75">
+    <row r="395" spans="1:9" ht="33.75" customHeight="1">
       <c r="A395" s="35"/>
       <c r="B395" s="35"/>
       <c r="C395" s="36"/>
@@ -45328,7 +45347,7 @@
       <c r="H395" s="40"/>
       <c r="I395" s="12"/>
     </row>
-    <row r="396" spans="1:9" ht="15.75">
+    <row r="396" spans="1:9" ht="33.75" customHeight="1">
       <c r="A396" s="35"/>
       <c r="B396" s="35"/>
       <c r="C396" s="36"/>
@@ -45339,7 +45358,7 @@
       <c r="H396" s="40"/>
       <c r="I396" s="12"/>
     </row>
-    <row r="397" spans="1:9" ht="15.75">
+    <row r="397" spans="1:9" ht="33.75" customHeight="1">
       <c r="A397" s="35"/>
       <c r="B397" s="35"/>
       <c r="C397" s="36"/>
@@ -45350,7 +45369,7 @@
       <c r="H397" s="40"/>
       <c r="I397" s="12"/>
     </row>
-    <row r="398" spans="1:9" ht="15.75">
+    <row r="398" spans="1:9" ht="33.75" customHeight="1">
       <c r="A398" s="35"/>
       <c r="B398" s="35"/>
       <c r="C398" s="36"/>
@@ -45361,7 +45380,7 @@
       <c r="H398" s="40"/>
       <c r="I398" s="12"/>
     </row>
-    <row r="399" spans="1:9" ht="15.75">
+    <row r="399" spans="1:9" ht="33.75" customHeight="1">
       <c r="A399" s="35"/>
       <c r="B399" s="35"/>
       <c r="C399" s="36"/>
@@ -45372,7 +45391,7 @@
       <c r="H399" s="40"/>
       <c r="I399" s="12"/>
     </row>
-    <row r="400" spans="1:9" ht="15.75">
+    <row r="400" spans="1:9" ht="33.75" customHeight="1">
       <c r="A400" s="35"/>
       <c r="B400" s="35"/>
       <c r="C400" s="36"/>
@@ -45383,7 +45402,7 @@
       <c r="H400" s="40"/>
       <c r="I400" s="12"/>
     </row>
-    <row r="401" spans="1:9" ht="15.75">
+    <row r="401" spans="1:9" ht="33.75" customHeight="1">
       <c r="A401" s="35"/>
       <c r="B401" s="35"/>
       <c r="C401" s="36"/>
@@ -45394,7 +45413,7 @@
       <c r="H401" s="40"/>
       <c r="I401" s="12"/>
     </row>
-    <row r="402" spans="1:9" ht="15.75">
+    <row r="402" spans="1:9" ht="33.75" customHeight="1">
       <c r="A402" s="35"/>
       <c r="B402" s="35"/>
       <c r="C402" s="36"/>
@@ -45405,7 +45424,7 @@
       <c r="H402" s="40"/>
       <c r="I402" s="12"/>
     </row>
-    <row r="403" spans="1:9" ht="15.75">
+    <row r="403" spans="1:9" ht="33.75" customHeight="1">
       <c r="A403" s="35"/>
       <c r="B403" s="35"/>
       <c r="C403" s="36"/>
@@ -45416,7 +45435,7 @@
       <c r="H403" s="40"/>
       <c r="I403" s="12"/>
     </row>
-    <row r="404" spans="1:9" ht="15.75">
+    <row r="404" spans="1:9" ht="33.75" customHeight="1">
       <c r="A404" s="35"/>
       <c r="B404" s="35"/>
       <c r="C404" s="36"/>
@@ -45427,7 +45446,7 @@
       <c r="H404" s="40"/>
       <c r="I404" s="12"/>
     </row>
-    <row r="405" spans="1:9" ht="15.75">
+    <row r="405" spans="1:9" ht="33.75" customHeight="1">
       <c r="A405" s="35"/>
       <c r="B405" s="35"/>
       <c r="C405" s="36"/>
@@ -45438,7 +45457,7 @@
       <c r="H405" s="40"/>
       <c r="I405" s="12"/>
     </row>
-    <row r="406" spans="1:9" ht="15.75">
+    <row r="406" spans="1:9" ht="33.75" customHeight="1">
       <c r="A406" s="35"/>
       <c r="B406" s="35"/>
       <c r="C406" s="36"/>
@@ -45449,7 +45468,7 @@
       <c r="H406" s="40"/>
       <c r="I406" s="12"/>
     </row>
-    <row r="407" spans="1:9" ht="15.75">
+    <row r="407" spans="1:9" ht="33.75" customHeight="1">
       <c r="A407" s="35"/>
       <c r="B407" s="35"/>
       <c r="C407" s="36"/>
@@ -45460,7 +45479,7 @@
       <c r="H407" s="40"/>
       <c r="I407" s="12"/>
     </row>
-    <row r="408" spans="1:9" ht="15.75">
+    <row r="408" spans="1:9" ht="33.75" customHeight="1">
       <c r="A408" s="35"/>
       <c r="B408" s="35"/>
       <c r="C408" s="36"/>
@@ -45471,7 +45490,7 @@
       <c r="H408" s="40"/>
       <c r="I408" s="12"/>
     </row>
-    <row r="409" spans="1:9" ht="15.75">
+    <row r="409" spans="1:9" ht="33.75" customHeight="1">
       <c r="A409" s="35"/>
       <c r="B409" s="35"/>
       <c r="C409" s="36"/>
@@ -45482,7 +45501,7 @@
       <c r="H409" s="40"/>
       <c r="I409" s="12"/>
     </row>
-    <row r="410" spans="1:9" ht="15.75">
+    <row r="410" spans="1:9" ht="33.75" customHeight="1">
       <c r="A410" s="35"/>
       <c r="B410" s="35"/>
       <c r="C410" s="36"/>
@@ -45493,7 +45512,7 @@
       <c r="H410" s="40"/>
       <c r="I410" s="12"/>
     </row>
-    <row r="411" spans="1:9" ht="15.75">
+    <row r="411" spans="1:9" ht="33.75" customHeight="1">
       <c r="A411" s="35"/>
       <c r="B411" s="35"/>
       <c r="C411" s="36"/>
@@ -45504,7 +45523,7 @@
       <c r="H411" s="40"/>
       <c r="I411" s="12"/>
     </row>
-    <row r="412" spans="1:9" ht="15.75">
+    <row r="412" spans="1:9" ht="33.75" customHeight="1">
       <c r="A412" s="35"/>
       <c r="B412" s="35"/>
       <c r="C412" s="36"/>
@@ -45515,7 +45534,7 @@
       <c r="H412" s="40"/>
       <c r="I412" s="12"/>
     </row>
-    <row r="413" spans="1:9" ht="15.75">
+    <row r="413" spans="1:9" ht="33.75" customHeight="1">
       <c r="A413" s="35"/>
       <c r="B413" s="35"/>
       <c r="C413" s="36"/>
@@ -45526,7 +45545,7 @@
       <c r="H413" s="40"/>
       <c r="I413" s="12"/>
     </row>
-    <row r="414" spans="1:9" ht="15.75">
+    <row r="414" spans="1:9" ht="33.75" customHeight="1">
       <c r="A414" s="35"/>
       <c r="B414" s="35"/>
       <c r="C414" s="36"/>
@@ -45537,7 +45556,7 @@
       <c r="H414" s="40"/>
       <c r="I414" s="12"/>
     </row>
-    <row r="415" spans="1:9" ht="15.75">
+    <row r="415" spans="1:9" ht="33.75" customHeight="1">
       <c r="A415" s="35"/>
       <c r="B415" s="35"/>
       <c r="C415" s="36"/>
@@ -45548,7 +45567,7 @@
       <c r="H415" s="40"/>
       <c r="I415" s="12"/>
     </row>
-    <row r="416" spans="1:9" ht="15.75">
+    <row r="416" spans="1:9" ht="33.75" customHeight="1">
       <c r="A416" s="35"/>
       <c r="B416" s="35"/>
       <c r="C416" s="36"/>
@@ -45559,7 +45578,7 @@
       <c r="H416" s="40"/>
       <c r="I416" s="12"/>
     </row>
-    <row r="417" spans="1:9" ht="15.75">
+    <row r="417" spans="1:9" ht="33.75" customHeight="1">
       <c r="A417" s="35"/>
       <c r="B417" s="35"/>
       <c r="C417" s="36"/>
@@ -45570,7 +45589,7 @@
       <c r="H417" s="40"/>
       <c r="I417" s="12"/>
     </row>
-    <row r="418" spans="1:9" ht="15.75">
+    <row r="418" spans="1:9" ht="33.75" customHeight="1">
       <c r="A418" s="35"/>
       <c r="B418" s="35"/>
       <c r="C418" s="36"/>
@@ -45581,7 +45600,7 @@
       <c r="H418" s="40"/>
       <c r="I418" s="12"/>
     </row>
-    <row r="419" spans="1:9" ht="15.75">
+    <row r="419" spans="1:9" ht="33.75" customHeight="1">
       <c r="A419" s="35"/>
       <c r="B419" s="35"/>
       <c r="C419" s="36"/>
@@ -45592,7 +45611,7 @@
       <c r="H419" s="40"/>
       <c r="I419" s="12"/>
     </row>
-    <row r="420" spans="1:9" ht="15.75">
+    <row r="420" spans="1:9" ht="33.75" customHeight="1">
       <c r="A420" s="35"/>
       <c r="B420" s="35"/>
       <c r="C420" s="36"/>
@@ -45603,7 +45622,7 @@
       <c r="H420" s="40"/>
       <c r="I420" s="12"/>
     </row>
-    <row r="421" spans="1:9" ht="15.75">
+    <row r="421" spans="1:9" ht="33.75" customHeight="1">
       <c r="A421" s="35"/>
       <c r="B421" s="35"/>
       <c r="C421" s="36"/>
@@ -45614,7 +45633,7 @@
       <c r="H421" s="40"/>
       <c r="I421" s="12"/>
     </row>
-    <row r="422" spans="1:9" ht="15.75">
+    <row r="422" spans="1:9" ht="33.75" customHeight="1">
       <c r="A422" s="35"/>
       <c r="B422" s="35"/>
       <c r="C422" s="36"/>
@@ -45625,7 +45644,7 @@
       <c r="H422" s="40"/>
       <c r="I422" s="12"/>
     </row>
-    <row r="423" spans="1:9" ht="15.75">
+    <row r="423" spans="1:9" ht="33.75" customHeight="1">
       <c r="A423" s="35"/>
       <c r="B423" s="35"/>
       <c r="C423" s="36"/>
@@ -45636,7 +45655,7 @@
       <c r="H423" s="40"/>
       <c r="I423" s="12"/>
     </row>
-    <row r="424" spans="1:9" ht="15.75">
+    <row r="424" spans="1:9" ht="33.75" customHeight="1">
       <c r="A424" s="35"/>
       <c r="B424" s="35"/>
       <c r="C424" s="36"/>
@@ -45647,7 +45666,7 @@
       <c r="H424" s="40"/>
       <c r="I424" s="12"/>
     </row>
-    <row r="425" spans="1:9" ht="15.75">
+    <row r="425" spans="1:9" ht="33.75" customHeight="1">
       <c r="A425" s="35"/>
       <c r="B425" s="35"/>
       <c r="C425" s="36"/>
@@ -45658,7 +45677,7 @@
       <c r="H425" s="40"/>
       <c r="I425" s="12"/>
     </row>
-    <row r="426" spans="1:9" ht="15.75">
+    <row r="426" spans="1:9" ht="33.75" customHeight="1">
       <c r="A426" s="35"/>
       <c r="B426" s="35"/>
       <c r="C426" s="36"/>
@@ -45669,7 +45688,7 @@
       <c r="H426" s="40"/>
       <c r="I426" s="12"/>
     </row>
-    <row r="427" spans="1:9" ht="15.75">
+    <row r="427" spans="1:9" ht="33.75" customHeight="1">
       <c r="A427" s="35"/>
       <c r="B427" s="35"/>
       <c r="C427" s="36"/>
@@ -45680,7 +45699,7 @@
       <c r="H427" s="40"/>
       <c r="I427" s="12"/>
     </row>
-    <row r="428" spans="1:9" ht="15.75">
+    <row r="428" spans="1:9" ht="33.75" customHeight="1">
       <c r="A428" s="35"/>
       <c r="B428" s="35"/>
       <c r="C428" s="36"/>
@@ -45691,7 +45710,7 @@
       <c r="H428" s="40"/>
       <c r="I428" s="12"/>
     </row>
-    <row r="429" spans="1:9" ht="15.75">
+    <row r="429" spans="1:9" ht="33.75" customHeight="1">
       <c r="A429" s="35"/>
       <c r="B429" s="35"/>
       <c r="C429" s="36"/>
@@ -45702,7 +45721,7 @@
       <c r="H429" s="40"/>
       <c r="I429" s="12"/>
     </row>
-    <row r="430" spans="1:9" ht="15.75">
+    <row r="430" spans="1:9" ht="33.75" customHeight="1">
       <c r="A430" s="35"/>
       <c r="B430" s="35"/>
       <c r="C430" s="36"/>
@@ -45713,7 +45732,7 @@
       <c r="H430" s="40"/>
       <c r="I430" s="12"/>
     </row>
-    <row r="431" spans="1:9" ht="15.75">
+    <row r="431" spans="1:9" ht="33.75" customHeight="1">
       <c r="A431" s="35"/>
       <c r="B431" s="35"/>
       <c r="C431" s="36"/>
@@ -45724,7 +45743,7 @@
       <c r="H431" s="40"/>
       <c r="I431" s="12"/>
     </row>
-    <row r="432" spans="1:9" ht="15.75">
+    <row r="432" spans="1:9" ht="33.75" customHeight="1">
       <c r="A432" s="35"/>
       <c r="B432" s="35"/>
       <c r="C432" s="36"/>
@@ -45735,7 +45754,7 @@
       <c r="H432" s="40"/>
       <c r="I432" s="12"/>
     </row>
-    <row r="433" spans="1:9" ht="15.75">
+    <row r="433" spans="1:9" ht="33.75" customHeight="1">
       <c r="A433" s="35"/>
       <c r="B433" s="35"/>
       <c r="C433" s="36"/>
@@ -45746,7 +45765,7 @@
       <c r="H433" s="40"/>
       <c r="I433" s="12"/>
     </row>
-    <row r="434" spans="1:9" ht="15.75">
+    <row r="434" spans="1:9" ht="33.75" customHeight="1">
       <c r="A434" s="35"/>
       <c r="B434" s="35"/>
       <c r="C434" s="36"/>
@@ -45757,7 +45776,7 @@
       <c r="H434" s="40"/>
       <c r="I434" s="12"/>
     </row>
-    <row r="435" spans="1:9" ht="15.75">
+    <row r="435" spans="1:9" ht="33.75" customHeight="1">
       <c r="A435" s="35"/>
       <c r="B435" s="35"/>
       <c r="C435" s="36"/>
@@ -45768,7 +45787,7 @@
       <c r="H435" s="40"/>
       <c r="I435" s="12"/>
     </row>
-    <row r="436" spans="1:9" ht="15.75">
+    <row r="436" spans="1:9" ht="33.75" customHeight="1">
       <c r="A436" s="35"/>
       <c r="B436" s="35"/>
       <c r="C436" s="36"/>
@@ -45779,7 +45798,7 @@
       <c r="H436" s="40"/>
       <c r="I436" s="12"/>
     </row>
-    <row r="437" spans="1:9" ht="15.75">
+    <row r="437" spans="1:9" ht="33.75" customHeight="1">
       <c r="A437" s="35"/>
       <c r="B437" s="35"/>
       <c r="C437" s="36"/>
@@ -45790,7 +45809,7 @@
       <c r="H437" s="40"/>
       <c r="I437" s="12"/>
     </row>
-    <row r="438" spans="1:9" ht="15.75">
+    <row r="438" spans="1:9" ht="33.75" customHeight="1">
       <c r="A438" s="35"/>
       <c r="B438" s="35"/>
       <c r="C438" s="36"/>
@@ -45801,7 +45820,7 @@
       <c r="H438" s="40"/>
       <c r="I438" s="12"/>
     </row>
-    <row r="439" spans="1:9" ht="15.75">
+    <row r="439" spans="1:9" ht="33.75" customHeight="1">
       <c r="A439" s="35"/>
       <c r="B439" s="35"/>
       <c r="C439" s="36"/>
@@ -45812,7 +45831,7 @@
       <c r="H439" s="40"/>
       <c r="I439" s="12"/>
     </row>
-    <row r="440" spans="1:9" ht="15.75">
+    <row r="440" spans="1:9" ht="33.75" customHeight="1">
       <c r="A440" s="35"/>
       <c r="B440" s="35"/>
       <c r="C440" s="36"/>
@@ -45823,7 +45842,7 @@
       <c r="H440" s="40"/>
       <c r="I440" s="12"/>
     </row>
-    <row r="441" spans="1:9" ht="15.75">
+    <row r="441" spans="1:9" ht="33.75" customHeight="1">
       <c r="A441" s="35"/>
       <c r="B441" s="35"/>
       <c r="C441" s="36"/>
@@ -45834,7 +45853,7 @@
       <c r="H441" s="40"/>
       <c r="I441" s="12"/>
     </row>
-    <row r="442" spans="1:9" ht="15.75">
+    <row r="442" spans="1:9" ht="33.75" customHeight="1">
       <c r="A442" s="35"/>
       <c r="B442" s="35"/>
       <c r="C442" s="36"/>
@@ -45845,7 +45864,7 @@
       <c r="H442" s="40"/>
       <c r="I442" s="12"/>
     </row>
-    <row r="443" spans="1:9" ht="15.75">
+    <row r="443" spans="1:9" ht="33.75" customHeight="1">
       <c r="A443" s="35"/>
       <c r="B443" s="35"/>
       <c r="C443" s="36"/>
@@ -45856,7 +45875,7 @@
       <c r="H443" s="40"/>
       <c r="I443" s="12"/>
     </row>
-    <row r="444" spans="1:9" ht="15.75">
+    <row r="444" spans="1:9" ht="33.75" customHeight="1">
       <c r="A444" s="35"/>
       <c r="B444" s="35"/>
       <c r="C444" s="36"/>
@@ -45867,7 +45886,7 @@
       <c r="H444" s="40"/>
       <c r="I444" s="12"/>
     </row>
-    <row r="445" spans="1:9" ht="15.75">
+    <row r="445" spans="1:9" ht="33.75" customHeight="1">
       <c r="A445" s="35"/>
       <c r="B445" s="35"/>
       <c r="C445" s="36"/>
@@ -45878,7 +45897,7 @@
       <c r="H445" s="40"/>
       <c r="I445" s="12"/>
     </row>
-    <row r="446" spans="1:9" ht="15.75">
+    <row r="446" spans="1:9" ht="33.75" customHeight="1">
       <c r="A446" s="35"/>
       <c r="B446" s="35"/>
       <c r="C446" s="36"/>
@@ -45889,7 +45908,7 @@
       <c r="H446" s="40"/>
       <c r="I446" s="12"/>
     </row>
-    <row r="447" spans="1:9" ht="15.75">
+    <row r="447" spans="1:9" ht="33.75" customHeight="1">
       <c r="A447" s="35"/>
       <c r="B447" s="35"/>
       <c r="C447" s="36"/>
@@ -45900,7 +45919,7 @@
       <c r="H447" s="40"/>
       <c r="I447" s="12"/>
     </row>
-    <row r="448" spans="1:9" ht="15.75">
+    <row r="448" spans="1:9" ht="33.75" customHeight="1">
       <c r="A448" s="35"/>
       <c r="B448" s="35"/>
       <c r="C448" s="36"/>
@@ -45911,7 +45930,7 @@
       <c r="H448" s="40"/>
       <c r="I448" s="12"/>
     </row>
-    <row r="449" spans="1:9" ht="15.75">
+    <row r="449" spans="1:9" ht="33.75" customHeight="1">
       <c r="A449" s="35"/>
       <c r="B449" s="35"/>
       <c r="C449" s="36"/>
@@ -45922,7 +45941,7 @@
       <c r="H449" s="40"/>
       <c r="I449" s="12"/>
     </row>
-    <row r="450" spans="1:9" ht="15.75">
+    <row r="450" spans="1:9" ht="33.75" customHeight="1">
       <c r="A450" s="35"/>
       <c r="B450" s="35"/>
       <c r="C450" s="36"/>
@@ -45933,7 +45952,7 @@
       <c r="H450" s="40"/>
       <c r="I450" s="12"/>
     </row>
-    <row r="451" spans="1:9" ht="15.75">
+    <row r="451" spans="1:9" ht="33.75" customHeight="1">
       <c r="A451" s="35"/>
       <c r="B451" s="35"/>
       <c r="C451" s="36"/>
@@ -45944,7 +45963,7 @@
       <c r="H451" s="40"/>
       <c r="I451" s="12"/>
     </row>
-    <row r="452" spans="1:9" ht="15.75">
+    <row r="452" spans="1:9" ht="33.75" customHeight="1">
       <c r="A452" s="35"/>
       <c r="B452" s="35"/>
       <c r="C452" s="36"/>
@@ -45955,7 +45974,7 @@
       <c r="H452" s="40"/>
       <c r="I452" s="12"/>
     </row>
-    <row r="453" spans="1:9" ht="15.75">
+    <row r="453" spans="1:9" ht="33.75" customHeight="1">
       <c r="A453" s="35"/>
       <c r="B453" s="35"/>
       <c r="C453" s="36"/>
@@ -45966,7 +45985,7 @@
       <c r="H453" s="40"/>
       <c r="I453" s="12"/>
     </row>
-    <row r="454" spans="1:9" ht="15.75">
+    <row r="454" spans="1:9" ht="33.75" customHeight="1">
       <c r="A454" s="35"/>
       <c r="B454" s="35"/>
       <c r="C454" s="36"/>
@@ -45977,7 +45996,7 @@
       <c r="H454" s="40"/>
       <c r="I454" s="12"/>
     </row>
-    <row r="455" spans="1:9" ht="15.75">
+    <row r="455" spans="1:9" ht="33.75" customHeight="1">
       <c r="A455" s="35"/>
       <c r="B455" s="35"/>
       <c r="C455" s="36"/>
@@ -45988,7 +46007,7 @@
       <c r="H455" s="40"/>
       <c r="I455" s="12"/>
     </row>
-    <row r="456" spans="1:9" ht="15.75">
+    <row r="456" spans="1:9" ht="33.75" customHeight="1">
       <c r="A456" s="35"/>
       <c r="B456" s="35"/>
       <c r="C456" s="36"/>
@@ -45999,7 +46018,7 @@
       <c r="H456" s="40"/>
       <c r="I456" s="12"/>
     </row>
-    <row r="457" spans="1:9" ht="15.75">
+    <row r="457" spans="1:9" ht="33.75" customHeight="1">
       <c r="A457" s="35"/>
       <c r="B457" s="35"/>
       <c r="C457" s="36"/>
@@ -46010,7 +46029,7 @@
       <c r="H457" s="40"/>
       <c r="I457" s="12"/>
     </row>
-    <row r="458" spans="1:9" ht="15.75">
+    <row r="458" spans="1:9" ht="33.75" customHeight="1">
       <c r="A458" s="35"/>
       <c r="B458" s="35"/>
       <c r="C458" s="36"/>
@@ -46021,7 +46040,7 @@
       <c r="H458" s="40"/>
       <c r="I458" s="12"/>
     </row>
-    <row r="459" spans="1:9" ht="15.75">
+    <row r="459" spans="1:9" ht="33.75" customHeight="1">
       <c r="A459" s="35"/>
       <c r="B459" s="35"/>
       <c r="C459" s="36"/>
@@ -46032,7 +46051,7 @@
       <c r="H459" s="40"/>
       <c r="I459" s="12"/>
     </row>
-    <row r="460" spans="1:9" ht="15.75">
+    <row r="460" spans="1:9" ht="33.75" customHeight="1">
       <c r="A460" s="35"/>
       <c r="B460" s="35"/>
       <c r="C460" s="36"/>
@@ -46043,7 +46062,7 @@
       <c r="H460" s="40"/>
       <c r="I460" s="12"/>
     </row>
-    <row r="461" spans="1:9" ht="15.75">
+    <row r="461" spans="1:9" ht="33.75" customHeight="1">
       <c r="A461" s="35"/>
       <c r="B461" s="35"/>
       <c r="C461" s="36"/>
@@ -46054,7 +46073,7 @@
       <c r="H461" s="40"/>
       <c r="I461" s="12"/>
     </row>
-    <row r="462" spans="1:9" ht="15.75">
+    <row r="462" spans="1:9" ht="33.75" customHeight="1">
       <c r="A462" s="35"/>
       <c r="B462" s="35"/>
       <c r="C462" s="36"/>
@@ -46065,7 +46084,7 @@
       <c r="H462" s="40"/>
       <c r="I462" s="12"/>
     </row>
-    <row r="463" spans="1:9" ht="15.75">
+    <row r="463" spans="1:9" ht="33.75" customHeight="1">
       <c r="A463" s="35"/>
       <c r="B463" s="35"/>
       <c r="C463" s="36"/>
@@ -46076,7 +46095,7 @@
       <c r="H463" s="40"/>
       <c r="I463" s="12"/>
     </row>
-    <row r="464" spans="1:9" ht="15.75">
+    <row r="464" spans="1:9" ht="33.75" customHeight="1">
       <c r="A464" s="35"/>
       <c r="B464" s="35"/>
       <c r="C464" s="36"/>
@@ -46087,7 +46106,7 @@
       <c r="H464" s="40"/>
       <c r="I464" s="12"/>
     </row>
-    <row r="465" spans="1:9" ht="15.75">
+    <row r="465" spans="1:9" ht="33.75" customHeight="1">
       <c r="A465" s="35"/>
       <c r="B465" s="35"/>
       <c r="C465" s="36"/>
@@ -46098,7 +46117,7 @@
       <c r="H465" s="40"/>
       <c r="I465" s="12"/>
     </row>
-    <row r="466" spans="1:9" ht="15.75">
+    <row r="466" spans="1:9" ht="33.75" customHeight="1">
       <c r="A466" s="35"/>
       <c r="B466" s="35"/>
       <c r="C466" s="36"/>
@@ -46109,7 +46128,7 @@
       <c r="H466" s="40"/>
       <c r="I466" s="12"/>
     </row>
-    <row r="467" spans="1:9" ht="15.75">
+    <row r="467" spans="1:9" ht="33.75" customHeight="1">
       <c r="A467" s="35"/>
       <c r="B467" s="35"/>
       <c r="C467" s="36"/>
@@ -46120,7 +46139,7 @@
       <c r="H467" s="40"/>
       <c r="I467" s="12"/>
     </row>
-    <row r="468" spans="1:9" ht="15.75">
+    <row r="468" spans="1:9" ht="33.75" customHeight="1">
       <c r="A468" s="35"/>
       <c r="B468" s="35"/>
       <c r="C468" s="36"/>
@@ -46131,7 +46150,7 @@
       <c r="H468" s="40"/>
       <c r="I468" s="12"/>
     </row>
-    <row r="469" spans="1:9" ht="15.75">
+    <row r="469" spans="1:9" ht="33.75" customHeight="1">
       <c r="A469" s="35"/>
       <c r="B469" s="35"/>
       <c r="C469" s="36"/>
@@ -46142,7 +46161,7 @@
       <c r="H469" s="40"/>
       <c r="I469" s="12"/>
     </row>
-    <row r="470" spans="1:9" ht="15.75">
+    <row r="470" spans="1:9" ht="33.75" customHeight="1">
       <c r="A470" s="35"/>
       <c r="B470" s="35"/>
       <c r="C470" s="36"/>
@@ -46153,7 +46172,7 @@
       <c r="H470" s="40"/>
       <c r="I470" s="12"/>
     </row>
-    <row r="471" spans="1:9" ht="15.75">
+    <row r="471" spans="1:9" ht="33.75" customHeight="1">
       <c r="A471" s="35"/>
       <c r="B471" s="35"/>
       <c r="C471" s="36"/>
@@ -46164,7 +46183,7 @@
       <c r="H471" s="40"/>
       <c r="I471" s="12"/>
     </row>
-    <row r="472" spans="1:9" ht="15.75">
+    <row r="472" spans="1:9" ht="33.75" customHeight="1">
       <c r="A472" s="35"/>
       <c r="B472" s="35"/>
       <c r="C472" s="36"/>
@@ -46175,7 +46194,7 @@
       <c r="H472" s="40"/>
       <c r="I472" s="12"/>
     </row>
-    <row r="473" spans="1:9" ht="15.75">
+    <row r="473" spans="1:9" ht="33.75" customHeight="1">
       <c r="A473" s="35"/>
       <c r="B473" s="35"/>
       <c r="C473" s="36"/>
@@ -46186,7 +46205,7 @@
       <c r="H473" s="40"/>
       <c r="I473" s="12"/>
     </row>
-    <row r="474" spans="1:9" ht="15.75">
+    <row r="474" spans="1:9" ht="33.75" customHeight="1">
       <c r="A474" s="35"/>
       <c r="B474" s="35"/>
       <c r="C474" s="36"/>
@@ -46197,7 +46216,7 @@
       <c r="H474" s="40"/>
       <c r="I474" s="12"/>
     </row>
-    <row r="475" spans="1:9" ht="15.75">
+    <row r="475" spans="1:9" ht="33.75" customHeight="1">
       <c r="A475" s="35"/>
       <c r="B475" s="35"/>
       <c r="C475" s="36"/>
@@ -46208,7 +46227,7 @@
       <c r="H475" s="40"/>
       <c r="I475" s="12"/>
     </row>
-    <row r="476" spans="1:9" ht="15.75">
+    <row r="476" spans="1:9" ht="33.75" customHeight="1">
       <c r="A476" s="35"/>
       <c r="B476" s="35"/>
       <c r="C476" s="36"/>
@@ -46219,7 +46238,7 @@
       <c r="H476" s="40"/>
       <c r="I476" s="12"/>
     </row>
-    <row r="477" spans="1:9" ht="15.75">
+    <row r="477" spans="1:9" ht="33.75" customHeight="1">
       <c r="A477" s="35"/>
       <c r="B477" s="35"/>
       <c r="C477" s="36"/>
@@ -46230,7 +46249,7 @@
       <c r="H477" s="40"/>
       <c r="I477" s="12"/>
     </row>
-    <row r="478" spans="1:9" ht="15.75">
+    <row r="478" spans="1:9" ht="33.75" customHeight="1">
       <c r="A478" s="35"/>
       <c r="B478" s="35"/>
       <c r="C478" s="36"/>
@@ -46241,7 +46260,7 @@
       <c r="H478" s="40"/>
       <c r="I478" s="12"/>
     </row>
-    <row r="479" spans="1:9" ht="15.75">
+    <row r="479" spans="1:9" ht="33.75" customHeight="1">
       <c r="A479" s="35"/>
       <c r="B479" s="35"/>
       <c r="C479" s="36"/>
@@ -46252,7 +46271,7 @@
       <c r="H479" s="40"/>
       <c r="I479" s="12"/>
     </row>
-    <row r="480" spans="1:9" ht="15.75">
+    <row r="480" spans="1:9" ht="33.75" customHeight="1">
       <c r="A480" s="35"/>
       <c r="B480" s="35"/>
       <c r="C480" s="36"/>
@@ -46263,7 +46282,7 @@
       <c r="H480" s="40"/>
       <c r="I480" s="12"/>
     </row>
-    <row r="481" spans="1:9" ht="15.75">
+    <row r="481" spans="1:9" ht="33.75" customHeight="1">
       <c r="A481" s="35"/>
       <c r="B481" s="35"/>
       <c r="C481" s="36"/>
@@ -46274,7 +46293,7 @@
       <c r="H481" s="40"/>
       <c r="I481" s="12"/>
     </row>
-    <row r="482" spans="1:9" ht="15.75">
+    <row r="482" spans="1:9" ht="33.75" customHeight="1">
       <c r="A482" s="35"/>
       <c r="B482" s="35"/>
       <c r="C482" s="36"/>
@@ -46285,7 +46304,7 @@
       <c r="H482" s="40"/>
       <c r="I482" s="12"/>
     </row>
-    <row r="483" spans="1:9" ht="15.75">
+    <row r="483" spans="1:9" ht="33.75" customHeight="1">
       <c r="A483" s="35"/>
       <c r="B483" s="35"/>
       <c r="C483" s="36"/>
@@ -46296,7 +46315,7 @@
       <c r="H483" s="40"/>
       <c r="I483" s="12"/>
     </row>
-    <row r="484" spans="1:9" ht="15.75">
+    <row r="484" spans="1:9" ht="33.75" customHeight="1">
       <c r="A484" s="35"/>
       <c r="B484" s="35"/>
       <c r="C484" s="36"/>
@@ -46307,7 +46326,7 @@
       <c r="H484" s="40"/>
       <c r="I484" s="12"/>
     </row>
-    <row r="485" spans="1:9" ht="15.75">
+    <row r="485" spans="1:9" ht="33.75" customHeight="1">
       <c r="A485" s="35"/>
       <c r="B485" s="35"/>
       <c r="C485" s="36"/>
@@ -46318,7 +46337,7 @@
       <c r="H485" s="40"/>
       <c r="I485" s="12"/>
     </row>
-    <row r="486" spans="1:9" ht="15.75">
+    <row r="486" spans="1:9" ht="33.75" customHeight="1">
       <c r="A486" s="35"/>
       <c r="B486" s="35"/>
       <c r="C486" s="36"/>
@@ -46329,7 +46348,7 @@
       <c r="H486" s="40"/>
       <c r="I486" s="12"/>
     </row>
-    <row r="487" spans="1:9" ht="15.75">
+    <row r="487" spans="1:9" ht="33.75" customHeight="1">
       <c r="A487" s="35"/>
       <c r="B487" s="35"/>
       <c r="C487" s="36"/>
@@ -46340,7 +46359,7 @@
       <c r="H487" s="40"/>
       <c r="I487" s="12"/>
     </row>
-    <row r="488" spans="1:9" ht="15.75">
+    <row r="488" spans="1:9" ht="33.75" customHeight="1">
       <c r="A488" s="35"/>
       <c r="B488" s="35"/>
       <c r="C488" s="36"/>
@@ -46351,7 +46370,7 @@
       <c r="H488" s="40"/>
       <c r="I488" s="12"/>
     </row>
-    <row r="489" spans="1:9" ht="15.75">
+    <row r="489" spans="1:9" ht="33.75" customHeight="1">
       <c r="A489" s="35"/>
       <c r="B489" s="35"/>
       <c r="C489" s="36"/>
@@ -46362,7 +46381,7 @@
       <c r="H489" s="40"/>
       <c r="I489" s="12"/>
     </row>
-    <row r="490" spans="1:9" ht="15.75">
+    <row r="490" spans="1:9" ht="33.75" customHeight="1">
       <c r="A490" s="35"/>
       <c r="B490" s="35"/>
       <c r="C490" s="36"/>
@@ -46373,7 +46392,7 @@
       <c r="H490" s="40"/>
       <c r="I490" s="12"/>
     </row>
-    <row r="491" spans="1:9" ht="15.75">
+    <row r="491" spans="1:9" ht="33.75" customHeight="1">
       <c r="A491" s="35"/>
       <c r="B491" s="35"/>
       <c r="C491" s="36"/>
@@ -46384,7 +46403,7 @@
       <c r="H491" s="40"/>
       <c r="I491" s="12"/>
     </row>
-    <row r="492" spans="1:9" ht="15.75">
+    <row r="492" spans="1:9" ht="33.75" customHeight="1">
       <c r="A492" s="35"/>
       <c r="B492" s="35"/>
       <c r="C492" s="36"/>
@@ -46395,7 +46414,7 @@
       <c r="H492" s="40"/>
       <c r="I492" s="12"/>
     </row>
-    <row r="493" spans="1:9" ht="15.75">
+    <row r="493" spans="1:9" ht="33.75" customHeight="1">
       <c r="A493" s="35"/>
       <c r="B493" s="35"/>
       <c r="C493" s="36"/>
@@ -46406,7 +46425,7 @@
       <c r="H493" s="40"/>
       <c r="I493" s="12"/>
     </row>
-    <row r="494" spans="1:9" ht="15.75">
+    <row r="494" spans="1:9" ht="33.75" customHeight="1">
       <c r="A494" s="35"/>
       <c r="B494" s="35"/>
       <c r="C494" s="36"/>
@@ -46417,7 +46436,7 @@
       <c r="H494" s="40"/>
       <c r="I494" s="12"/>
     </row>
-    <row r="495" spans="1:9" ht="15.75">
+    <row r="495" spans="1:9" ht="33.75" customHeight="1">
       <c r="A495" s="35"/>
       <c r="B495" s="35"/>
       <c r="C495" s="36"/>
@@ -46428,7 +46447,7 @@
       <c r="H495" s="40"/>
       <c r="I495" s="12"/>
     </row>
-    <row r="496" spans="1:9" ht="15.75">
+    <row r="496" spans="1:9" ht="33.75" customHeight="1">
       <c r="A496" s="35"/>
       <c r="B496" s="35"/>
       <c r="C496" s="36"/>
@@ -46439,7 +46458,7 @@
       <c r="H496" s="40"/>
       <c r="I496" s="12"/>
     </row>
-    <row r="497" spans="1:9" ht="15.75">
+    <row r="497" spans="1:9" ht="33.75" customHeight="1">
       <c r="A497" s="35"/>
       <c r="B497" s="35"/>
       <c r="C497" s="36"/>
@@ -46450,7 +46469,7 @@
       <c r="H497" s="40"/>
       <c r="I497" s="12"/>
     </row>
-    <row r="498" spans="1:9" ht="15.75">
+    <row r="498" spans="1:9" ht="33.75" customHeight="1">
       <c r="A498" s="35"/>
       <c r="B498" s="35"/>
       <c r="C498" s="36"/>
@@ -46461,7 +46480,7 @@
       <c r="H498" s="40"/>
       <c r="I498" s="12"/>
     </row>
-    <row r="499" spans="1:9" ht="15.75">
+    <row r="499" spans="1:9" ht="33.75" customHeight="1">
       <c r="A499" s="35"/>
       <c r="B499" s="35"/>
       <c r="C499" s="36"/>
@@ -46472,7 +46491,7 @@
       <c r="H499" s="40"/>
       <c r="I499" s="12"/>
     </row>
-    <row r="500" spans="1:9" ht="15.75">
+    <row r="500" spans="1:9" ht="33.75" customHeight="1">
       <c r="A500" s="35"/>
       <c r="B500" s="35"/>
       <c r="C500" s="36"/>
@@ -46483,7 +46502,7 @@
       <c r="H500" s="40"/>
       <c r="I500" s="12"/>
     </row>
-    <row r="501" spans="1:9" ht="15.75">
+    <row r="501" spans="1:9" ht="33.75" customHeight="1">
       <c r="A501" s="35"/>
       <c r="B501" s="35"/>
       <c r="C501" s="36"/>
@@ -46494,7 +46513,7 @@
       <c r="H501" s="40"/>
       <c r="I501" s="12"/>
     </row>
-    <row r="502" spans="1:9" ht="15.75">
+    <row r="502" spans="1:9" ht="33.75" customHeight="1">
       <c r="A502" s="35"/>
       <c r="B502" s="35"/>
       <c r="C502" s="36"/>
@@ -46505,7 +46524,7 @@
       <c r="H502" s="40"/>
       <c r="I502" s="12"/>
     </row>
-    <row r="503" spans="1:9" ht="15.75">
+    <row r="503" spans="1:9" ht="33.75" customHeight="1">
       <c r="A503" s="35"/>
       <c r="B503" s="35"/>
       <c r="C503" s="36"/>
@@ -46516,7 +46535,7 @@
       <c r="H503" s="40"/>
       <c r="I503" s="12"/>
     </row>
-    <row r="504" spans="1:9" ht="15.75">
+    <row r="504" spans="1:9" ht="33.75" customHeight="1">
       <c r="A504" s="35"/>
       <c r="B504" s="35"/>
       <c r="C504" s="36"/>
@@ -46527,7 +46546,7 @@
       <c r="H504" s="40"/>
       <c r="I504" s="12"/>
     </row>
-    <row r="505" spans="1:9" ht="15.75">
+    <row r="505" spans="1:9" ht="33.75" customHeight="1">
       <c r="A505" s="35"/>
       <c r="B505" s="35"/>
       <c r="C505" s="36"/>
@@ -46538,7 +46557,7 @@
       <c r="H505" s="40"/>
       <c r="I505" s="12"/>
     </row>
-    <row r="506" spans="1:9" ht="15.75">
+    <row r="506" spans="1:9" ht="33.75" customHeight="1">
       <c r="A506" s="35"/>
       <c r="B506" s="35"/>
       <c r="C506" s="36"/>
@@ -46549,7 +46568,7 @@
       <c r="H506" s="40"/>
       <c r="I506" s="12"/>
     </row>
-    <row r="507" spans="1:9" ht="15.75">
+    <row r="507" spans="1:9" ht="33.75" customHeight="1">
       <c r="A507" s="35"/>
       <c r="B507" s="35"/>
       <c r="C507" s="36"/>
@@ -46560,7 +46579,7 @@
       <c r="H507" s="40"/>
       <c r="I507" s="12"/>
     </row>
-    <row r="508" spans="1:9" ht="15.75">
+    <row r="508" spans="1:9" ht="33.75" customHeight="1">
       <c r="A508" s="35"/>
       <c r="B508" s="35"/>
       <c r="C508" s="36"/>
@@ -46571,7 +46590,7 @@
       <c r="H508" s="40"/>
       <c r="I508" s="12"/>
     </row>
-    <row r="509" spans="1:9" ht="15.75">
+    <row r="509" spans="1:9" ht="33.75" customHeight="1">
       <c r="A509" s="35"/>
       <c r="B509" s="35"/>
       <c r="C509" s="36"/>
@@ -46582,7 +46601,7 @@
       <c r="H509" s="40"/>
       <c r="I509" s="12"/>
     </row>
-    <row r="510" spans="1:9" ht="15.75">
+    <row r="510" spans="1:9" ht="33.75" customHeight="1">
       <c r="A510" s="35"/>
       <c r="B510" s="35"/>
       <c r="C510" s="36"/>
@@ -46593,7 +46612,7 @@
       <c r="H510" s="40"/>
       <c r="I510" s="12"/>
     </row>
-    <row r="511" spans="1:9" ht="15.75">
+    <row r="511" spans="1:9" ht="33.75" customHeight="1">
       <c r="A511" s="35"/>
       <c r="B511" s="35"/>
       <c r="C511" s="36"/>
@@ -46604,7 +46623,7 @@
       <c r="H511" s="40"/>
       <c r="I511" s="12"/>
     </row>
-    <row r="512" spans="1:9" ht="15.75">
+    <row r="512" spans="1:9" ht="33.75" customHeight="1">
       <c r="A512" s="35"/>
       <c r="B512" s="35"/>
       <c r="C512" s="36"/>
@@ -46615,7 +46634,7 @@
       <c r="H512" s="40"/>
       <c r="I512" s="12"/>
     </row>
-    <row r="513" spans="1:9" ht="15.75">
+    <row r="513" spans="1:9" ht="33.75" customHeight="1">
       <c r="A513" s="35"/>
       <c r="B513" s="35"/>
       <c r="C513" s="36"/>
@@ -46626,7 +46645,7 @@
       <c r="H513" s="40"/>
       <c r="I513" s="12"/>
     </row>
-    <row r="514" spans="1:9" ht="15.75">
+    <row r="514" spans="1:9" ht="33.75" customHeight="1">
       <c r="A514" s="35"/>
       <c r="B514" s="35"/>
       <c r="C514" s="36"/>
@@ -46637,7 +46656,7 @@
       <c r="H514" s="40"/>
       <c r="I514" s="12"/>
     </row>
-    <row r="515" spans="1:9" ht="15.75">
+    <row r="515" spans="1:9" ht="33.75" customHeight="1">
       <c r="A515" s="35"/>
       <c r="B515" s="35"/>
       <c r="C515" s="36"/>
@@ -46648,7 +46667,7 @@
       <c r="H515" s="40"/>
       <c r="I515" s="12"/>
     </row>
-    <row r="516" spans="1:9" ht="15.75">
+    <row r="516" spans="1:9" ht="33.75" customHeight="1">
       <c r="A516" s="35"/>
       <c r="B516" s="35"/>
       <c r="C516" s="36"/>
@@ -46659,7 +46678,7 @@
       <c r="H516" s="40"/>
       <c r="I516" s="12"/>
     </row>
-    <row r="517" spans="1:9" ht="15.75">
+    <row r="517" spans="1:9" ht="33.75" customHeight="1">
       <c r="A517" s="35"/>
       <c r="B517" s="35"/>
       <c r="C517" s="36"/>
@@ -46670,7 +46689,7 @@
       <c r="H517" s="40"/>
       <c r="I517" s="12"/>
     </row>
-    <row r="518" spans="1:9" ht="15.75">
+    <row r="518" spans="1:9" ht="33.75" customHeight="1">
       <c r="A518" s="35"/>
       <c r="B518" s="35"/>
       <c r="C518" s="36"/>
@@ -46681,7 +46700,7 @@
       <c r="H518" s="40"/>
       <c r="I518" s="12"/>
     </row>
-    <row r="519" spans="1:9" ht="15.75">
+    <row r="519" spans="1:9" ht="33.75" customHeight="1">
       <c r="A519" s="35"/>
       <c r="B519" s="35"/>
       <c r="C519" s="36"/>
@@ -46692,7 +46711,7 @@
       <c r="H519" s="40"/>
       <c r="I519" s="12"/>
     </row>
-    <row r="520" spans="1:9" ht="15.75">
+    <row r="520" spans="1:9" ht="33.75" customHeight="1">
       <c r="A520" s="35"/>
       <c r="B520" s="35"/>
       <c r="C520" s="36"/>
@@ -46703,7 +46722,7 @@
       <c r="H520" s="40"/>
       <c r="I520" s="12"/>
     </row>
-    <row r="521" spans="1:9" ht="15.75">
+    <row r="521" spans="1:9" ht="33.75" customHeight="1">
       <c r="A521" s="35"/>
       <c r="B521" s="35"/>
       <c r="C521" s="36"/>
@@ -46714,7 +46733,7 @@
       <c r="H521" s="40"/>
       <c r="I521" s="12"/>
     </row>
-    <row r="522" spans="1:9" ht="15.75">
+    <row r="522" spans="1:9" ht="33.75" customHeight="1">
       <c r="A522" s="35"/>
       <c r="B522" s="35"/>
       <c r="C522" s="36"/>
@@ -46725,7 +46744,7 @@
       <c r="H522" s="40"/>
       <c r="I522" s="12"/>
     </row>
-    <row r="523" spans="1:9" ht="15.75">
+    <row r="523" spans="1:9" ht="33.75" customHeight="1">
       <c r="A523" s="35"/>
       <c r="B523" s="35"/>
       <c r="C523" s="36"/>
@@ -46736,7 +46755,7 @@
       <c r="H523" s="40"/>
       <c r="I523" s="12"/>
     </row>
-    <row r="524" spans="1:9" ht="15.75">
+    <row r="524" spans="1:9" ht="33.75" customHeight="1">
       <c r="A524" s="35"/>
       <c r="B524" s="35"/>
       <c r="C524" s="36"/>
@@ -46747,7 +46766,7 @@
       <c r="H524" s="40"/>
       <c r="I524" s="12"/>
     </row>
-    <row r="525" spans="1:9" ht="15.75">
+    <row r="525" spans="1:9" ht="33.75" customHeight="1">
       <c r="A525" s="35"/>
       <c r="B525" s="35"/>
       <c r="C525" s="36"/>
@@ -46758,7 +46777,7 @@
       <c r="H525" s="40"/>
       <c r="I525" s="12"/>
     </row>
-    <row r="526" spans="1:9" ht="15.75">
+    <row r="526" spans="1:9" ht="33.75" customHeight="1">
       <c r="A526" s="35"/>
       <c r="B526" s="35"/>
       <c r="C526" s="36"/>
@@ -46769,7 +46788,7 @@
       <c r="H526" s="40"/>
       <c r="I526" s="12"/>
     </row>
-    <row r="527" spans="1:9" ht="15.75">
+    <row r="527" spans="1:9" ht="33.75" customHeight="1">
       <c r="A527" s="35"/>
       <c r="B527" s="35"/>
       <c r="C527" s="36"/>
@@ -46780,7 +46799,7 @@
       <c r="H527" s="40"/>
       <c r="I527" s="12"/>
     </row>
-    <row r="528" spans="1:9" ht="15.75">
+    <row r="528" spans="1:9" ht="33.75" customHeight="1">
       <c r="A528" s="35"/>
       <c r="B528" s="35"/>
       <c r="C528" s="36"/>
@@ -46791,7 +46810,7 @@
       <c r="H528" s="40"/>
       <c r="I528" s="12"/>
     </row>
-    <row r="529" spans="1:9" ht="15.75">
+    <row r="529" spans="1:9" ht="33.75" customHeight="1">
       <c r="A529" s="35"/>
       <c r="B529" s="35"/>
       <c r="C529" s="36"/>
@@ -46802,7 +46821,7 @@
       <c r="H529" s="40"/>
       <c r="I529" s="12"/>
     </row>
-    <row r="530" spans="1:9" ht="15.75">
+    <row r="530" spans="1:9" ht="33.75" customHeight="1">
       <c r="A530" s="35"/>
       <c r="B530" s="35"/>
       <c r="C530" s="36"/>
@@ -46813,7 +46832,7 @@
       <c r="H530" s="40"/>
       <c r="I530" s="12"/>
     </row>
-    <row r="531" spans="1:9" ht="15.75">
+    <row r="531" spans="1:9" ht="33.75" customHeight="1">
       <c r="A531" s="35"/>
       <c r="B531" s="35"/>
       <c r="C531" s="36"/>
@@ -46824,7 +46843,7 @@
       <c r="H531" s="40"/>
       <c r="I531" s="12"/>
     </row>
-    <row r="532" spans="1:9" ht="15.75">
+    <row r="532" spans="1:9" ht="33.75" customHeight="1">
       <c r="A532" s="35"/>
       <c r="B532" s="35"/>
       <c r="C532" s="36"/>
@@ -46835,7 +46854,7 @@
       <c r="H532" s="40"/>
       <c r="I532" s="12"/>
     </row>
-    <row r="533" spans="1:9" ht="15.75">
+    <row r="533" spans="1:9" ht="33.75" customHeight="1">
       <c r="A533" s="35"/>
       <c r="B533" s="35"/>
       <c r="C533" s="36"/>
@@ -46846,7 +46865,7 @@
       <c r="H533" s="40"/>
       <c r="I533" s="12"/>
     </row>
-    <row r="534" spans="1:9" ht="15.75">
+    <row r="534" spans="1:9" ht="33.75" customHeight="1">
       <c r="A534" s="35"/>
       <c r="B534" s="35"/>
       <c r="C534" s="36"/>
@@ -46857,7 +46876,7 @@
       <c r="H534" s="40"/>
       <c r="I534" s="12"/>
     </row>
-    <row r="535" spans="1:9" ht="15.75">
+    <row r="535" spans="1:9" ht="33.75" customHeight="1">
       <c r="A535" s="35"/>
       <c r="B535" s="35"/>
       <c r="C535" s="36"/>
@@ -46868,7 +46887,7 @@
       <c r="H535" s="40"/>
       <c r="I535" s="12"/>
     </row>
-    <row r="536" spans="1:9" ht="15.75">
+    <row r="536" spans="1:9" ht="33.75" customHeight="1">
       <c r="A536" s="35"/>
       <c r="B536" s="35"/>
       <c r="C536" s="36"/>
@@ -46879,7 +46898,7 @@
       <c r="H536" s="40"/>
       <c r="I536" s="12"/>
     </row>
-    <row r="537" spans="1:9" ht="15.75">
+    <row r="537" spans="1:9" ht="33.75" customHeight="1">
       <c r="A537" s="35"/>
       <c r="B537" s="35"/>
       <c r="C537" s="36"/>
@@ -46890,7 +46909,7 @@
       <c r="H537" s="40"/>
       <c r="I537" s="12"/>
     </row>
-    <row r="538" spans="1:9" ht="15.75">
+    <row r="538" spans="1:9" ht="33.75" customHeight="1">
       <c r="A538" s="35"/>
       <c r="B538" s="35"/>
       <c r="C538" s="36"/>
@@ -46901,7 +46920,7 @@
       <c r="H538" s="40"/>
       <c r="I538" s="12"/>
     </row>
-    <row r="539" spans="1:9" ht="15.75">
+    <row r="539" spans="1:9" ht="33.75" customHeight="1">
       <c r="A539" s="35"/>
       <c r="B539" s="35"/>
       <c r="C539" s="36"/>
@@ -46912,7 +46931,7 @@
       <c r="H539" s="40"/>
       <c r="I539" s="12"/>
     </row>
-    <row r="540" spans="1:9" ht="15.75">
+    <row r="540" spans="1:9" ht="33.75" customHeight="1">
       <c r="A540" s="35"/>
       <c r="B540" s="35"/>
       <c r="C540" s="36"/>
@@ -46923,7 +46942,7 @@
       <c r="H540" s="40"/>
       <c r="I540" s="12"/>
     </row>
-    <row r="541" spans="1:9" ht="15.75">
+    <row r="541" spans="1:9" ht="33.75" customHeight="1">
       <c r="A541" s="35"/>
       <c r="B541" s="35"/>
       <c r="C541" s="36"/>
@@ -46934,7 +46953,7 @@
       <c r="H541" s="40"/>
       <c r="I541" s="12"/>
     </row>
-    <row r="542" spans="1:9" ht="15.75">
+    <row r="542" spans="1:9" ht="33.75" customHeight="1">
       <c r="A542" s="35"/>
       <c r="B542" s="35"/>
       <c r="C542" s="36"/>
@@ -46945,7 +46964,7 @@
       <c r="H542" s="40"/>
       <c r="I542" s="12"/>
     </row>
-    <row r="543" spans="1:9" ht="15.75">
+    <row r="543" spans="1:9" ht="33.75" customHeight="1">
       <c r="A543" s="35"/>
       <c r="B543" s="35"/>
       <c r="C543" s="36"/>
@@ -46956,7 +46975,7 @@
       <c r="H543" s="40"/>
       <c r="I543" s="12"/>
     </row>
-    <row r="544" spans="1:9" ht="15.75">
+    <row r="544" spans="1:9" ht="33.75" customHeight="1">
       <c r="A544" s="35"/>
       <c r="B544" s="35"/>
       <c r="C544" s="36"/>
@@ -46967,7 +46986,7 @@
       <c r="H544" s="40"/>
       <c r="I544" s="12"/>
     </row>
-    <row r="545" spans="1:9" ht="15.75">
+    <row r="545" spans="1:9" ht="33.75" customHeight="1">
       <c r="A545" s="35"/>
       <c r="B545" s="35"/>
       <c r="C545" s="36"/>
@@ -46978,7 +46997,7 @@
       <c r="H545" s="40"/>
       <c r="I545" s="12"/>
     </row>
-    <row r="546" spans="1:9" ht="15.75">
+    <row r="546" spans="1:9" ht="33.75" customHeight="1">
       <c r="A546" s="35"/>
       <c r="B546" s="35"/>
       <c r="C546" s="36"/>
@@ -46989,7 +47008,7 @@
       <c r="H546" s="40"/>
       <c r="I546" s="12"/>
     </row>
-    <row r="547" spans="1:9" ht="15.75">
+    <row r="547" spans="1:9" ht="33.75" customHeight="1">
       <c r="A547" s="35"/>
       <c r="B547" s="35"/>
       <c r="C547" s="36"/>
@@ -47000,7 +47019,7 @@
       <c r="H547" s="40"/>
       <c r="I547" s="12"/>
     </row>
-    <row r="548" spans="1:9" ht="15.75">
+    <row r="548" spans="1:9" ht="33.75" customHeight="1">
       <c r="A548" s="35"/>
       <c r="B548" s="35"/>
       <c r="C548" s="36"/>
@@ -47011,7 +47030,7 @@
       <c r="H548" s="40"/>
       <c r="I548" s="12"/>
     </row>
-    <row r="549" spans="1:9" ht="15.75">
+    <row r="549" spans="1:9" ht="33.75" customHeight="1">
       <c r="A549" s="35"/>
       <c r="B549" s="35"/>
       <c r="C549" s="36"/>
@@ -47022,7 +47041,7 @@
       <c r="H549" s="40"/>
       <c r="I549" s="12"/>
     </row>
-    <row r="550" spans="1:9" ht="15.75">
+    <row r="550" spans="1:9" ht="33.75" customHeight="1">
       <c r="A550" s="35"/>
       <c r="B550" s="35"/>
       <c r="C550" s="36"/>
@@ -47033,7 +47052,7 @@
       <c r="H550" s="40"/>
       <c r="I550" s="12"/>
     </row>
-    <row r="551" spans="1:9" ht="15.75">
+    <row r="551" spans="1:9" ht="33.75" customHeight="1">
       <c r="A551" s="35"/>
       <c r="B551" s="35"/>
       <c r="C551" s="36"/>
@@ -47044,7 +47063,7 @@
       <c r="H551" s="40"/>
       <c r="I551" s="12"/>
     </row>
-    <row r="552" spans="1:9" ht="15.75">
+    <row r="552" spans="1:9" ht="33.75" customHeight="1">
       <c r="A552" s="35"/>
       <c r="B552" s="35"/>
       <c r="C552" s="36"/>
@@ -47055,7 +47074,7 @@
       <c r="H552" s="40"/>
       <c r="I552" s="12"/>
     </row>
-    <row r="553" spans="1:9" ht="15.75">
+    <row r="553" spans="1:9" ht="33.75" customHeight="1">
       <c r="A553" s="35"/>
       <c r="B553" s="35"/>
       <c r="C553" s="36"/>
@@ -47066,7 +47085,7 @@
       <c r="H553" s="40"/>
       <c r="I553" s="12"/>
     </row>
-    <row r="554" spans="1:9" ht="15.75">
+    <row r="554" spans="1:9" ht="33.75" customHeight="1">
       <c r="A554" s="35"/>
       <c r="B554" s="35"/>
       <c r="C554" s="36"/>
@@ -47077,7 +47096,7 @@
       <c r="H554" s="40"/>
       <c r="I554" s="12"/>
     </row>
-    <row r="555" spans="1:9" ht="15.75">
+    <row r="555" spans="1:9" ht="33.75" customHeight="1">
       <c r="A555" s="35"/>
       <c r="B555" s="35"/>
       <c r="C555" s="36"/>
@@ -47088,7 +47107,7 @@
       <c r="H555" s="40"/>
       <c r="I555" s="12"/>
     </row>
-    <row r="556" spans="1:9" ht="15.75">
+    <row r="556" spans="1:9" ht="33.75" customHeight="1">
       <c r="A556" s="35"/>
       <c r="B556" s="35"/>
       <c r="C556" s="36"/>
@@ -47099,7 +47118,7 @@
       <c r="H556" s="40"/>
       <c r="I556" s="12"/>
     </row>
-    <row r="557" spans="1:9" ht="15.75">
+    <row r="557" spans="1:9" ht="33.75" customHeight="1">
       <c r="A557" s="35"/>
       <c r="B557" s="35"/>
       <c r="C557" s="36"/>
@@ -47110,7 +47129,7 @@
       <c r="H557" s="40"/>
       <c r="I557" s="12"/>
     </row>
-    <row r="558" spans="1:9" ht="15.75">
+    <row r="558" spans="1:9" ht="33.75" customHeight="1">
       <c r="A558" s="35"/>
       <c r="B558" s="35"/>
       <c r="C558" s="36"/>
@@ -47121,7 +47140,7 @@
       <c r="H558" s="40"/>
       <c r="I558" s="12"/>
     </row>
-    <row r="559" spans="1:9" ht="15.75">
+    <row r="559" spans="1:9" ht="33.75" customHeight="1">
       <c r="A559" s="35"/>
       <c r="B559" s="35"/>
       <c r="C559" s="36"/>
@@ -47132,7 +47151,7 @@
       <c r="H559" s="40"/>
       <c r="I559" s="12"/>
     </row>
-    <row r="560" spans="1:9" ht="15.75">
+    <row r="560" spans="1:9" ht="33.75" customHeight="1">
       <c r="A560" s="35"/>
       <c r="B560" s="35"/>
       <c r="C560" s="36"/>
@@ -47143,7 +47162,7 @@
       <c r="H560" s="40"/>
       <c r="I560" s="12"/>
     </row>
-    <row r="561" spans="1:9" ht="15.75">
+    <row r="561" spans="1:9" ht="33.75" customHeight="1">
       <c r="A561" s="35"/>
       <c r="B561" s="35"/>
       <c r="C561" s="36"/>
@@ -47154,7 +47173,7 @@
       <c r="H561" s="40"/>
       <c r="I561" s="12"/>
     </row>
-    <row r="562" spans="1:9" ht="15.75">
+    <row r="562" spans="1:9" ht="33.75" customHeight="1">
       <c r="A562" s="35"/>
       <c r="B562" s="35"/>
       <c r="C562" s="36"/>
@@ -47165,7 +47184,7 @@
       <c r="H562" s="40"/>
       <c r="I562" s="12"/>
     </row>
-    <row r="563" spans="1:9" ht="15.75">
+    <row r="563" spans="1:9" ht="33.75" customHeight="1">
       <c r="A563" s="35"/>
       <c r="B563" s="35"/>
       <c r="C563" s="36"/>
@@ -47176,7 +47195,7 @@
       <c r="H563" s="40"/>
       <c r="I563" s="12"/>
     </row>
-    <row r="564" spans="1:9" ht="15.75">
+    <row r="564" spans="1:9" ht="33.75" customHeight="1">
       <c r="A564" s="35"/>
       <c r="B564" s="35"/>
       <c r="C564" s="36"/>
@@ -47187,7 +47206,7 @@
       <c r="H564" s="40"/>
       <c r="I564" s="12"/>
     </row>
-    <row r="565" spans="1:9" ht="15.75">
+    <row r="565" spans="1:9" ht="33.75" customHeight="1">
       <c r="A565" s="35"/>
       <c r="B565" s="35"/>
       <c r="C565" s="36"/>
@@ -47198,7 +47217,7 @@
       <c r="H565" s="40"/>
       <c r="I565" s="12"/>
     </row>
-    <row r="566" spans="1:9" ht="15.75">
+    <row r="566" spans="1:9" ht="33.75" customHeight="1">
       <c r="A566" s="35"/>
       <c r="B566" s="35"/>
       <c r="C566" s="36"/>
@@ -47209,7 +47228,7 @@
       <c r="H566" s="40"/>
       <c r="I566" s="12"/>
     </row>
-    <row r="567" spans="1:9" ht="15.75">
+    <row r="567" spans="1:9" ht="33.75" customHeight="1">
       <c r="A567" s="35"/>
       <c r="B567" s="35"/>
       <c r="C567" s="36"/>
@@ -47220,7 +47239,7 @@
       <c r="H567" s="40"/>
       <c r="I567" s="12"/>
     </row>
-    <row r="568" spans="1:9" ht="15.75">
+    <row r="568" spans="1:9" ht="33.75" customHeight="1">
       <c r="A568" s="35"/>
       <c r="B568" s="35"/>
       <c r="C568" s="36"/>
@@ -47231,7 +47250,7 @@
       <c r="H568" s="40"/>
       <c r="I568" s="12"/>
     </row>
-    <row r="569" spans="1:9" ht="15.75">
+    <row r="569" spans="1:9" ht="33.75" customHeight="1">
       <c r="A569" s="35"/>
       <c r="B569" s="35"/>
       <c r="C569" s="36"/>
@@ -47242,7 +47261,7 @@
       <c r="H569" s="40"/>
       <c r="I569" s="12"/>
     </row>
-    <row r="570" spans="1:9" ht="15.75">
+    <row r="570" spans="1:9" ht="33.75" customHeight="1">
       <c r="A570" s="35"/>
       <c r="B570" s="35"/>
       <c r="C570" s="36"/>
@@ -47253,7 +47272,7 @@
       <c r="H570" s="40"/>
       <c r="I570" s="12"/>
     </row>
-    <row r="571" spans="1:9" ht="15.75">
+    <row r="571" spans="1:9" ht="33.75" customHeight="1">
       <c r="A571" s="35"/>
       <c r="B571" s="35"/>
       <c r="C571" s="36"/>
@@ -47264,7 +47283,7 @@
       <c r="H571" s="40"/>
       <c r="I571" s="12"/>
     </row>
-    <row r="572" spans="1:9" ht="15.75">
+    <row r="572" spans="1:9" ht="33.75" customHeight="1">
       <c r="A572" s="35"/>
       <c r="B572" s="35"/>
       <c r="C572" s="36"/>
@@ -47275,7 +47294,7 @@
       <c r="H572" s="40"/>
       <c r="I572" s="12"/>
     </row>
-    <row r="573" spans="1:9" ht="15.75">
+    <row r="573" spans="1:9" ht="33.75" customHeight="1">
       <c r="A573" s="35"/>
       <c r="B573" s="35"/>
       <c r="C573" s="36"/>
@@ -47286,7 +47305,7 @@
       <c r="H573" s="40"/>
       <c r="I573" s="12"/>
     </row>
-    <row r="574" spans="1:9" ht="15.75">
+    <row r="574" spans="1:9" ht="33.75" customHeight="1">
       <c r="A574" s="35"/>
       <c r="B574" s="35"/>
       <c r="C574" s="36"/>
@@ -47297,7 +47316,7 @@
       <c r="H574" s="40"/>
       <c r="I574" s="12"/>
     </row>
-    <row r="575" spans="1:9" ht="15.75">
+    <row r="575" spans="1:9" ht="33.75" customHeight="1">
       <c r="A575" s="35"/>
       <c r="B575" s="35"/>
       <c r="C575" s="36"/>
@@ -47308,7 +47327,7 @@
       <c r="H575" s="40"/>
       <c r="I575" s="12"/>
     </row>
-    <row r="576" spans="1:9" ht="15.75">
+    <row r="576" spans="1:9" ht="33.75" customHeight="1">
       <c r="A576" s="35"/>
       <c r="B576" s="35"/>
       <c r="C576" s="36"/>
@@ -47319,7 +47338,7 @@
       <c r="H576" s="40"/>
       <c r="I576" s="12"/>
     </row>
-    <row r="577" spans="1:9" ht="15.75">
+    <row r="577" spans="1:9" ht="33.75" customHeight="1">
       <c r="A577" s="35"/>
       <c r="B577" s="35"/>
       <c r="C577" s="36"/>
@@ -47330,7 +47349,7 @@
       <c r="H577" s="40"/>
       <c r="I577" s="12"/>
     </row>
-    <row r="578" spans="1:9" ht="15.75">
+    <row r="578" spans="1:9" ht="33.75" customHeight="1">
       <c r="A578" s="35"/>
       <c r="B578" s="35"/>
       <c r="C578" s="36"/>
@@ -47341,7 +47360,7 @@
       <c r="H578" s="40"/>
       <c r="I578" s="12"/>
     </row>
-    <row r="579" spans="1:9" ht="15.75">
+    <row r="579" spans="1:9" ht="33.75" customHeight="1">
       <c r="A579" s="35"/>
       <c r="B579" s="35"/>
       <c r="C579" s="36"/>
@@ -47352,7 +47371,7 @@
       <c r="H579" s="40"/>
       <c r="I579" s="12"/>
     </row>
-    <row r="580" spans="1:9" ht="15.75">
+    <row r="580" spans="1:9" ht="33.75" customHeight="1">
       <c r="A580" s="35"/>
       <c r="B580" s="35"/>
       <c r="C580" s="36"/>
@@ -47363,7 +47382,7 @@
       <c r="H580" s="40"/>
       <c r="I580" s="12"/>
     </row>
-    <row r="581" spans="1:9" ht="15.75">
+    <row r="581" spans="1:9" ht="33.75" customHeight="1">
       <c r="A581" s="35"/>
       <c r="B581" s="35"/>
       <c r="C581" s="36"/>
@@ -47374,7 +47393,7 @@
       <c r="H581" s="40"/>
       <c r="I581" s="12"/>
     </row>
-    <row r="582" spans="1:9" ht="15.75">
+    <row r="582" spans="1:9" ht="33.75" customHeight="1">
       <c r="A582" s="35"/>
       <c r="B582" s="35"/>
       <c r="C582" s="36"/>
@@ -47385,7 +47404,7 @@
       <c r="H582" s="40"/>
       <c r="I582" s="12"/>
     </row>
-    <row r="583" spans="1:9" ht="15.75">
+    <row r="583" spans="1:9" ht="33.75" customHeight="1">
       <c r="A583" s="35"/>
       <c r="B583" s="35"/>
       <c r="C583" s="36"/>
@@ -47396,7 +47415,7 @@
       <c r="H583" s="40"/>
       <c r="I583" s="12"/>
     </row>
-    <row r="584" spans="1:9" ht="15.75">
+    <row r="584" spans="1:9" ht="33.75" customHeight="1">
       <c r="A584" s="35"/>
       <c r="B584" s="35"/>
       <c r="C584" s="36"/>
@@ -47407,7 +47426,7 @@
       <c r="H584" s="40"/>
       <c r="I584" s="12"/>
     </row>
-    <row r="585" spans="1:9" ht="15.75">
+    <row r="585" spans="1:9" ht="33.75" customHeight="1">
       <c r="A585" s="35"/>
       <c r="B585" s="35"/>
       <c r="C585" s="36"/>
@@ -47418,7 +47437,7 @@
       <c r="H585" s="40"/>
       <c r="I585" s="12"/>
     </row>
-    <row r="586" spans="1:9" ht="15.75">
+    <row r="586" spans="1:9" ht="33.75" customHeight="1">
       <c r="A586" s="35"/>
       <c r="B586" s="35"/>
       <c r="C586" s="36"/>
@@ -47429,7 +47448,7 @@
       <c r="H586" s="40"/>
       <c r="I586" s="12"/>
     </row>
-    <row r="587" spans="1:9" ht="15.75">
+    <row r="587" spans="1:9" ht="33.75" customHeight="1">
       <c r="A587" s="35"/>
       <c r="B587" s="35"/>
       <c r="C587" s="36"/>
@@ -47440,7 +47459,7 @@
       <c r="H587" s="40"/>
       <c r="I587" s="12"/>
     </row>
-    <row r="588" spans="1:9" ht="15.75">
+    <row r="588" spans="1:9" ht="33.75" customHeight="1">
       <c r="A588" s="35"/>
       <c r="B588" s="35"/>
       <c r="C588" s="36"/>
@@ -47451,7 +47470,7 @@
       <c r="H588" s="40"/>
       <c r="I588" s="12"/>
     </row>
-    <row r="589" spans="1:9" ht="15.75">
+    <row r="589" spans="1:9" ht="33.75" customHeight="1">
       <c r="A589" s="35"/>
       <c r="B589" s="35"/>
       <c r="C589" s="36"/>
@@ -47462,7 +47481,7 @@
       <c r="H589" s="40"/>
       <c r="I589" s="12"/>
     </row>
-    <row r="590" spans="1:9" ht="15.75">
+    <row r="590" spans="1:9" ht="33.75" customHeight="1">
       <c r="A590" s="35"/>
       <c r="B590" s="35"/>
       <c r="C590" s="36"/>
@@ -47473,7 +47492,7 @@
       <c r="H590" s="40"/>
       <c r="I590" s="12"/>
     </row>
-    <row r="591" spans="1:9" ht="15.75">
+    <row r="591" spans="1:9" ht="33.75" customHeight="1">
       <c r="A591" s="35"/>
       <c r="B591" s="35"/>
       <c r="C591" s="36"/>
@@ -47484,7 +47503,7 @@
       <c r="H591" s="40"/>
       <c r="I591" s="12"/>
     </row>
-    <row r="592" spans="1:9" ht="15.75">
+    <row r="592" spans="1:9" ht="33.75" customHeight="1">
       <c r="A592" s="35"/>
       <c r="B592" s="35"/>
       <c r="C592" s="36"/>
@@ -47495,7 +47514,7 @@
       <c r="H592" s="40"/>
       <c r="I592" s="12"/>
     </row>
-    <row r="593" spans="1:9" ht="15.75">
+    <row r="593" spans="1:9" ht="33.75" customHeight="1">
       <c r="A593" s="35"/>
       <c r="B593" s="35"/>
       <c r="C593" s="36"/>
@@ -47506,7 +47525,7 @@
       <c r="H593" s="40"/>
       <c r="I593" s="12"/>
     </row>
-    <row r="594" spans="1:9" ht="15.75">
+    <row r="594" spans="1:9" ht="33.75" customHeight="1">
       <c r="A594" s="35"/>
       <c r="B594" s="35"/>
       <c r="C594" s="36"/>
@@ -47517,7 +47536,7 @@
       <c r="H594" s="40"/>
       <c r="I594" s="12"/>
     </row>
-    <row r="595" spans="1:9" ht="15.75">
+    <row r="595" spans="1:9" ht="33.75" customHeight="1">
       <c r="A595" s="35"/>
       <c r="B595" s="35"/>
       <c r="C595" s="36"/>
@@ -47528,7 +47547,7 @@
       <c r="H595" s="40"/>
       <c r="I595" s="12"/>
     </row>
-    <row r="596" spans="1:9" ht="15.75">
+    <row r="596" spans="1:9" ht="33.75" customHeight="1">
       <c r="A596" s="35"/>
       <c r="B596" s="35"/>
       <c r="C596" s="36"/>
@@ -47539,7 +47558,7 @@
       <c r="H596" s="40"/>
       <c r="I596" s="12"/>
     </row>
-    <row r="597" spans="1:9" ht="15.75">
+    <row r="597" spans="1:9" ht="33.75" customHeight="1">
       <c r="A597" s="35"/>
       <c r="B597" s="35"/>
       <c r="C597" s="36"/>
@@ -47550,7 +47569,7 @@
       <c r="H597" s="40"/>
       <c r="I597" s="12"/>
     </row>
-    <row r="598" spans="1:9" ht="15.75">
+    <row r="598" spans="1:9" ht="33.75" customHeight="1">
       <c r="A598" s="35"/>
       <c r="B598" s="35"/>
       <c r="C598" s="36"/>
@@ -47561,7 +47580,7 @@
       <c r="H598" s="40"/>
       <c r="I598" s="12"/>
     </row>
-    <row r="599" spans="1:9" ht="15.75">
+    <row r="599" spans="1:9" ht="33.75" customHeight="1">
       <c r="A599" s="35"/>
       <c r="B599" s="35"/>
       <c r="C599" s="36"/>
@@ -47572,7 +47591,7 @@
       <c r="H599" s="40"/>
       <c r="I599" s="12"/>
     </row>
-    <row r="600" spans="1:9" ht="15.75">
+    <row r="600" spans="1:9" ht="33.75" customHeight="1">
       <c r="A600" s="35"/>
       <c r="B600" s="35"/>
       <c r="C600" s="36"/>
@@ -47583,7 +47602,7 @@
       <c r="H600" s="40"/>
       <c r="I600" s="12"/>
     </row>
-    <row r="601" spans="1:9" ht="15.75">
+    <row r="601" spans="1:9" ht="33.75" customHeight="1">
       <c r="A601" s="35"/>
       <c r="B601" s="35"/>
       <c r="C601" s="36"/>
@@ -47594,7 +47613,7 @@
       <c r="H601" s="40"/>
       <c r="I601" s="12"/>
     </row>
-    <row r="602" spans="1:9" ht="15.75">
+    <row r="602" spans="1:9" ht="33.75" customHeight="1">
       <c r="A602" s="35"/>
       <c r="B602" s="35"/>
       <c r="C602" s="36"/>
@@ -47605,7 +47624,7 @@
       <c r="H602" s="40"/>
       <c r="I602" s="12"/>
     </row>
-    <row r="603" spans="1:9" ht="15.75">
+    <row r="603" spans="1:9" ht="33.75" customHeight="1">
       <c r="A603" s="35"/>
       <c r="B603" s="35"/>
       <c r="C603" s="36"/>
@@ -47616,7 +47635,7 @@
       <c r="H603" s="40"/>
       <c r="I603" s="12"/>
     </row>
-    <row r="604" spans="1:9" ht="15.75">
+    <row r="604" spans="1:9" ht="33.75" customHeight="1">
       <c r="A604" s="35"/>
       <c r="B604" s="35"/>
       <c r="C604" s="36"/>
@@ -47627,7 +47646,7 @@
       <c r="H604" s="40"/>
       <c r="I604" s="12"/>
     </row>
-    <row r="605" spans="1:9" ht="15.75">
+    <row r="605" spans="1:9" ht="33.75" customHeight="1">
       <c r="A605" s="35"/>
       <c r="B605" s="35"/>
       <c r="C605" s="36"/>
@@ -47638,7 +47657,7 @@
       <c r="H605" s="40"/>
       <c r="I605" s="12"/>
     </row>
-    <row r="606" spans="1:9" ht="15.75">
+    <row r="606" spans="1:9" ht="33.75" customHeight="1">
       <c r="A606" s="35"/>
       <c r="B606" s="35"/>
       <c r="C606" s="36"/>
@@ -47649,7 +47668,7 @@
       <c r="H606" s="40"/>
       <c r="I606" s="12"/>
     </row>
-    <row r="607" spans="1:9" ht="15.75">
+    <row r="607" spans="1:9" ht="33.75" customHeight="1">
       <c r="A607" s="35"/>
       <c r="B607" s="35"/>
       <c r="C607" s="36"/>
@@ -47660,7 +47679,7 @@
       <c r="H607" s="40"/>
       <c r="I607" s="12"/>
     </row>
-    <row r="608" spans="1:9" ht="15.75">
+    <row r="608" spans="1:9" ht="33.75" customHeight="1">
       <c r="A608" s="35"/>
       <c r="B608" s="35"/>
       <c r="C608" s="36"/>
@@ -47671,7 +47690,7 @@
       <c r="H608" s="40"/>
       <c r="I608" s="12"/>
     </row>
-    <row r="609" spans="1:9" ht="15.75">
+    <row r="609" spans="1:9" ht="33.75" customHeight="1">
       <c r="A609" s="35"/>
       <c r="B609" s="35"/>
       <c r="C609" s="36"/>
@@ -47682,7 +47701,7 @@
       <c r="H609" s="40"/>
       <c r="I609" s="12"/>
     </row>
-    <row r="610" spans="1:9" ht="15.75">
+    <row r="610" spans="1:9" ht="33.75" customHeight="1">
       <c r="A610" s="35"/>
       <c r="B610" s="35"/>
       <c r="C610" s="36"/>
@@ -47693,7 +47712,7 @@
       <c r="H610" s="40"/>
       <c r="I610" s="12"/>
     </row>
-    <row r="611" spans="1:9" ht="15.75">
+    <row r="611" spans="1:9" ht="33.75" customHeight="1">
       <c r="A611" s="35"/>
       <c r="B611" s="35"/>
       <c r="C611" s="36"/>
@@ -47704,7 +47723,7 @@
       <c r="H611" s="40"/>
       <c r="I611" s="12"/>
     </row>
-    <row r="612" spans="1:9" ht="15.75">
+    <row r="612" spans="1:9" ht="33.75" customHeight="1">
       <c r="A612" s="35"/>
       <c r="B612" s="35"/>
       <c r="C612" s="36"/>
@@ -47715,7 +47734,7 @@
       <c r="H612" s="40"/>
       <c r="I612" s="12"/>
     </row>
-    <row r="613" spans="1:9" ht="15.75">
+    <row r="613" spans="1:9" ht="33.75" customHeight="1">
       <c r="A613" s="35"/>
       <c r="B613" s="35"/>
       <c r="C613" s="36"/>
@@ -47726,7 +47745,7 @@
       <c r="H613" s="40"/>
       <c r="I613" s="12"/>
     </row>
-    <row r="614" spans="1:9" ht="15.75">
+    <row r="614" spans="1:9" ht="33.75" customHeight="1">
       <c r="A614" s="35"/>
       <c r="B614" s="35"/>
       <c r="C614" s="36"/>
@@ -47737,7 +47756,7 @@
       <c r="H614" s="40"/>
       <c r="I614" s="12"/>
     </row>
-    <row r="615" spans="1:9" ht="15.75">
+    <row r="615" spans="1:9" ht="33.75" customHeight="1">
       <c r="A615" s="35"/>
       <c r="B615" s="35"/>
       <c r="C615" s="36"/>
@@ -47748,7 +47767,7 @@
       <c r="H615" s="40"/>
       <c r="I615" s="12"/>
     </row>
-    <row r="616" spans="1:9" ht="15.75">
+    <row r="616" spans="1:9" ht="33.75" customHeight="1">
       <c r="A616" s="35"/>
       <c r="B616" s="35"/>
       <c r="C616" s="36"/>
@@ -47759,7 +47778,7 @@
       <c r="H616" s="40"/>
       <c r="I616" s="12"/>
     </row>
-    <row r="617" spans="1:9" ht="15.75">
+    <row r="617" spans="1:9" ht="33.75" customHeight="1">
       <c r="A617" s="35"/>
       <c r="B617" s="35"/>
       <c r="C617" s="36"/>
@@ -47770,7 +47789,7 @@
       <c r="H617" s="40"/>
       <c r="I617" s="12"/>
     </row>
-    <row r="618" spans="1:9" ht="15.75">
+    <row r="618" spans="1:9" ht="33.75" customHeight="1">
       <c r="A618" s="35"/>
       <c r="B618" s="35"/>
       <c r="C618" s="36"/>
@@ -47781,7 +47800,7 @@
       <c r="H618" s="40"/>
       <c r="I618" s="12"/>
     </row>
-    <row r="619" spans="1:9" ht="15.75">
+    <row r="619" spans="1:9" ht="33.75" customHeight="1">
       <c r="A619" s="35"/>
       <c r="B619" s="35"/>
       <c r="C619" s="36"/>
@@ -47792,7 +47811,7 @@
       <c r="H619" s="40"/>
       <c r="I619" s="12"/>
     </row>
-    <row r="620" spans="1:9" ht="15.75">
+    <row r="620" spans="1:9" ht="33.75" customHeight="1">
       <c r="A620" s="35"/>
       <c r="B620" s="35"/>
       <c r="C620" s="36"/>
@@ -47803,7 +47822,7 @@
       <c r="H620" s="40"/>
       <c r="I620" s="12"/>
     </row>
-    <row r="621" spans="1:9" ht="15.75">
+    <row r="621" spans="1:9" ht="33.75" customHeight="1">
       <c r="A621" s="35"/>
       <c r="B621" s="35"/>
       <c r="C621" s="36"/>
@@ -47814,7 +47833,7 @@
       <c r="H621" s="40"/>
       <c r="I621" s="12"/>
     </row>
-    <row r="622" spans="1:9" ht="15.75">
+    <row r="622" spans="1:9" ht="33.75" customHeight="1">
       <c r="A622" s="35"/>
       <c r="B622" s="35"/>
       <c r="C622" s="36"/>
@@ -47825,7 +47844,7 @@
       <c r="H622" s="40"/>
       <c r="I622" s="12"/>
     </row>
-    <row r="623" spans="1:9" ht="15.75">
+    <row r="623" spans="1:9" ht="33.75" customHeight="1">
       <c r="A623" s="35"/>
       <c r="B623" s="35"/>
       <c r="C623" s="36"/>
@@ -47836,7 +47855,7 @@
       <c r="H623" s="40"/>
       <c r="I623" s="12"/>
     </row>
-    <row r="624" spans="1:9" ht="15.75">
+    <row r="624" spans="1:9" ht="33.75" customHeight="1">
       <c r="A624" s="35"/>
       <c r="B624" s="35"/>
       <c r="C624" s="36"/>
@@ -47847,7 +47866,7 @@
       <c r="H624" s="40"/>
       <c r="I624" s="12"/>
     </row>
-    <row r="625" spans="1:9" ht="15.75">
+    <row r="625" spans="1:9" ht="33.75" customHeight="1">
       <c r="A625" s="35"/>
       <c r="B625" s="35"/>
       <c r="C625" s="36"/>
@@ -47858,7 +47877,7 @@
       <c r="H625" s="40"/>
       <c r="I625" s="12"/>
     </row>
-    <row r="626" spans="1:9" ht="15.75">
+    <row r="626" spans="1:9" ht="33.75" customHeight="1">
       <c r="A626" s="35"/>
       <c r="B626" s="35"/>
       <c r="C626" s="36"/>
@@ -47869,7 +47888,7 @@
       <c r="H626" s="40"/>
       <c r="I626" s="12"/>
     </row>
-    <row r="627" spans="1:9" ht="15.75">
+    <row r="627" spans="1:9" ht="33.75" customHeight="1">
       <c r="A627" s="35"/>
       <c r="B627" s="35"/>
       <c r="C627" s="36"/>
@@ -47880,7 +47899,7 @@
       <c r="H627" s="40"/>
       <c r="I627" s="12"/>
     </row>
-    <row r="628" spans="1:9" ht="15.75">
+    <row r="628" spans="1:9" ht="33.75" customHeight="1">
       <c r="A628" s="35"/>
       <c r="B628" s="35"/>
       <c r="C628" s="36"/>
@@ -47891,7 +47910,7 @@
       <c r="H628" s="40"/>
       <c r="I628" s="12"/>
     </row>
-    <row r="629" spans="1:9" ht="15.75">
+    <row r="629" spans="1:9" ht="33.75" customHeight="1">
       <c r="A629" s="35"/>
       <c r="B629" s="35"/>
       <c r="C629" s="36"/>
@@ -47902,7 +47921,7 @@
       <c r="H629" s="40"/>
       <c r="I629" s="12"/>
     </row>
-    <row r="630" spans="1:9" ht="15.75">
+    <row r="630" spans="1:9" ht="33.75" customHeight="1">
       <c r="A630" s="35"/>
       <c r="B630" s="35"/>
       <c r="C630" s="36"/>
@@ -47913,7 +47932,7 @@
       <c r="H630" s="40"/>
       <c r="I630" s="12"/>
     </row>
-    <row r="631" spans="1:9" ht="15.75">
+    <row r="631" spans="1:9" ht="33.75" customHeight="1">
       <c r="A631" s="35"/>
       <c r="B631" s="35"/>
       <c r="C631" s="36"/>
@@ -47924,7 +47943,7 @@
       <c r="H631" s="40"/>
       <c r="I631" s="12"/>
     </row>
-    <row r="632" spans="1:9" ht="15.75">
+    <row r="632" spans="1:9" ht="33.75" customHeight="1">
       <c r="A632" s="35"/>
       <c r="B632" s="35"/>
       <c r="C632" s="36"/>
@@ -47935,7 +47954,7 @@
       <c r="H632" s="40"/>
       <c r="I632" s="12"/>
     </row>
-    <row r="633" spans="1:9" ht="15.75">
+    <row r="633" spans="1:9" ht="33.75" customHeight="1">
       <c r="A633" s="35"/>
       <c r="B633" s="35"/>
       <c r="C633" s="36"/>
@@ -47946,7 +47965,7 @@
       <c r="H633" s="40"/>
       <c r="I633" s="12"/>
     </row>
-    <row r="634" spans="1:9" ht="15.75">
+    <row r="634" spans="1:9" ht="33.75" customHeight="1">
       <c r="A634" s="35"/>
       <c r="B634" s="35"/>
       <c r="C634" s="36"/>
@@ -47957,7 +47976,7 @@
       <c r="H634" s="40"/>
       <c r="I634" s="12"/>
     </row>
-    <row r="635" spans="1:9" ht="15.75">
+    <row r="635" spans="1:9" ht="33.75" customHeight="1">
       <c r="A635" s="35"/>
       <c r="B635" s="35"/>
       <c r="C635" s="36"/>
@@ -47968,7 +47987,7 @@
       <c r="H635" s="40"/>
       <c r="I635" s="12"/>
     </row>
-    <row r="636" spans="1:9" ht="15.75">
+    <row r="636" spans="1:9" ht="33.75" customHeight="1">
       <c r="A636" s="35"/>
       <c r="B636" s="35"/>
       <c r="C636" s="36"/>
@@ -47979,7 +47998,7 @@
       <c r="H636" s="40"/>
       <c r="I636" s="12"/>
     </row>
-    <row r="637" spans="1:9" ht="15.75">
+    <row r="637" spans="1:9" ht="33.75" customHeight="1">
       <c r="A637" s="35"/>
       <c r="B637" s="35"/>
       <c r="C637" s="36"/>
@@ -47990,7 +48009,7 @@
       <c r="H637" s="40"/>
       <c r="I637" s="12"/>
     </row>
-    <row r="638" spans="1:9" ht="15.75">
+    <row r="638" spans="1:9" ht="33.75" customHeight="1">
       <c r="A638" s="35"/>
       <c r="B638" s="35"/>
       <c r="C638" s="36"/>
@@ -48001,7 +48020,7 @@
       <c r="H638" s="40"/>
       <c r="I638" s="12"/>
     </row>
-    <row r="639" spans="1:9" ht="15.75">
+    <row r="639" spans="1:9" ht="33.75" customHeight="1">
       <c r="A639" s="35"/>
       <c r="B639" s="35"/>
       <c r="C639" s="36"/>
@@ -48012,7 +48031,7 @@
       <c r="H639" s="40"/>
       <c r="I639" s="12"/>
     </row>
-    <row r="640" spans="1:9" ht="15.75">
+    <row r="640" spans="1:9" ht="33.75" customHeight="1">
       <c r="A640" s="35"/>
       <c r="B640" s="35"/>
       <c r="C640" s="36"/>
@@ -48023,7 +48042,7 @@
       <c r="H640" s="40"/>
       <c r="I640" s="12"/>
     </row>
-    <row r="641" spans="1:9" ht="15.75">
+    <row r="641" spans="1:9" ht="33.75" customHeight="1">
       <c r="A641" s="35"/>
       <c r="B641" s="35"/>
       <c r="C641" s="36"/>
@@ -48034,7 +48053,7 @@
       <c r="H641" s="40"/>
       <c r="I641" s="12"/>
     </row>
-    <row r="642" spans="1:9" ht="15.75">
+    <row r="642" spans="1:9" ht="33.75" customHeight="1">
       <c r="A642" s="35"/>
       <c r="B642" s="35"/>
       <c r="C642" s="36"/>
@@ -48045,7 +48064,7 @@
       <c r="H642" s="40"/>
       <c r="I642" s="12"/>
     </row>
-    <row r="643" spans="1:9" ht="15.75">
+    <row r="643" spans="1:9" ht="33.75" customHeight="1">
       <c r="A643" s="35"/>
       <c r="B643" s="35"/>
       <c r="C643" s="36"/>
@@ -48056,7 +48075,7 @@
       <c r="H643" s="40"/>
       <c r="I643" s="12"/>
     </row>
-    <row r="644" spans="1:9" ht="15.75">
+    <row r="644" spans="1:9" ht="33.75" customHeight="1">
       <c r="A644" s="35"/>
       <c r="B644" s="35"/>
       <c r="C644" s="36"/>
@@ -48067,7 +48086,7 @@
       <c r="H644" s="40"/>
       <c r="I644" s="12"/>
     </row>
-    <row r="645" spans="1:9" ht="15.75">
+    <row r="645" spans="1:9" ht="33.75" customHeight="1">
       <c r="A645" s="35"/>
       <c r="B645" s="35"/>
       <c r="C645" s="36"/>
@@ -48078,7 +48097,7 @@
       <c r="H645" s="40"/>
       <c r="I645" s="12"/>
     </row>
-    <row r="646" spans="1:9" ht="15.75">
+    <row r="646" spans="1:9" ht="33.75" customHeight="1">
       <c r="A646" s="35"/>
       <c r="B646" s="35"/>
       <c r="C646" s="36"/>
@@ -48089,7 +48108,7 @@
       <c r="H646" s="40"/>
       <c r="I646" s="12"/>
     </row>
-    <row r="647" spans="1:9" ht="15.75">
+    <row r="647" spans="1:9" ht="33.75" customHeight="1">
       <c r="A647" s="35"/>
       <c r="B647" s="35"/>
       <c r="C647" s="36"/>
@@ -48100,7 +48119,7 @@
       <c r="H647" s="40"/>
       <c r="I647" s="12"/>
     </row>
-    <row r="648" spans="1:9" ht="15.75">
+    <row r="648" spans="1:9" ht="33.75" customHeight="1">
       <c r="A648" s="35"/>
       <c r="B648" s="35"/>
       <c r="C648" s="36"/>
@@ -48111,7 +48130,7 @@
       <c r="H648" s="40"/>
       <c r="I648" s="12"/>
     </row>
-    <row r="649" spans="1:9" ht="15.75">
+    <row r="649" spans="1:9" ht="33.75" customHeight="1">
       <c r="A649" s="35"/>
       <c r="B649" s="35"/>
       <c r="C649" s="36"/>
@@ -48122,7 +48141,7 @@
       <c r="H649" s="40"/>
       <c r="I649" s="12"/>
     </row>
-    <row r="650" spans="1:9" ht="15.75">
+    <row r="650" spans="1:9" ht="33.75" customHeight="1">
       <c r="A650" s="35"/>
       <c r="B650" s="35"/>
       <c r="C650" s="36"/>
@@ -48133,7 +48152,7 @@
       <c r="H650" s="40"/>
       <c r="I650" s="12"/>
     </row>
-    <row r="651" spans="1:9" ht="15.75">
+    <row r="651" spans="1:9" ht="33.75" customHeight="1">
       <c r="A651" s="35"/>
       <c r="B651" s="35"/>
       <c r="C651" s="36"/>
@@ -48144,7 +48163,7 @@
       <c r="H651" s="40"/>
       <c r="I651" s="12"/>
     </row>
-    <row r="652" spans="1:9" ht="15.75">
+    <row r="652" spans="1:9" ht="33.75" customHeight="1">
       <c r="A652" s="35"/>
       <c r="B652" s="35"/>
       <c r="C652" s="36"/>
@@ -48155,7 +48174,7 @@
       <c r="H652" s="40"/>
       <c r="I652" s="12"/>
     </row>
-    <row r="653" spans="1:9" ht="15.75">
+    <row r="653" spans="1:9" ht="33.75" customHeight="1">
       <c r="A653" s="35"/>
       <c r="B653" s="35"/>
       <c r="C653" s="36"/>
@@ -48166,7 +48185,7 @@
       <c r="H653" s="40"/>
       <c r="I653" s="12"/>
     </row>
-    <row r="654" spans="1:9" ht="15.75">
+    <row r="654" spans="1:9" ht="33.75" customHeight="1">
       <c r="A654" s="35"/>
       <c r="B654" s="35"/>
       <c r="C654" s="36"/>
@@ -48177,7 +48196,7 @@
       <c r="H654" s="40"/>
       <c r="I654" s="12"/>
     </row>
-    <row r="655" spans="1:9" ht="15.75">
+    <row r="655" spans="1:9" ht="33.75" customHeight="1">
       <c r="A655" s="35"/>
       <c r="B655" s="35"/>
       <c r="C655" s="36"/>
@@ -48188,7 +48207,7 @@
       <c r="H655" s="40"/>
       <c r="I655" s="12"/>
     </row>
-    <row r="656" spans="1:9" ht="15.75">
+    <row r="656" spans="1:9" ht="33.75" customHeight="1">
       <c r="A656" s="35"/>
       <c r="B656" s="35"/>
       <c r="C656" s="36"/>
@@ -48199,7 +48218,7 @@
       <c r="H656" s="40"/>
       <c r="I656" s="12"/>
     </row>
-    <row r="657" spans="1:9" ht="15.75">
+    <row r="657" spans="1:9" ht="33.75" customHeight="1">
       <c r="A657" s="35"/>
       <c r="B657" s="35"/>
       <c r="C657" s="36"/>
@@ -48210,7 +48229,7 @@
       <c r="H657" s="40"/>
       <c r="I657" s="12"/>
     </row>
-    <row r="658" spans="1:9" ht="15.75">
+    <row r="658" spans="1:9" ht="33.75" customHeight="1">
       <c r="A658" s="35"/>
       <c r="B658" s="35"/>
       <c r="C658" s="36"/>
@@ -48221,7 +48240,7 @@
       <c r="H658" s="40"/>
       <c r="I658" s="12"/>
     </row>
-    <row r="659" spans="1:9" ht="15.75">
+    <row r="659" spans="1:9" ht="33.75" customHeight="1">
       <c r="A659" s="35"/>
       <c r="B659" s="35"/>
       <c r="C659" s="36"/>
@@ -48232,7 +48251,7 @@
       <c r="H659" s="40"/>
       <c r="I659" s="12"/>
     </row>
-    <row r="660" spans="1:9" ht="15.75">
+    <row r="660" spans="1:9" ht="33.75" customHeight="1">
       <c r="A660" s="35"/>
       <c r="B660" s="35"/>
       <c r="C660" s="36"/>
@@ -48243,7 +48262,7 @@
       <c r="H660" s="40"/>
       <c r="I660" s="12"/>
     </row>
-    <row r="661" spans="1:9" ht="15.75">
+    <row r="661" spans="1:9" ht="33.75" customHeight="1">
       <c r="A661" s="35"/>
       <c r="B661" s="35"/>
       <c r="C661" s="36"/>
@@ -48254,7 +48273,7 @@
       <c r="H661" s="40"/>
       <c r="I661" s="12"/>
     </row>
-    <row r="662" spans="1:9" ht="15.75">
+    <row r="662" spans="1:9" ht="33.75" customHeight="1">
       <c r="A662" s="35"/>
       <c r="B662" s="35"/>
       <c r="C662" s="36"/>
@@ -48265,7 +48284,7 @@
       <c r="H662" s="40"/>
       <c r="I662" s="12"/>
     </row>
-    <row r="663" spans="1:9" ht="15.75">
+    <row r="663" spans="1:9" ht="33.75" customHeight="1">
       <c r="A663" s="35"/>
       <c r="B663" s="35"/>
       <c r="C663" s="36"/>
@@ -48276,7 +48295,7 @@
       <c r="H663" s="40"/>
       <c r="I663" s="12"/>
     </row>
-    <row r="664" spans="1:9" ht="15.75">
+    <row r="664" spans="1:9" ht="33.75" customHeight="1">
       <c r="A664" s="35"/>
       <c r="B664" s="35"/>
       <c r="C664" s="36"/>
@@ -48287,7 +48306,7 @@
       <c r="H664" s="40"/>
       <c r="I664" s="12"/>
     </row>
-    <row r="665" spans="1:9" ht="15.75">
+    <row r="665" spans="1:9" ht="33.75" customHeight="1">
       <c r="A665" s="35"/>
       <c r="B665" s="35"/>
       <c r="C665" s="36"/>
@@ -48298,7 +48317,7 @@
       <c r="H665" s="40"/>
       <c r="I665" s="12"/>
     </row>
-    <row r="666" spans="1:9" ht="15.75">
+    <row r="666" spans="1:9" ht="33.75" customHeight="1">
       <c r="A666" s="35"/>
       <c r="B666" s="35"/>
       <c r="C666" s="36"/>
@@ -48309,7 +48328,7 @@
       <c r="H666" s="40"/>
       <c r="I666" s="12"/>
     </row>
-    <row r="667" spans="1:9" ht="15.75">
+    <row r="667" spans="1:9" ht="33.75" customHeight="1">
       <c r="A667" s="35"/>
       <c r="B667" s="35"/>
       <c r="C667" s="36"/>
@@ -48320,7 +48339,7 @@
       <c r="H667" s="40"/>
       <c r="I667" s="12"/>
     </row>
-    <row r="668" spans="1:9" ht="15.75">
+    <row r="668" spans="1:9" ht="33.75" customHeight="1">
       <c r="A668" s="35"/>
       <c r="B668" s="35"/>
       <c r="C668" s="36"/>
@@ -48331,7 +48350,7 @@
       <c r="H668" s="40"/>
       <c r="I668" s="12"/>
     </row>
-    <row r="669" spans="1:9" ht="15.75">
+    <row r="669" spans="1:9" ht="33.75" customHeight="1">
       <c r="A669" s="35"/>
       <c r="B669" s="35"/>
       <c r="C669" s="36"/>
@@ -48342,7 +48361,7 @@
       <c r="H669" s="40"/>
       <c r="I669" s="12"/>
     </row>
-    <row r="670" spans="1:9" ht="15.75">
+    <row r="670" spans="1:9" ht="33.75" customHeight="1">
       <c r="A670" s="35"/>
       <c r="B670" s="35"/>
       <c r="C670" s="36"/>
@@ -48353,7 +48372,7 @@
       <c r="H670" s="40"/>
       <c r="I670" s="12"/>
     </row>
-    <row r="671" spans="1:9" ht="15.75">
+    <row r="671" spans="1:9" ht="33.75" customHeight="1">
       <c r="A671" s="35"/>
       <c r="B671" s="35"/>
       <c r="C671" s="36"/>
@@ -48364,7 +48383,7 @@
       <c r="H671" s="40"/>
       <c r="I671" s="12"/>
     </row>
-    <row r="672" spans="1:9" ht="15.75">
+    <row r="672" spans="1:9" ht="33.75" customHeight="1">
       <c r="A672" s="35"/>
       <c r="B672" s="35"/>
       <c r="C672" s="36"/>
@@ -48375,7 +48394,7 @@
       <c r="H672" s="40"/>
       <c r="I672" s="12"/>
     </row>
-    <row r="673" spans="1:9" ht="15.75">
+    <row r="673" spans="1:9" ht="33.75" customHeight="1">
       <c r="A673" s="35"/>
       <c r="B673" s="35"/>
       <c r="C673" s="36"/>
@@ -48386,7 +48405,7 @@
       <c r="H673" s="40"/>
       <c r="I673" s="12"/>
     </row>
-    <row r="674" spans="1:9" ht="15.75">
+    <row r="674" spans="1:9" ht="33.75" customHeight="1">
       <c r="A674" s="35"/>
       <c r="B674" s="35"/>
       <c r="C674" s="36"/>
@@ -48397,7 +48416,7 @@
       <c r="H674" s="40"/>
       <c r="I674" s="12"/>
     </row>
-    <row r="675" spans="1:9" ht="15.75">
+    <row r="675" spans="1:9" ht="33.75" customHeight="1">
       <c r="A675" s="35"/>
       <c r="B675" s="35"/>
       <c r="C675" s="36"/>
@@ -48408,7 +48427,7 @@
       <c r="H675" s="40"/>
       <c r="I675" s="12"/>
     </row>
-    <row r="676" spans="1:9" ht="15.75">
+    <row r="676" spans="1:9" ht="33.75" customHeight="1">
       <c r="A676" s="35"/>
       <c r="B676" s="35"/>
       <c r="C676" s="36"/>
@@ -48419,7 +48438,7 @@
       <c r="H676" s="40"/>
       <c r="I676" s="12"/>
     </row>
-    <row r="677" spans="1:9" ht="15.75">
+    <row r="677" spans="1:9" ht="33.75" customHeight="1">
       <c r="A677" s="35"/>
       <c r="B677" s="35"/>
       <c r="C677" s="36"/>
@@ -48430,7 +48449,7 @@
       <c r="H677" s="40"/>
       <c r="I677" s="12"/>
     </row>
-    <row r="678" spans="1:9" ht="15.75">
+    <row r="678" spans="1:9" ht="33.75" customHeight="1">
       <c r="A678" s="35"/>
       <c r="B678" s="35"/>
       <c r="C678" s="36"/>
@@ -48441,7 +48460,7 @@
       <c r="H678" s="40"/>
       <c r="I678" s="12"/>
     </row>
-    <row r="679" spans="1:9" ht="15.75">
+    <row r="679" spans="1:9" ht="33.75" customHeight="1">
       <c r="A679" s="35"/>
       <c r="B679" s="35"/>
       <c r="C679" s="36"/>
@@ -48452,7 +48471,7 @@
       <c r="H679" s="40"/>
       <c r="I679" s="12"/>
     </row>
-    <row r="680" spans="1:9" ht="15.75">
+    <row r="680" spans="1:9" ht="33.75" customHeight="1">
       <c r="A680" s="35"/>
       <c r="B680" s="35"/>
       <c r="C680" s="36"/>
@@ -48463,7 +48482,7 @@
       <c r="H680" s="40"/>
       <c r="I680" s="12"/>
     </row>
-    <row r="681" spans="1:9" ht="15.75">
+    <row r="681" spans="1:9" ht="33.75" customHeight="1">
       <c r="A681" s="35"/>
       <c r="B681" s="35"/>
       <c r="C681" s="36"/>
@@ -48474,7 +48493,7 @@
       <c r="H681" s="40"/>
       <c r="I681" s="12"/>
     </row>
-    <row r="682" spans="1:9" ht="15.75">
+    <row r="682" spans="1:9" ht="33.75" customHeight="1">
       <c r="A682" s="35"/>
       <c r="B682" s="35"/>
       <c r="C682" s="36"/>
@@ -48485,7 +48504,7 @@
       <c r="H682" s="40"/>
       <c r="I682" s="12"/>
     </row>
-    <row r="683" spans="1:9" ht="15.75">
+    <row r="683" spans="1:9" ht="33.75" customHeight="1">
       <c r="A683" s="35"/>
       <c r="B683" s="35"/>
       <c r="C683" s="36"/>
@@ -48496,7 +48515,7 @@
       <c r="H683" s="40"/>
       <c r="I683" s="12"/>
     </row>
-    <row r="684" spans="1:9" ht="15.75">
+    <row r="684" spans="1:9" ht="33.75" customHeight="1">
       <c r="A684" s="35"/>
       <c r="B684" s="35"/>
       <c r="C684" s="36"/>
@@ -48507,7 +48526,7 @@
       <c r="H684" s="40"/>
       <c r="I684" s="12"/>
     </row>
-    <row r="685" spans="1:9" ht="15.75">
+    <row r="685" spans="1:9" ht="33.75" customHeight="1">
       <c r="A685" s="35"/>
       <c r="B685" s="35"/>
       <c r="C685" s="36"/>
@@ -48518,7 +48537,7 @@
       <c r="H685" s="40"/>
       <c r="I685" s="12"/>
     </row>
-    <row r="686" spans="1:9" ht="15.75">
+    <row r="686" spans="1:9" ht="33.75" customHeight="1">
       <c r="A686" s="35"/>
       <c r="B686" s="35"/>
       <c r="C686" s="36"/>
@@ -48529,7 +48548,7 @@
       <c r="H686" s="40"/>
       <c r="I686" s="12"/>
     </row>
-    <row r="687" spans="1:9" ht="15.75">
+    <row r="687" spans="1:9" ht="33.75" customHeight="1">
       <c r="A687" s="35"/>
       <c r="B687" s="35"/>
       <c r="C687" s="36"/>
@@ -48540,7 +48559,7 @@
       <c r="H687" s="40"/>
       <c r="I687" s="12"/>
     </row>
-    <row r="688" spans="1:9" ht="15.75">
+    <row r="688" spans="1:9" ht="33.75" customHeight="1">
       <c r="A688" s="35"/>
       <c r="B688" s="35"/>
       <c r="C688" s="36"/>
@@ -48551,7 +48570,7 @@
       <c r="H688" s="40"/>
       <c r="I688" s="12"/>
     </row>
-    <row r="689" spans="1:9" ht="15.75">
+    <row r="689" spans="1:9" ht="33.75" customHeight="1">
       <c r="A689" s="35"/>
       <c r="B689" s="35"/>
       <c r="C689" s="36"/>
@@ -48562,7 +48581,7 @@
       <c r="H689" s="40"/>
       <c r="I689" s="12"/>
     </row>
-    <row r="690" spans="1:9" ht="15.75">
+    <row r="690" spans="1:9" ht="33.75" customHeight="1">
       <c r="A690" s="35"/>
       <c r="B690" s="35"/>
       <c r="C690" s="36"/>
@@ -48573,7 +48592,7 @@
       <c r="H690" s="40"/>
       <c r="I690" s="12"/>
     </row>
-    <row r="691" spans="1:9" ht="15.75">
+    <row r="691" spans="1:9" ht="33.75" customHeight="1">
       <c r="A691" s="35"/>
       <c r="B691" s="35"/>
       <c r="C691" s="36"/>
@@ -48584,7 +48603,7 @@
       <c r="H691" s="40"/>
       <c r="I691" s="12"/>
     </row>
-    <row r="692" spans="1:9" ht="15.75">
+    <row r="692" spans="1:9" ht="33.75" customHeight="1">
       <c r="A692" s="35"/>
       <c r="B692" s="35"/>
       <c r="C692" s="36"/>
@@ -48595,7 +48614,7 @@
       <c r="H692" s="40"/>
       <c r="I692" s="12"/>
     </row>
-    <row r="693" spans="1:9" ht="15.75">
+    <row r="693" spans="1:9" ht="33.75" customHeight="1">
       <c r="A693" s="35"/>
       <c r="B693" s="35"/>
       <c r="C693" s="36"/>
@@ -48606,7 +48625,7 @@
       <c r="H693" s="40"/>
       <c r="I693" s="12"/>
     </row>
-    <row r="694" spans="1:9" ht="15.75">
+    <row r="694" spans="1:9" ht="33.75" customHeight="1">
       <c r="A694" s="35"/>
       <c r="B694" s="35"/>
       <c r="C694" s="36"/>
@@ -48617,7 +48636,7 @@
       <c r="H694" s="40"/>
       <c r="I694" s="12"/>
     </row>
-    <row r="695" spans="1:9" ht="15.75">
+    <row r="695" spans="1:9" ht="33.75" customHeight="1">
       <c r="A695" s="35"/>
       <c r="B695" s="35"/>
       <c r="C695" s="36"/>
@@ -48628,7 +48647,7 @@
       <c r="H695" s="40"/>
       <c r="I695" s="12"/>
     </row>
-    <row r="696" spans="1:9" ht="15.75">
+    <row r="696" spans="1:9" ht="33.75" customHeight="1">
       <c r="A696" s="35"/>
       <c r="B696" s="35"/>
       <c r="C696" s="36"/>
@@ -48639,7 +48658,7 @@
       <c r="H696" s="40"/>
       <c r="I696" s="12"/>
     </row>
-    <row r="697" spans="1:9" ht="15.75">
+    <row r="697" spans="1:9" ht="33.75" customHeight="1">
       <c r="A697" s="35"/>
       <c r="B697" s="35"/>
       <c r="C697" s="36"/>
@@ -48650,7 +48669,7 @@
       <c r="H697" s="40"/>
       <c r="I697" s="12"/>
     </row>
-    <row r="698" spans="1:9" ht="15.75">
+    <row r="698" spans="1:9" ht="33.75" customHeight="1">
       <c r="A698" s="35"/>
       <c r="B698" s="35"/>
       <c r="C698" s="36"/>
@@ -48661,7 +48680,7 @@
       <c r="H698" s="40"/>
       <c r="I698" s="12"/>
     </row>
-    <row r="699" spans="1:9" ht="15.75">
+    <row r="699" spans="1:9" ht="33.75" customHeight="1">
       <c r="A699" s="35"/>
       <c r="B699" s="35"/>
       <c r="C699" s="36"/>
@@ -48672,7 +48691,7 @@
       <c r="H699" s="40"/>
       <c r="I699" s="12"/>
     </row>
-    <row r="700" spans="1:9" ht="15.75">
+    <row r="700" spans="1:9" ht="33.75" customHeight="1">
       <c r="A700" s="35"/>
       <c r="B700" s="35"/>
       <c r="C700" s="36"/>
@@ -48683,7 +48702,7 @@
       <c r="H700" s="40"/>
       <c r="I700" s="12"/>
     </row>
-    <row r="701" spans="1:9" ht="15.75">
+    <row r="701" spans="1:9" ht="33.75" customHeight="1">
       <c r="A701" s="35"/>
       <c r="B701" s="35"/>
       <c r="C701" s="36"/>
@@ -48694,7 +48713,7 @@
       <c r="H701" s="40"/>
       <c r="I701" s="12"/>
     </row>
-    <row r="702" spans="1:9" ht="15.75">
+    <row r="702" spans="1:9" ht="33.75" customHeight="1">
       <c r="A702" s="35"/>
       <c r="B702" s="35"/>
       <c r="C702" s="36"/>
@@ -48705,7 +48724,7 @@
       <c r="H702" s="40"/>
       <c r="I702" s="12"/>
     </row>
-    <row r="703" spans="1:9" ht="15.75">
+    <row r="703" spans="1:9" ht="33.75" customHeight="1">
       <c r="A703" s="35"/>
       <c r="B703" s="35"/>
       <c r="C703" s="36"/>
@@ -48716,7 +48735,7 @@
       <c r="H703" s="40"/>
       <c r="I703" s="12"/>
     </row>
-    <row r="704" spans="1:9" ht="15.75">
+    <row r="704" spans="1:9" ht="33.75" customHeight="1">
       <c r="A704" s="35"/>
       <c r="B704" s="35"/>
       <c r="C704" s="36"/>
@@ -48727,7 +48746,7 @@
       <c r="H704" s="40"/>
       <c r="I704" s="12"/>
     </row>
-    <row r="705" spans="1:9" ht="15.75">
+    <row r="705" spans="1:9" ht="33.75" customHeight="1">
       <c r="A705" s="35"/>
       <c r="B705" s="35"/>
       <c r="C705" s="36"/>
@@ -48738,7 +48757,7 @@
       <c r="H705" s="40"/>
       <c r="I705" s="12"/>
     </row>
-    <row r="706" spans="1:9" ht="15.75">
+    <row r="706" spans="1:9" ht="33.75" customHeight="1">
       <c r="A706" s="35"/>
       <c r="B706" s="35"/>
       <c r="C706" s="36"/>
@@ -48749,7 +48768,7 @@
       <c r="H706" s="40"/>
       <c r="I706" s="12"/>
     </row>
-    <row r="707" spans="1:9" ht="15.75">
+    <row r="707" spans="1:9" ht="33.75" customHeight="1">
       <c r="A707" s="35"/>
       <c r="B707" s="35"/>
       <c r="C707" s="36"/>
@@ -48760,7 +48779,7 @@
       <c r="H707" s="40"/>
       <c r="I707" s="12"/>
     </row>
-    <row r="708" spans="1:9" ht="15.75">
+    <row r="708" spans="1:9" ht="33.75" customHeight="1">
       <c r="A708" s="35"/>
       <c r="B708" s="35"/>
       <c r="C708" s="36"/>
@@ -48771,7 +48790,7 @@
       <c r="H708" s="40"/>
       <c r="I708" s="12"/>
     </row>
-    <row r="709" spans="1:9" ht="15.75">
+    <row r="709" spans="1:9" ht="33.75" customHeight="1">
       <c r="A709" s="35"/>
       <c r="B709" s="35"/>
       <c r="C709" s="36"/>
@@ -48782,7 +48801,7 @@
       <c r="H709" s="40"/>
       <c r="I709" s="12"/>
     </row>
-    <row r="710" spans="1:9" ht="15.75">
+    <row r="710" spans="1:9" ht="33.75" customHeight="1">
       <c r="A710" s="35"/>
       <c r="B710" s="35"/>
       <c r="C710" s="36"/>
@@ -48793,7 +48812,7 @@
       <c r="H710" s="40"/>
       <c r="I710" s="12"/>
     </row>
-    <row r="711" spans="1:9" ht="15.75">
+    <row r="711" spans="1:9" ht="33.75" customHeight="1">
       <c r="A711" s="35"/>
       <c r="B711" s="35"/>
       <c r="C711" s="36"/>
@@ -48804,7 +48823,7 @@
       <c r="H711" s="40"/>
       <c r="I711" s="12"/>
     </row>
-    <row r="712" spans="1:9" ht="15.75">
+    <row r="712" spans="1:9" ht="33.75" customHeight="1">
       <c r="A712" s="35"/>
       <c r="B712" s="35"/>
       <c r="C712" s="36"/>
@@ -48815,7 +48834,7 @@
       <c r="H712" s="40"/>
       <c r="I712" s="12"/>
     </row>
-    <row r="713" spans="1:9" ht="15.75">
+    <row r="713" spans="1:9" ht="33.75" customHeight="1">
       <c r="A713" s="35"/>
       <c r="B713" s="35"/>
       <c r="C713" s="36"/>
@@ -48826,7 +48845,7 @@
       <c r="H713" s="40"/>
       <c r="I713" s="12"/>
     </row>
-    <row r="714" spans="1:9" ht="15.75">
+    <row r="714" spans="1:9" ht="33.75" customHeight="1">
       <c r="A714" s="35"/>
       <c r="B714" s="35"/>
       <c r="C714" s="36"/>
@@ -48837,7 +48856,7 @@
       <c r="H714" s="40"/>
       <c r="I714" s="12"/>
     </row>
-    <row r="715" spans="1:9" ht="15.75">
+    <row r="715" spans="1:9" ht="33.75" customHeight="1">
       <c r="A715" s="35"/>
       <c r="B715" s="35"/>
       <c r="C715" s="36"/>
@@ -48848,7 +48867,7 @@
       <c r="H715" s="40"/>
       <c r="I715" s="12"/>
     </row>
-    <row r="716" spans="1:9" ht="15.75">
+    <row r="716" spans="1:9" ht="33.75" customHeight="1">
       <c r="A716" s="35"/>
       <c r="B716" s="35"/>
       <c r="C716" s="36"/>
@@ -48859,7 +48878,7 @@
       <c r="H716" s="40"/>
       <c r="I716" s="12"/>
     </row>
-    <row r="717" spans="1:9" ht="15.75">
+    <row r="717" spans="1:9" ht="33.75" customHeight="1">
       <c r="A717" s="35"/>
       <c r="B717" s="35"/>
       <c r="C717" s="36"/>
@@ -48870,7 +48889,7 @@
       <c r="H717" s="40"/>
       <c r="I717" s="12"/>
     </row>
-    <row r="718" spans="1:9" ht="15.75">
+    <row r="718" spans="1:9" ht="33.75" customHeight="1">
       <c r="A718" s="35"/>
       <c r="B718" s="35"/>
       <c r="C718" s="36"/>
@@ -48881,7 +48900,7 @@
       <c r="H718" s="40"/>
       <c r="I718" s="12"/>
     </row>
-    <row r="719" spans="1:9" ht="15.75">
+    <row r="719" spans="1:9" ht="33.75" customHeight="1">
       <c r="A719" s="35"/>
       <c r="B719" s="35"/>
       <c r="C719" s="36"/>
@@ -48892,7 +48911,7 @@
       <c r="H719" s="40"/>
       <c r="I719" s="12"/>
     </row>
-    <row r="720" spans="1:9" ht="15.75">
+    <row r="720" spans="1:9" ht="33.75" customHeight="1">
       <c r="A720" s="35"/>
       <c r="B720" s="35"/>
       <c r="C720" s="36"/>
@@ -48903,7 +48922,7 @@
       <c r="H720" s="40"/>
       <c r="I720" s="12"/>
     </row>
-    <row r="721" spans="1:9" ht="15.75">
+    <row r="721" spans="1:9" ht="33.75" customHeight="1">
       <c r="A721" s="35"/>
       <c r="B721" s="35"/>
       <c r="C721" s="36"/>
@@ -48914,7 +48933,7 @@
       <c r="H721" s="40"/>
       <c r="I721" s="12"/>
     </row>
-    <row r="722" spans="1:9" ht="15.75">
+    <row r="722" spans="1:9" ht="33.75" customHeight="1">
       <c r="A722" s="35"/>
       <c r="B722" s="35"/>
       <c r="C722" s="36"/>
@@ -48925,7 +48944,7 @@
       <c r="H722" s="40"/>
       <c r="I722" s="12"/>
     </row>
-    <row r="723" spans="1:9" ht="15.75">
+    <row r="723" spans="1:9" ht="33.75" customHeight="1">
       <c r="A723" s="35"/>
       <c r="B723" s="35"/>
       <c r="C723" s="36"/>
@@ -48936,7 +48955,7 @@
       <c r="H723" s="40"/>
       <c r="I723" s="12"/>
     </row>
-    <row r="724" spans="1:9" ht="15.75">
+    <row r="724" spans="1:9" ht="33.75" customHeight="1">
       <c r="A724" s="35"/>
       <c r="B724" s="35"/>
       <c r="C724" s="36"/>
@@ -48947,7 +48966,7 @@
       <c r="H724" s="40"/>
       <c r="I724" s="12"/>
     </row>
-    <row r="725" spans="1:9" ht="15.75">
+    <row r="725" spans="1:9" ht="33.75" customHeight="1">
       <c r="A725" s="35"/>
       <c r="B725" s="35"/>
       <c r="C725" s="36"/>
@@ -48958,7 +48977,7 @@
       <c r="H725" s="40"/>
       <c r="I725" s="12"/>
     </row>
-    <row r="726" spans="1:9" ht="15.75">
+    <row r="726" spans="1:9" ht="33.75" customHeight="1">
       <c r="A726" s="35"/>
       <c r="B726" s="35"/>
       <c r="C726" s="36"/>
@@ -48969,7 +48988,7 @@
       <c r="H726" s="40"/>
       <c r="I726" s="12"/>
     </row>
-    <row r="727" spans="1:9" ht="15.75">
+    <row r="727" spans="1:9" ht="33.75" customHeight="1">
       <c r="A727" s="35"/>
       <c r="B727" s="35"/>
       <c r="C727" s="36"/>
@@ -48980,7 +48999,7 @@
       <c r="H727" s="40"/>
       <c r="I727" s="12"/>
     </row>
-    <row r="728" spans="1:9" ht="15.75">
+    <row r="728" spans="1:9" ht="33.75" customHeight="1">
       <c r="A728" s="35"/>
       <c r="B728" s="35"/>
       <c r="C728" s="36"/>
@@ -48991,7 +49010,7 @@
       <c r="H728" s="40"/>
       <c r="I728" s="12"/>
     </row>
-    <row r="729" spans="1:9" ht="15.75">
+    <row r="729" spans="1:9" ht="33.75" customHeight="1">
       <c r="A729" s="35"/>
       <c r="B729" s="35"/>
       <c r="C729" s="36"/>
@@ -49002,7 +49021,7 @@
       <c r="H729" s="40"/>
       <c r="I729" s="12"/>
     </row>
-    <row r="730" spans="1:9" ht="15.75">
+    <row r="730" spans="1:9" ht="33.75" customHeight="1">
       <c r="A730" s="35"/>
       <c r="B730" s="35"/>
       <c r="C730" s="36"/>
@@ -49013,7 +49032,7 @@
       <c r="H730" s="40"/>
       <c r="I730" s="12"/>
     </row>
-    <row r="731" spans="1:9" ht="15.75">
+    <row r="731" spans="1:9" ht="33.75" customHeight="1">
       <c r="A731" s="35"/>
       <c r="B731" s="35"/>
       <c r="C731" s="36"/>
@@ -49024,7 +49043,7 @@
       <c r="H731" s="40"/>
       <c r="I731" s="12"/>
     </row>
-    <row r="732" spans="1:9" ht="15.75">
+    <row r="732" spans="1:9" ht="33.75" customHeight="1">
       <c r="A732" s="35"/>
       <c r="B732" s="35"/>
       <c r="C732" s="36"/>
@@ -49035,7 +49054,7 @@
       <c r="H732" s="40"/>
       <c r="I732" s="12"/>
     </row>
-    <row r="733" spans="1:9" ht="15.75">
+    <row r="733" spans="1:9" ht="33.75" customHeight="1">
       <c r="A733" s="35"/>
       <c r="B733" s="35"/>
       <c r="C733" s="36"/>
@@ -49046,7 +49065,7 @@
       <c r="H733" s="40"/>
       <c r="I733" s="12"/>
     </row>
-    <row r="734" spans="1:9" ht="15.75">
+    <row r="734" spans="1:9" ht="33.75" customHeight="1">
       <c r="A734" s="35"/>
       <c r="B734" s="35"/>
       <c r="C734" s="36"/>
@@ -49057,7 +49076,7 @@
       <c r="H734" s="40"/>
       <c r="I734" s="12"/>
     </row>
-    <row r="735" spans="1:9" ht="15.75">
+    <row r="735" spans="1:9" ht="33.75" customHeight="1">
       <c r="A735" s="35"/>
       <c r="B735" s="35"/>
       <c r="C735" s="36"/>
@@ -49068,7 +49087,7 @@
       <c r="H735" s="40"/>
       <c r="I735" s="12"/>
     </row>
-    <row r="736" spans="1:9" ht="15.75">
+    <row r="736" spans="1:9" ht="33.75" customHeight="1">
       <c r="A736" s="35"/>
       <c r="B736" s="35"/>
       <c r="C736" s="36"/>
@@ -49079,7 +49098,7 @@
       <c r="H736" s="40"/>
       <c r="I736" s="12"/>
     </row>
-    <row r="737" spans="1:9" ht="15.75">
+    <row r="737" spans="1:9" ht="33.75" customHeight="1">
       <c r="A737" s="35"/>
       <c r="B737" s="35"/>
       <c r="C737" s="36"/>
@@ -49090,7 +49109,7 @@
       <c r="H737" s="40"/>
       <c r="I737" s="12"/>
     </row>
-    <row r="738" spans="1:9" ht="15.75">
+    <row r="738" spans="1:9" ht="33.75" customHeight="1">
       <c r="A738" s="35"/>
       <c r="B738" s="35"/>
       <c r="C738" s="36"/>
@@ -49101,7 +49120,7 @@
       <c r="H738" s="40"/>
       <c r="I738" s="12"/>
     </row>
-    <row r="739" spans="1:9" ht="15.75">
+    <row r="739" spans="1:9" ht="33.75" customHeight="1">
       <c r="A739" s="35"/>
       <c r="B739" s="35"/>
       <c r="C739" s="36"/>
@@ -49112,7 +49131,7 @@
       <c r="H739" s="40"/>
       <c r="I739" s="12"/>
     </row>
-    <row r="740" spans="1:9" ht="15.75">
+    <row r="740" spans="1:9" ht="33.75" customHeight="1">
       <c r="A740" s="35"/>
       <c r="B740" s="35"/>
       <c r="C740" s="36"/>
@@ -49123,7 +49142,7 @@
       <c r="H740" s="40"/>
       <c r="I740" s="12"/>
     </row>
-    <row r="741" spans="1:9" ht="15.75">
+    <row r="741" spans="1:9" ht="33.75" customHeight="1">
       <c r="A741" s="35"/>
       <c r="B741" s="35"/>
       <c r="C741" s="36"/>
@@ -49134,7 +49153,7 @@
       <c r="H741" s="40"/>
       <c r="I741" s="12"/>
     </row>
-    <row r="742" spans="1:9" ht="15.75">
+    <row r="742" spans="1:9" ht="33.75" customHeight="1">
       <c r="A742" s="35"/>
       <c r="B742" s="35"/>
       <c r="C742" s="36"/>
@@ -49145,7 +49164,7 @@
       <c r="H742" s="40"/>
       <c r="I742" s="12"/>
     </row>
-    <row r="743" spans="1:9" ht="15.75">
+    <row r="743" spans="1:9" ht="33.75" customHeight="1">
       <c r="A743" s="35"/>
       <c r="B743" s="35"/>
       <c r="C743" s="36"/>
@@ -49156,7 +49175,7 @@
       <c r="H743" s="40"/>
       <c r="I743" s="12"/>
     </row>
-    <row r="744" spans="1:9" ht="15.75">
+    <row r="744" spans="1:9" ht="33.75" customHeight="1">
       <c r="A744" s="35"/>
       <c r="B744" s="35"/>
       <c r="C744" s="36"/>
@@ -49167,7 +49186,7 @@
       <c r="H744" s="40"/>
       <c r="I744" s="12"/>
     </row>
-    <row r="745" spans="1:9" ht="15.75">
+    <row r="745" spans="1:9" ht="33.75" customHeight="1">
       <c r="A745" s="35"/>
       <c r="B745" s="35"/>
       <c r="C745" s="36"/>
@@ -49178,7 +49197,7 @@
       <c r="H745" s="40"/>
       <c r="I745" s="12"/>
     </row>
-    <row r="746" spans="1:9" ht="15.75">
+    <row r="746" spans="1:9" ht="33.75" customHeight="1">
       <c r="A746" s="35"/>
       <c r="B746" s="35"/>
       <c r="C746" s="36"/>
@@ -49189,7 +49208,7 @@
       <c r="H746" s="40"/>
       <c r="I746" s="12"/>
     </row>
-    <row r="747" spans="1:9" ht="15.75">
+    <row r="747" spans="1:9" ht="33.75" customHeight="1">
       <c r="A747" s="35"/>
       <c r="B747" s="35"/>
       <c r="C747" s="36"/>
@@ -49200,7 +49219,7 @@
       <c r="H747" s="40"/>
       <c r="I747" s="12"/>
     </row>
-    <row r="748" spans="1:9" ht="15.75">
+    <row r="748" spans="1:9" ht="33.75" customHeight="1">
       <c r="A748" s="35"/>
       <c r="B748" s="35"/>
       <c r="C748" s="36"/>
@@ -49211,7 +49230,7 @@
       <c r="H748" s="40"/>
       <c r="I748" s="12"/>
     </row>
-    <row r="749" spans="1:9" ht="15.75">
+    <row r="749" spans="1:9" ht="33.75" customHeight="1">
       <c r="A749" s="35"/>
       <c r="B749" s="35"/>
       <c r="C749" s="36"/>
@@ -49222,7 +49241,7 @@
       <c r="H749" s="40"/>
       <c r="I749" s="12"/>
     </row>
-    <row r="750" spans="1:9" ht="15.75">
+    <row r="750" spans="1:9" ht="33.75" customHeight="1">
       <c r="A750" s="35"/>
       <c r="B750" s="35"/>
       <c r="C750" s="36"/>
@@ -49233,7 +49252,7 @@
       <c r="H750" s="40"/>
       <c r="I750" s="12"/>
     </row>
-    <row r="751" spans="1:9" ht="15.75">
+    <row r="751" spans="1:9" ht="33.75" customHeight="1">
       <c r="A751" s="35"/>
       <c r="B751" s="35"/>
       <c r="C751" s="36"/>
@@ -49244,7 +49263,7 @@
       <c r="H751" s="40"/>
       <c r="I751" s="12"/>
     </row>
-    <row r="752" spans="1:9" ht="15.75">
+    <row r="752" spans="1:9" ht="33.75" customHeight="1">
       <c r="A752" s="35"/>
       <c r="B752" s="35"/>
       <c r="C752" s="36"/>
@@ -49255,7 +49274,7 @@
       <c r="H752" s="40"/>
       <c r="I752" s="12"/>
     </row>
-    <row r="753" spans="1:9" ht="15.75">
+    <row r="753" spans="1:9" ht="33.75" customHeight="1">
       <c r="A753" s="35"/>
       <c r="B753" s="35"/>
       <c r="C753" s="36"/>
@@ -49266,7 +49285,7 @@
       <c r="H753" s="40"/>
       <c r="I753" s="12"/>
     </row>
-    <row r="754" spans="1:9" ht="15.75">
+    <row r="754" spans="1:9" ht="33.75" customHeight="1">
       <c r="A754" s="35"/>
       <c r="B754" s="35"/>
       <c r="C754" s="36"/>
@@ -49277,7 +49296,7 @@
       <c r="H754" s="40"/>
       <c r="I754" s="12"/>
     </row>
-    <row r="755" spans="1:9" ht="15.75">
+    <row r="755" spans="1:9" ht="33.75" customHeight="1">
       <c r="A755" s="35"/>
       <c r="B755" s="35"/>
       <c r="C755" s="36"/>
@@ -49288,7 +49307,7 @@
       <c r="H755" s="40"/>
       <c r="I755" s="12"/>
     </row>
-    <row r="756" spans="1:9" ht="15.75">
+    <row r="756" spans="1:9" ht="33.75" customHeight="1">
       <c r="A756" s="35"/>
       <c r="B756" s="35"/>
       <c r="C756" s="36"/>
@@ -49299,7 +49318,7 @@
       <c r="H756" s="40"/>
       <c r="I756" s="12"/>
     </row>
-    <row r="757" spans="1:9" ht="15.75">
+    <row r="757" spans="1:9" ht="33.75" customHeight="1">
       <c r="A757" s="35"/>
       <c r="B757" s="35"/>
       <c r="C757" s="36"/>
@@ -49310,7 +49329,7 @@
       <c r="H757" s="40"/>
       <c r="I757" s="12"/>
     </row>
-    <row r="758" spans="1:9" ht="15.75">
+    <row r="758" spans="1:9" ht="33.75" customHeight="1">
       <c r="A758" s="35"/>
       <c r="B758" s="35"/>
       <c r="C758" s="36"/>
@@ -49321,7 +49340,7 @@
       <c r="H758" s="40"/>
       <c r="I758" s="12"/>
     </row>
-    <row r="759" spans="1:9" ht="15.75">
+    <row r="759" spans="1:9" ht="33.75" customHeight="1">
       <c r="A759" s="35"/>
       <c r="B759" s="35"/>
       <c r="C759" s="36"/>
@@ -49332,7 +49351,7 @@
       <c r="H759" s="40"/>
       <c r="I759" s="12"/>
     </row>
-    <row r="760" spans="1:9" ht="15.75">
+    <row r="760" spans="1:9" ht="33.75" customHeight="1">
       <c r="A760" s="35"/>
       <c r="B760" s="35"/>
       <c r="C760" s="36"/>
@@ -49343,7 +49362,7 @@
       <c r="H760" s="40"/>
       <c r="I760" s="12"/>
     </row>
-    <row r="761" spans="1:9" ht="15.75">
+    <row r="761" spans="1:9" ht="33.75" customHeight="1">
       <c r="A761" s="35"/>
       <c r="B761" s="35"/>
       <c r="C761" s="36"/>
@@ -49354,7 +49373,7 @@
       <c r="H761" s="40"/>
       <c r="I761" s="12"/>
     </row>
-    <row r="762" spans="1:9" ht="15.75">
+    <row r="762" spans="1:9" ht="33.75" customHeight="1">
       <c r="A762" s="35"/>
       <c r="B762" s="35"/>
       <c r="C762" s="36"/>
@@ -49365,7 +49384,7 @@
       <c r="H762" s="40"/>
       <c r="I762" s="12"/>
     </row>
-    <row r="763" spans="1:9" ht="15.75">
+    <row r="763" spans="1:9" ht="33.75" customHeight="1">
       <c r="A763" s="35"/>
       <c r="B763" s="35"/>
       <c r="C763" s="36"/>
@@ -49376,7 +49395,7 @@
       <c r="H763" s="40"/>
       <c r="I763" s="12"/>
     </row>
-    <row r="764" spans="1:9" ht="15.75">
+    <row r="764" spans="1:9" ht="33.75" customHeight="1">
       <c r="A764" s="35"/>
       <c r="B764" s="35"/>
       <c r="C764" s="36"/>
@@ -49387,7 +49406,7 @@
       <c r="H764" s="40"/>
       <c r="I764" s="12"/>
     </row>
-    <row r="765" spans="1:9" ht="15.75">
+    <row r="765" spans="1:9" ht="33.75" customHeight="1">
       <c r="A765" s="35"/>
       <c r="B765" s="35"/>
       <c r="C765" s="36"/>
@@ -49398,7 +49417,7 @@
       <c r="H765" s="40"/>
       <c r="I765" s="12"/>
     </row>
-    <row r="766" spans="1:9" ht="15.75">
+    <row r="766" spans="1:9" ht="33.75" customHeight="1">
       <c r="A766" s="35"/>
       <c r="B766" s="35"/>
       <c r="C766" s="36"/>
@@ -49409,7 +49428,7 @@
       <c r="H766" s="40"/>
       <c r="I766" s="12"/>
     </row>
-    <row r="767" spans="1:9" ht="15.75">
+    <row r="767" spans="1:9" ht="33.75" customHeight="1">
       <c r="A767" s="35"/>
       <c r="B767" s="35"/>
       <c r="C767" s="36"/>
@@ -49420,7 +49439,7 @@
       <c r="H767" s="40"/>
       <c r="I767" s="12"/>
     </row>
-    <row r="768" spans="1:9" ht="15.75">
+    <row r="768" spans="1:9" ht="33.75" customHeight="1">
       <c r="A768" s="35"/>
       <c r="B768" s="35"/>
       <c r="C768" s="36"/>
@@ -49431,7 +49450,7 @@
       <c r="H768" s="40"/>
       <c r="I768" s="12"/>
     </row>
-    <row r="769" spans="1:9" ht="15.75">
+    <row r="769" spans="1:9" ht="33.75" customHeight="1">
       <c r="A769" s="35"/>
       <c r="B769" s="35"/>
       <c r="C769" s="36"/>
@@ -49442,7 +49461,7 @@
       <c r="H769" s="40"/>
       <c r="I769" s="12"/>
     </row>
-    <row r="770" spans="1:9" ht="15.75">
+    <row r="770" spans="1:9" ht="33.75" customHeight="1">
       <c r="A770" s="35"/>
       <c r="B770" s="35"/>
       <c r="C770" s="36"/>
@@ -49453,7 +49472,7 @@
       <c r="H770" s="40"/>
       <c r="I770" s="12"/>
     </row>
-    <row r="771" spans="1:9" ht="15.75">
+    <row r="771" spans="1:9" ht="33.75" customHeight="1">
       <c r="A771" s="35"/>
       <c r="B771" s="35"/>
       <c r="C771" s="36"/>
@@ -49464,7 +49483,7 @@
       <c r="H771" s="40"/>
       <c r="I771" s="12"/>
     </row>
-    <row r="772" spans="1:9" ht="15.75">
+    <row r="772" spans="1:9" ht="33.75" customHeight="1">
       <c r="A772" s="35"/>
       <c r="B772" s="35"/>
       <c r="C772" s="36"/>
@@ -49475,7 +49494,7 @@
       <c r="H772" s="40"/>
       <c r="I772" s="12"/>
     </row>
-    <row r="773" spans="1:9" ht="15.75">
+    <row r="773" spans="1:9" ht="33.75" customHeight="1">
       <c r="A773" s="35"/>
       <c r="B773" s="35"/>
       <c r="C773" s="36"/>
@@ -49486,7 +49505,7 @@
       <c r="H773" s="40"/>
       <c r="I773" s="12"/>
     </row>
-    <row r="774" spans="1:9" ht="15.75">
+    <row r="774" spans="1:9" ht="33.75" customHeight="1">
       <c r="A774" s="35"/>
       <c r="B774" s="35"/>
       <c r="C774" s="36"/>
@@ -49497,7 +49516,7 @@
       <c r="H774" s="40"/>
       <c r="I774" s="12"/>
     </row>
-    <row r="775" spans="1:9" ht="15.75">
+    <row r="775" spans="1:9" ht="33.75" customHeight="1">
       <c r="A775" s="35"/>
       <c r="B775" s="35"/>
       <c r="C775" s="36"/>
@@ -49508,7 +49527,7 @@
       <c r="H775" s="40"/>
       <c r="I775" s="12"/>
     </row>
-    <row r="776" spans="1:9" ht="15.75">
+    <row r="776" spans="1:9" ht="33.75" customHeight="1">
       <c r="A776" s="35"/>
       <c r="B776" s="35"/>
       <c r="C776" s="36"/>
@@ -49519,7 +49538,7 @@
       <c r="H776" s="40"/>
       <c r="I776" s="12"/>
     </row>
-    <row r="777" spans="1:9" ht="15.75">
+    <row r="777" spans="1:9" ht="33.75" customHeight="1">
       <c r="A777" s="35"/>
       <c r="B777" s="35"/>
       <c r="C777" s="36"/>
@@ -49530,7 +49549,7 @@
       <c r="H777" s="40"/>
       <c r="I777" s="12"/>
     </row>
-    <row r="778" spans="1:9" ht="15.75">
+    <row r="778" spans="1:9" ht="33.75" customHeight="1">
       <c r="A778" s="35"/>
       <c r="B778" s="35"/>
       <c r="C778" s="36"/>
@@ -49541,7 +49560,7 @@
       <c r="H778" s="40"/>
       <c r="I778" s="12"/>
     </row>
-    <row r="779" spans="1:9" ht="15.75">
+    <row r="779" spans="1:9" ht="33.75" customHeight="1">
       <c r="A779" s="35"/>
       <c r="B779" s="35"/>
       <c r="C779" s="36"/>
@@ -49552,7 +49571,7 @@
       <c r="H779" s="40"/>
       <c r="I779" s="12"/>
     </row>
-    <row r="780" spans="1:9" ht="15.75">
+    <row r="780" spans="1:9" ht="33.75" customHeight="1">
       <c r="A780" s="35"/>
       <c r="B780" s="35"/>
       <c r="C780" s="36"/>
@@ -49563,7 +49582,7 @@
       <c r="H780" s="40"/>
       <c r="I780" s="12"/>
     </row>
-    <row r="781" spans="1:9" ht="15.75">
+    <row r="781" spans="1:9" ht="33.75" customHeight="1">
       <c r="A781" s="35"/>
       <c r="B781" s="35"/>
       <c r="C781" s="36"/>
@@ -49574,7 +49593,7 @@
       <c r="H781" s="40"/>
       <c r="I781" s="12"/>
     </row>
-    <row r="782" spans="1:9" ht="15.75">
+    <row r="782" spans="1:9" ht="33.75" customHeight="1">
       <c r="A782" s="35"/>
       <c r="B782" s="35"/>
       <c r="C782" s="36"/>
@@ -49585,7 +49604,7 @@
       <c r="H782" s="40"/>
       <c r="I782" s="12"/>
     </row>
-    <row r="783" spans="1:9" ht="15.75">
+    <row r="783" spans="1:9" ht="33.75" customHeight="1">
       <c r="A783" s="35"/>
       <c r="B783" s="35"/>
       <c r="C783" s="36"/>
@@ -49596,7 +49615,7 @@
       <c r="H783" s="40"/>
       <c r="I783" s="12"/>
     </row>
-    <row r="784" spans="1:9" ht="15.75">
+    <row r="784" spans="1:9" ht="33.75" customHeight="1">
       <c r="A784" s="35"/>
       <c r="B784" s="35"/>
       <c r="C784" s="36"/>
@@ -49607,7 +49626,7 @@
       <c r="H784" s="40"/>
       <c r="I784" s="12"/>
     </row>
-    <row r="785" spans="1:9" ht="15.75">
+    <row r="785" spans="1:9" ht="33.75" customHeight="1">
       <c r="A785" s="35"/>
       <c r="B785" s="35"/>
       <c r="C785" s="36"/>
@@ -49618,7 +49637,7 @@
       <c r="H785" s="40"/>
       <c r="I785" s="12"/>
     </row>
-    <row r="786" spans="1:9" ht="15.75">
+    <row r="786" spans="1:9" ht="33.75" customHeight="1">
       <c r="A786" s="35"/>
       <c r="B786" s="35"/>
       <c r="C786" s="36"/>
@@ -49629,7 +49648,7 @@
       <c r="H786" s="40"/>
       <c r="I786" s="12"/>
     </row>
-    <row r="787" spans="1:9" ht="15.75">
+    <row r="787" spans="1:9" ht="33.75" customHeight="1">
       <c r="A787" s="35"/>
       <c r="B787" s="35"/>
       <c r="C787" s="36"/>
@@ -49640,7 +49659,7 @@
       <c r="H787" s="40"/>
       <c r="I787" s="12"/>
     </row>
-    <row r="788" spans="1:9" ht="15.75">
+    <row r="788" spans="1:9" ht="33.75" customHeight="1">
       <c r="A788" s="35"/>
       <c r="B788" s="35"/>
       <c r="C788" s="36"/>
@@ -49651,7 +49670,7 @@
       <c r="H788" s="40"/>
       <c r="I788" s="12"/>
     </row>
-    <row r="789" spans="1:9" ht="15.75">
+    <row r="789" spans="1:9" ht="33.75" customHeight="1">
       <c r="A789" s="35"/>
       <c r="B789" s="35"/>
       <c r="C789" s="36"/>
@@ -49662,7 +49681,7 @@
       <c r="H789" s="40"/>
       <c r="I789" s="12"/>
     </row>
-    <row r="790" spans="1:9" ht="15.75">
+    <row r="790" spans="1:9" ht="33.75" customHeight="1">
       <c r="A790" s="35"/>
       <c r="B790" s="35"/>
       <c r="C790" s="36"/>
@@ -49673,7 +49692,7 @@
       <c r="H790" s="40"/>
       <c r="I790" s="12"/>
     </row>
-    <row r="791" spans="1:9" ht="15.75">
+    <row r="791" spans="1:9" ht="33.75" customHeight="1">
       <c r="A791" s="35"/>
       <c r="B791" s="35"/>
       <c r="C791" s="36"/>
@@ -49684,7 +49703,7 @@
       <c r="H791" s="40"/>
       <c r="I791" s="12"/>
     </row>
-    <row r="792" spans="1:9" ht="15.75">
+    <row r="792" spans="1:9" ht="33.75" customHeight="1">
       <c r="A792" s="35"/>
       <c r="B792" s="35"/>
       <c r="C792" s="36"/>
@@ -49695,7 +49714,7 @@
       <c r="H792" s="40"/>
       <c r="I792" s="12"/>
     </row>
-    <row r="793" spans="1:9" ht="15.75">
+    <row r="793" spans="1:9" ht="33.75" customHeight="1">
       <c r="A793" s="35"/>
       <c r="B793" s="35"/>
       <c r="C793" s="36"/>
@@ -49706,7 +49725,7 @@
       <c r="H793" s="40"/>
       <c r="I793" s="12"/>
     </row>
-    <row r="794" spans="1:9" ht="15.75">
+    <row r="794" spans="1:9" ht="33.75" customHeight="1">
       <c r="A794" s="35"/>
       <c r="B794" s="35"/>
       <c r="C794" s="36"/>
@@ -49717,7 +49736,7 @@
       <c r="H794" s="40"/>
       <c r="I794" s="12"/>
     </row>
-    <row r="795" spans="1:9" ht="15.75">
+    <row r="795" spans="1:9" ht="33.75" customHeight="1">
       <c r="A795" s="35"/>
       <c r="B795" s="35"/>
       <c r="C795" s="36"/>
@@ -49728,7 +49747,7 @@
       <c r="H795" s="40"/>
       <c r="I795" s="12"/>
     </row>
-    <row r="796" spans="1:9" ht="15.75">
+    <row r="796" spans="1:9" ht="33.75" customHeight="1">
       <c r="A796" s="35"/>
       <c r="B796" s="35"/>
       <c r="C796" s="36"/>
@@ -49739,7 +49758,7 @@
       <c r="H796" s="40"/>
       <c r="I796" s="12"/>
     </row>
-    <row r="797" spans="1:9" ht="15.75">
+    <row r="797" spans="1:9" ht="33.75" customHeight="1">
       <c r="A797" s="35"/>
       <c r="B797" s="35"/>
       <c r="C797" s="36"/>
@@ -49750,7 +49769,7 @@
       <c r="H797" s="40"/>
       <c r="I797" s="12"/>
     </row>
-    <row r="798" spans="1:9" ht="15.75">
+    <row r="798" spans="1:9" ht="33.75" customHeight="1">
       <c r="A798" s="35"/>
       <c r="B798" s="35"/>
       <c r="C798" s="36"/>
@@ -49761,7 +49780,7 @@
       <c r="H798" s="40"/>
       <c r="I798" s="12"/>
     </row>
-    <row r="799" spans="1:9" ht="15.75">
+    <row r="799" spans="1:9" ht="33.75" customHeight="1">
       <c r="A799" s="35"/>
       <c r="B799" s="35"/>
       <c r="C799" s="36"/>
@@ -49772,7 +49791,7 @@
       <c r="H799" s="40"/>
       <c r="I799" s="12"/>
     </row>
-    <row r="800" spans="1:9" ht="15.75">
+    <row r="800" spans="1:9" ht="33.75" customHeight="1">
       <c r="A800" s="35"/>
       <c r="B800" s="35"/>
       <c r="C800" s="36"/>
@@ -49783,7 +49802,7 @@
       <c r="H800" s="40"/>
       <c r="I800" s="12"/>
     </row>
-    <row r="801" spans="1:9" ht="15.75">
+    <row r="801" spans="1:9" ht="33.75" customHeight="1">
       <c r="A801" s="35"/>
       <c r="B801" s="35"/>
       <c r="C801" s="36"/>
@@ -49794,7 +49813,7 @@
       <c r="H801" s="40"/>
       <c r="I801" s="12"/>
     </row>
-    <row r="802" spans="1:9" ht="15.75">
+    <row r="802" spans="1:9" ht="33.75" customHeight="1">
       <c r="A802" s="35"/>
       <c r="B802" s="35"/>
       <c r="C802" s="36"/>
@@ -49805,7 +49824,7 @@
       <c r="H802" s="40"/>
       <c r="I802" s="12"/>
     </row>
-    <row r="803" spans="1:9" ht="15.75">
+    <row r="803" spans="1:9" ht="33.75" customHeight="1">
       <c r="A803" s="35"/>
       <c r="B803" s="35"/>
       <c r="C803" s="36"/>
@@ -49816,7 +49835,7 @@
       <c r="H803" s="40"/>
       <c r="I803" s="12"/>
     </row>
-    <row r="804" spans="1:9" ht="15.75">
+    <row r="804" spans="1:9" ht="33.75" customHeight="1">
       <c r="A804" s="35"/>
       <c r="B804" s="35"/>
       <c r="C804" s="36"/>
@@ -49827,7 +49846,7 @@
       <c r="H804" s="40"/>
       <c r="I804" s="12"/>
     </row>
-    <row r="805" spans="1:9" ht="15.75">
+    <row r="805" spans="1:9" ht="33.75" customHeight="1">
       <c r="A805" s="35"/>
       <c r="B805" s="35"/>
       <c r="C805" s="36"/>
@@ -49838,7 +49857,7 @@
       <c r="H805" s="40"/>
       <c r="I805" s="12"/>
     </row>
-    <row r="806" spans="1:9" ht="15.75">
+    <row r="806" spans="1:9" ht="33.75" customHeight="1">
       <c r="A806" s="35"/>
       <c r="B806" s="35"/>
       <c r="C806" s="36"/>
@@ -49849,7 +49868,7 @@
       <c r="H806" s="40"/>
       <c r="I806" s="12"/>
     </row>
-    <row r="807" spans="1:9" ht="15.75">
+    <row r="807" spans="1:9" ht="33.75" customHeight="1">
       <c r="A807" s="35"/>
       <c r="B807" s="35"/>
       <c r="C807" s="36"/>
@@ -49860,7 +49879,7 @@
       <c r="H807" s="40"/>
       <c r="I807" s="12"/>
     </row>
-    <row r="808" spans="1:9" ht="15.75">
+    <row r="808" spans="1:9" ht="33.75" customHeight="1">
       <c r="A808" s="35"/>
       <c r="B808" s="35"/>
       <c r="C808" s="36"/>
@@ -49871,7 +49890,7 @@
       <c r="H808" s="40"/>
       <c r="I808" s="12"/>
     </row>
-    <row r="809" spans="1:9" ht="15.75">
+    <row r="809" spans="1:9" ht="33.75" customHeight="1">
       <c r="A809" s="35"/>
       <c r="B809" s="35"/>
       <c r="C809" s="36"/>
@@ -49882,7 +49901,7 @@
       <c r="H809" s="40"/>
       <c r="I809" s="12"/>
     </row>
-    <row r="810" spans="1:9" ht="15.75">
+    <row r="810" spans="1:9" ht="33.75" customHeight="1">
       <c r="A810" s="35"/>
       <c r="B810" s="35"/>
       <c r="C810" s="36"/>
@@ -49893,7 +49912,7 @@
       <c r="H810" s="40"/>
       <c r="I810" s="12"/>
     </row>
-    <row r="811" spans="1:9" ht="15.75">
+    <row r="811" spans="1:9" ht="33.75" customHeight="1">
       <c r="A811" s="35"/>
       <c r="B811" s="35"/>
       <c r="C811" s="36"/>
@@ -49904,7 +49923,7 @@
       <c r="H811" s="40"/>
       <c r="I811" s="12"/>
     </row>
-    <row r="812" spans="1:9" ht="15.75">
+    <row r="812" spans="1:9" ht="33.75" customHeight="1">
       <c r="A812" s="35"/>
       <c r="B812" s="35"/>
       <c r="C812" s="36"/>
@@ -49915,7 +49934,7 @@
       <c r="H812" s="40"/>
       <c r="I812" s="12"/>
     </row>
-    <row r="813" spans="1:9" ht="15.75">
+    <row r="813" spans="1:9" ht="33.75" customHeight="1">
       <c r="A813" s="35"/>
       <c r="B813" s="35"/>
       <c r="C813" s="36"/>
@@ -49926,7 +49945,7 @@
       <c r="H813" s="40"/>
       <c r="I813" s="12"/>
     </row>
-    <row r="814" spans="1:9" ht="15.75">
+    <row r="814" spans="1:9" ht="33.75" customHeight="1">
       <c r="A814" s="35"/>
       <c r="B814" s="35"/>
       <c r="C814" s="36"/>
@@ -49937,7 +49956,7 @@
       <c r="H814" s="40"/>
       <c r="I814" s="12"/>
     </row>
-    <row r="815" spans="1:9" ht="15.75">
+    <row r="815" spans="1:9" ht="33.75" customHeight="1">
       <c r="A815" s="35"/>
       <c r="B815" s="35"/>
       <c r="C815" s="36"/>
@@ -49948,7 +49967,7 @@
       <c r="H815" s="40"/>
       <c r="I815" s="12"/>
     </row>
-    <row r="816" spans="1:9" ht="15.75">
+    <row r="816" spans="1:9" ht="33.75" customHeight="1">
       <c r="A816" s="35"/>
       <c r="B816" s="35"/>
       <c r="C816" s="36"/>
@@ -49959,7 +49978,7 @@
       <c r="H816" s="40"/>
       <c r="I816" s="12"/>
     </row>
-    <row r="817" spans="1:9" ht="15.75">
+    <row r="817" spans="1:9" ht="33.75" customHeight="1">
       <c r="A817" s="35"/>
       <c r="B817" s="35"/>
       <c r="C817" s="36"/>
@@ -49970,7 +49989,7 @@
       <c r="H817" s="40"/>
       <c r="I817" s="12"/>
     </row>
-    <row r="818" spans="1:9" ht="15.75">
+    <row r="818" spans="1:9" ht="33.75" customHeight="1">
       <c r="A818" s="35"/>
       <c r="B818" s="35"/>
       <c r="C818" s="36"/>
@@ -49981,7 +50000,7 @@
       <c r="H818" s="40"/>
       <c r="I818" s="12"/>
     </row>
-    <row r="819" spans="1:9" ht="15.75">
+    <row r="819" spans="1:9" ht="33.75" customHeight="1">
       <c r="A819" s="35"/>
       <c r="B819" s="35"/>
       <c r="C819" s="36"/>
@@ -49992,7 +50011,7 @@
       <c r="H819" s="40"/>
       <c r="I819" s="12"/>
     </row>
-    <row r="820" spans="1:9" ht="15.75">
+    <row r="820" spans="1:9" ht="33.75" customHeight="1">
       <c r="A820" s="35"/>
       <c r="B820" s="35"/>
       <c r="C820" s="36"/>
@@ -50003,7 +50022,7 @@
       <c r="H820" s="40"/>
       <c r="I820" s="12"/>
     </row>
-    <row r="821" spans="1:9" ht="15.75">
+    <row r="821" spans="1:9" ht="33.75" customHeight="1">
       <c r="A821" s="35"/>
       <c r="B821" s="35"/>
       <c r="C821" s="36"/>
@@ -50014,7 +50033,7 @@
       <c r="H821" s="40"/>
       <c r="I821" s="12"/>
     </row>
-    <row r="822" spans="1:9" ht="15.75">
+    <row r="822" spans="1:9" ht="33.75" customHeight="1">
       <c r="A822" s="35"/>
       <c r="B822" s="35"/>
       <c r="C822" s="36"/>
@@ -50025,7 +50044,7 @@
       <c r="H822" s="40"/>
       <c r="I822" s="12"/>
     </row>
-    <row r="823" spans="1:9" ht="15.75">
+    <row r="823" spans="1:9" ht="33.75" customHeight="1">
       <c r="A823" s="35"/>
       <c r="B823" s="35"/>
       <c r="C823" s="36"/>
@@ -50036,7 +50055,7 @@
       <c r="H823" s="40"/>
       <c r="I823" s="12"/>
     </row>
-    <row r="824" spans="1:9" ht="15.75">
+    <row r="824" spans="1:9" ht="33.75" customHeight="1">
       <c r="A824" s="35"/>
       <c r="B824" s="35"/>
       <c r="C824" s="36"/>
@@ -50047,7 +50066,7 @@
       <c r="H824" s="40"/>
       <c r="I824" s="12"/>
     </row>
-    <row r="825" spans="1:9" ht="15.75">
+    <row r="825" spans="1:9" ht="33.75" customHeight="1">
       <c r="A825" s="35"/>
       <c r="B825" s="35"/>
       <c r="C825" s="36"/>
@@ -50058,7 +50077,7 @@
       <c r="H825" s="40"/>
       <c r="I825" s="12"/>
     </row>
-    <row r="826" spans="1:9" ht="15.75">
+    <row r="826" spans="1:9" ht="33.75" customHeight="1">
       <c r="A826" s="35"/>
       <c r="B826" s="35"/>
       <c r="C826" s="36"/>
@@ -50069,7 +50088,7 @@
       <c r="H826" s="40"/>
       <c r="I826" s="12"/>
     </row>
-    <row r="827" spans="1:9" ht="15.75">
+    <row r="827" spans="1:9" ht="33.75" customHeight="1">
       <c r="A827" s="35"/>
       <c r="B827" s="35"/>
       <c r="C827" s="36"/>
@@ -50080,7 +50099,7 @@
       <c r="H827" s="40"/>
       <c r="I827" s="12"/>
     </row>
-    <row r="828" spans="1:9" ht="15.75">
+    <row r="828" spans="1:9" ht="33.75" customHeight="1">
       <c r="A828" s="35"/>
       <c r="B828" s="35"/>
       <c r="C828" s="36"/>
@@ -50091,7 +50110,7 @@
       <c r="H828" s="40"/>
       <c r="I828" s="12"/>
     </row>
-    <row r="829" spans="1:9" ht="15.75">
+    <row r="829" spans="1:9" ht="33.75" customHeight="1">
       <c r="A829" s="35"/>
       <c r="B829" s="35"/>
       <c r="C829" s="36"/>
@@ -50102,7 +50121,7 @@
       <c r="H829" s="40"/>
       <c r="I829" s="12"/>
     </row>
-    <row r="830" spans="1:9" ht="15.75">
+    <row r="830" spans="1:9" ht="33.75" customHeight="1">
       <c r="A830" s="35"/>
       <c r="B830" s="35"/>
       <c r="C830" s="36"/>
@@ -50113,7 +50132,7 @@
       <c r="H830" s="40"/>
       <c r="I830" s="12"/>
     </row>
-    <row r="831" spans="1:9" ht="15.75">
+    <row r="831" spans="1:9" ht="33.75" customHeight="1">
       <c r="A831" s="35"/>
       <c r="B831" s="35"/>
       <c r="C831" s="36"/>
@@ -50124,7 +50143,7 @@
       <c r="H831" s="40"/>
       <c r="I831" s="12"/>
     </row>
-    <row r="832" spans="1:9" ht="15.75">
+    <row r="832" spans="1:9" ht="33.75" customHeight="1">
       <c r="A832" s="35"/>
       <c r="B832" s="35"/>
       <c r="C832" s="36"/>
@@ -50135,7 +50154,7 @@
       <c r="H832" s="40"/>
       <c r="I832" s="12"/>
     </row>
-    <row r="833" spans="1:9" ht="15.75">
+    <row r="833" spans="1:9" ht="33.75" customHeight="1">
       <c r="A833" s="35"/>
       <c r="B833" s="35"/>
       <c r="C833" s="36"/>
@@ -50146,7 +50165,7 @@
       <c r="H833" s="40"/>
       <c r="I833" s="12"/>
     </row>
-    <row r="834" spans="1:9" ht="15.75">
+    <row r="834" spans="1:9" ht="33.75" customHeight="1">
       <c r="A834" s="35"/>
       <c r="B834" s="35"/>
       <c r="C834" s="36"/>
@@ -50157,7 +50176,7 @@
       <c r="H834" s="40"/>
       <c r="I834" s="12"/>
     </row>
-    <row r="835" spans="1:9" ht="15.75">
+    <row r="835" spans="1:9" ht="33.75" customHeight="1">
       <c r="A835" s="35"/>
       <c r="B835" s="35"/>
       <c r="C835" s="36"/>
@@ -50168,7 +50187,7 @@
       <c r="H835" s="40"/>
       <c r="I835" s="12"/>
     </row>
-    <row r="836" spans="1:9" ht="15.75">
+    <row r="836" spans="1:9" ht="33.75" customHeight="1">
       <c r="A836" s="35"/>
       <c r="B836" s="35"/>
       <c r="C836" s="36"/>
@@ -50179,7 +50198,7 @@
       <c r="H836" s="40"/>
       <c r="I836" s="12"/>
     </row>
-    <row r="837" spans="1:9" ht="15.75">
+    <row r="837" spans="1:9" ht="33.75" customHeight="1">
       <c r="A837" s="35"/>
       <c r="B837" s="35"/>
       <c r="C837" s="36"/>
@@ -50190,7 +50209,7 @@
       <c r="H837" s="40"/>
       <c r="I837" s="12"/>
     </row>
-    <row r="838" spans="1:9" ht="15.75">
+    <row r="838" spans="1:9" ht="33.75" customHeight="1">
       <c r="A838" s="35"/>
       <c r="B838" s="35"/>
       <c r="C838" s="36"/>
@@ -50201,7 +50220,7 @@
       <c r="H838" s="40"/>
       <c r="I838" s="12"/>
     </row>
-    <row r="839" spans="1:9" ht="15.75">
+    <row r="839" spans="1:9" ht="33.75" customHeight="1">
       <c r="A839" s="35"/>
       <c r="B839" s="35"/>
       <c r="C839" s="36"/>
@@ -50212,7 +50231,7 @@
       <c r="H839" s="40"/>
       <c r="I839" s="12"/>
     </row>
-    <row r="840" spans="1:9" ht="15.75">
+    <row r="840" spans="1:9" ht="33.75" customHeight="1">
       <c r="A840" s="35"/>
       <c r="B840" s="35"/>
       <c r="C840" s="36"/>
@@ -50223,7 +50242,7 @@
       <c r="H840" s="40"/>
       <c r="I840" s="12"/>
     </row>
-    <row r="841" spans="1:9" ht="15.75">
+    <row r="841" spans="1:9" ht="33.75" customHeight="1">
       <c r="A841" s="35"/>
       <c r="B841" s="35"/>
       <c r="C841" s="36"/>
@@ -50234,7 +50253,7 @@
       <c r="H841" s="40"/>
       <c r="I841" s="12"/>
     </row>
-    <row r="842" spans="1:9" ht="15.75">
+    <row r="842" spans="1:9" ht="33.75" customHeight="1">
       <c r="A842" s="35"/>
       <c r="B842" s="35"/>
       <c r="C842" s="36"/>
@@ -50245,7 +50264,7 @@
       <c r="H842" s="40"/>
       <c r="I842" s="12"/>
     </row>
-    <row r="843" spans="1:9" ht="15.75">
+    <row r="843" spans="1:9" ht="33.75" customHeight="1">
       <c r="A843" s="35"/>
       <c r="B843" s="35"/>
       <c r="C843" s="36"/>
@@ -50256,7 +50275,7 @@
       <c r="H843" s="40"/>
       <c r="I843" s="12"/>
     </row>
-    <row r="844" spans="1:9" ht="15.75">
+    <row r="844" spans="1:9" ht="33.75" customHeight="1">
       <c r="A844" s="35"/>
       <c r="B844" s="35"/>
       <c r="C844" s="36"/>
@@ -50267,7 +50286,7 @@
       <c r="H844" s="40"/>
       <c r="I844" s="12"/>
     </row>
-    <row r="845" spans="1:9" ht="15.75">
+    <row r="845" spans="1:9" ht="33.75" customHeight="1">
       <c r="A845" s="35"/>
       <c r="B845" s="35"/>
       <c r="C845" s="36"/>
@@ -50278,7 +50297,7 @@
       <c r="H845" s="40"/>
       <c r="I845" s="12"/>
     </row>
-    <row r="846" spans="1:9" ht="15.75">
+    <row r="846" spans="1:9" ht="33.75" customHeight="1">
       <c r="A846" s="35"/>
       <c r="B846" s="35"/>
       <c r="C846" s="36"/>
@@ -50289,7 +50308,7 @@
       <c r="H846" s="40"/>
       <c r="I846" s="12"/>
     </row>
-    <row r="847" spans="1:9" ht="15.75">
+    <row r="847" spans="1:9" ht="33.75" customHeight="1">
       <c r="A847" s="35"/>
       <c r="B847" s="35"/>
       <c r="C847" s="36"/>
@@ -50300,7 +50319,7 @@
       <c r="H847" s="40"/>
       <c r="I847" s="12"/>
     </row>
-    <row r="848" spans="1:9" ht="15.75">
+    <row r="848" spans="1:9" ht="33.75" customHeight="1">
       <c r="A848" s="35"/>
       <c r="B848" s="35"/>
       <c r="C848" s="36"/>
@@ -50311,7 +50330,7 @@
       <c r="H848" s="40"/>
       <c r="I848" s="12"/>
     </row>
-    <row r="849" spans="1:9" ht="15.75">
+    <row r="849" spans="1:9" ht="33.75" customHeight="1">
       <c r="A849" s="35"/>
       <c r="B849" s="35"/>
       <c r="C849" s="36"/>
@@ -50322,7 +50341,7 @@
       <c r="H849" s="40"/>
       <c r="I849" s="12"/>
     </row>
-    <row r="850" spans="1:9" ht="15.75">
+    <row r="850" spans="1:9" ht="33.75" customHeight="1">
       <c r="A850" s="35"/>
       <c r="B850" s="35"/>
       <c r="C850" s="36"/>
@@ -50333,7 +50352,7 @@
       <c r="H850" s="40"/>
       <c r="I850" s="12"/>
     </row>
-    <row r="851" spans="1:9" ht="15.75">
+    <row r="851" spans="1:9" ht="33.75" customHeight="1">
       <c r="A851" s="35"/>
       <c r="B851" s="35"/>
       <c r="C851" s="36"/>
@@ -50344,7 +50363,7 @@
       <c r="H851" s="40"/>
       <c r="I851" s="12"/>
     </row>
-    <row r="852" spans="1:9" ht="15.75">
+    <row r="852" spans="1:9" ht="33.75" customHeight="1">
       <c r="A852" s="35"/>
       <c r="B852" s="35"/>
       <c r="C852" s="36"/>
@@ -50355,7 +50374,7 @@
       <c r="H852" s="40"/>
       <c r="I852" s="12"/>
     </row>
-    <row r="853" spans="1:9" ht="15.75">
+    <row r="853" spans="1:9" ht="33.75" customHeight="1">
       <c r="A853" s="35"/>
       <c r="B853" s="35"/>
       <c r="C853" s="36"/>
@@ -50366,7 +50385,7 @@
       <c r="H853" s="40"/>
       <c r="I853" s="12"/>
     </row>
-    <row r="854" spans="1:9" ht="15.75">
+    <row r="854" spans="1:9" ht="33.75" customHeight="1">
       <c r="A854" s="35"/>
       <c r="B854" s="35"/>
       <c r="C854" s="36"/>
@@ -50377,7 +50396,7 @@
       <c r="H854" s="40"/>
       <c r="I854" s="12"/>
     </row>
-    <row r="855" spans="1:9" ht="15.75">
+    <row r="855" spans="1:9" ht="33.75" customHeight="1">
       <c r="A855" s="35"/>
       <c r="B855" s="35"/>
       <c r="C855" s="36"/>
@@ -50388,7 +50407,7 @@
       <c r="H855" s="40"/>
       <c r="I855" s="12"/>
     </row>
-    <row r="856" spans="1:9" ht="15.75">
+    <row r="856" spans="1:9" ht="33.75" customHeight="1">
       <c r="A856" s="35"/>
       <c r="B856" s="35"/>
       <c r="C856" s="36"/>
@@ -50399,7 +50418,7 @@
       <c r="H856" s="40"/>
       <c r="I856" s="12"/>
     </row>
-    <row r="857" spans="1:9" ht="15.75">
+    <row r="857" spans="1:9" ht="33.75" customHeight="1">
       <c r="A857" s="35"/>
       <c r="B857" s="35"/>
       <c r="C857" s="36"/>
@@ -50410,7 +50429,7 @@
       <c r="H857" s="40"/>
       <c r="I857" s="12"/>
     </row>
-    <row r="858" spans="1:9" ht="15.75">
+    <row r="858" spans="1:9" ht="33.75" customHeight="1">
       <c r="A858" s="35"/>
       <c r="B858" s="35"/>
       <c r="C858" s="36"/>
@@ -50421,7 +50440,7 @@
       <c r="H858" s="40"/>
       <c r="I858" s="12"/>
     </row>
-    <row r="859" spans="1:9" ht="15.75">
+    <row r="859" spans="1:9" ht="33.75" customHeight="1">
       <c r="A859" s="35"/>
       <c r="B859" s="35"/>
       <c r="C859" s="36"/>
@@ -50432,7 +50451,7 @@
       <c r="H859" s="40"/>
       <c r="I859" s="12"/>
     </row>
-    <row r="860" spans="1:9" ht="15.75">
+    <row r="860" spans="1:9" ht="33.75" customHeight="1">
       <c r="A860" s="35"/>
       <c r="B860" s="35"/>
       <c r="C860" s="36"/>
@@ -50443,7 +50462,7 @@
       <c r="H860" s="40"/>
       <c r="I860" s="12"/>
     </row>
-    <row r="861" spans="1:9" ht="15.75">
+    <row r="861" spans="1:9" ht="33.75" customHeight="1">
       <c r="A861" s="35"/>
       <c r="B861" s="35"/>
       <c r="C861" s="36"/>
@@ -50454,7 +50473,7 @@
       <c r="H861" s="40"/>
       <c r="I861" s="12"/>
     </row>
-    <row r="862" spans="1:9" ht="15.75">
+    <row r="862" spans="1:9" ht="33.75" customHeight="1">
       <c r="A862" s="35"/>
       <c r="B862" s="35"/>
       <c r="C862" s="36"/>
@@ -50465,7 +50484,7 @@
       <c r="H862" s="40"/>
       <c r="I862" s="12"/>
     </row>
-    <row r="863" spans="1:9" ht="15.75">
+    <row r="863" spans="1:9" ht="33.75" customHeight="1">
       <c r="A863" s="35"/>
       <c r="B863" s="35"/>
       <c r="C863" s="36"/>
@@ -50476,7 +50495,7 @@
       <c r="H863" s="40"/>
       <c r="I863" s="12"/>
     </row>
-    <row r="864" spans="1:9" ht="15.75">
+    <row r="864" spans="1:9" ht="33.75" customHeight="1">
       <c r="A864" s="35"/>
       <c r="B864" s="35"/>
       <c r="C864" s="36"/>
@@ -50487,7 +50506,7 @@
       <c r="H864" s="40"/>
       <c r="I864" s="12"/>
     </row>
-    <row r="865" spans="1:9" ht="15.75">
+    <row r="865" spans="1:9" ht="33.75" customHeight="1">
       <c r="A865" s="35"/>
       <c r="B865" s="35"/>
       <c r="C865" s="36"/>
@@ -50498,7 +50517,7 @@
       <c r="H865" s="40"/>
       <c r="I865" s="12"/>
     </row>
-    <row r="866" spans="1:9" ht="15.75">
+    <row r="866" spans="1:9" ht="33.75" customHeight="1">
       <c r="A866" s="35"/>
       <c r="B866" s="35"/>
       <c r="C866" s="36"/>
@@ -50509,7 +50528,7 @@
       <c r="H866" s="40"/>
       <c r="I866" s="12"/>
     </row>
-    <row r="867" spans="1:9" ht="15.75">
+    <row r="867" spans="1:9" ht="33.75" customHeight="1">
       <c r="A867" s="35"/>
       <c r="B867" s="35"/>
       <c r="C867" s="36"/>
@@ -50520,7 +50539,7 @@
       <c r="H867" s="40"/>
       <c r="I867" s="12"/>
     </row>
-    <row r="868" spans="1:9" ht="15.75">
+    <row r="868" spans="1:9" ht="33.75" customHeight="1">
       <c r="A868" s="35"/>
       <c r="B868" s="35"/>
       <c r="C868" s="36"/>
@@ -50531,7 +50550,7 @@
       <c r="H868" s="40"/>
       <c r="I868" s="12"/>
     </row>
-    <row r="869" spans="1:9" ht="15.75">
+    <row r="869" spans="1:9" ht="33.75" customHeight="1">
       <c r="A869" s="35"/>
       <c r="B869" s="35"/>
       <c r="C869" s="36"/>
@@ -50542,7 +50561,7 @@
       <c r="H869" s="40"/>
       <c r="I869" s="12"/>
     </row>
-    <row r="870" spans="1:9" ht="15.75">
+    <row r="870" spans="1:9" ht="33.75" customHeight="1">
       <c r="A870" s="35"/>
       <c r="B870" s="35"/>
       <c r="C870" s="36"/>
@@ -50553,7 +50572,7 @@
       <c r="H870" s="40"/>
       <c r="I870" s="12"/>
     </row>
-    <row r="871" spans="1:9" ht="15.75">
+    <row r="871" spans="1:9" ht="33.75" customHeight="1">
       <c r="A871" s="35"/>
       <c r="B871" s="35"/>
       <c r="C871" s="36"/>
@@ -50564,7 +50583,7 @@
       <c r="H871" s="40"/>
       <c r="I871" s="12"/>
     </row>
-    <row r="872" spans="1:9" ht="15.75">
+    <row r="872" spans="1:9" ht="33.75" customHeight="1">
       <c r="A872" s="35"/>
       <c r="B872" s="35"/>
       <c r="C872" s="36"/>
@@ -50575,7 +50594,7 @@
       <c r="H872" s="40"/>
       <c r="I872" s="12"/>
     </row>
-    <row r="873" spans="1:9" ht="15.75">
+    <row r="873" spans="1:9" ht="33.75" customHeight="1">
       <c r="A873" s="35"/>
       <c r="B873" s="35"/>
       <c r="C873" s="36"/>
@@ -50586,7 +50605,7 @@
       <c r="H873" s="40"/>
       <c r="I873" s="12"/>
     </row>
-    <row r="874" spans="1:9" ht="15.75">
+    <row r="874" spans="1:9" ht="33.75" customHeight="1">
       <c r="A874" s="35"/>
       <c r="B874" s="35"/>
       <c r="C874" s="36"/>
@@ -50597,7 +50616,7 @@
       <c r="H874" s="40"/>
       <c r="I874" s="12"/>
     </row>
-    <row r="875" spans="1:9" ht="15.75">
+    <row r="875" spans="1:9" ht="33.75" customHeight="1">
       <c r="A875" s="35"/>
       <c r="B875" s="35"/>
       <c r="C875" s="36"/>
@@ -50608,7 +50627,7 @@
       <c r="H875" s="40"/>
       <c r="I875" s="12"/>
     </row>
-    <row r="876" spans="1:9" ht="15.75">
+    <row r="876" spans="1:9" ht="33.75" customHeight="1">
       <c r="A876" s="35"/>
       <c r="B876" s="35"/>
       <c r="C876" s="36"/>
@@ -50620,11 +50639,6 @@
       <c r="I876" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL71">
-    <sortState ref="A2:P71">
-      <sortCondition ref="L1:L71"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -50633,7 +50647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H61"/>
     </sheetView>
   </sheetViews>
@@ -50986,8 +51000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K876"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -54929,6 +54943,47 @@
       <c r="J876"/>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K876"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>